--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0313D996-4688-4ECF-A732-FF8B60D4F0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733B3AF3-A3C5-4356-A17B-3709F63AF83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5673" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6115" uniqueCount="395">
   <si>
     <t>battle</t>
   </si>
@@ -1146,6 +1146,87 @@
   <si>
     <t>0259dcc0-0640-11ec-ac48-ed5eca8d24c5</t>
   </si>
+  <si>
+    <t>f91c1f90-0646-11ec-a394-dd513bb31df6</t>
+  </si>
+  <si>
+    <t>8bf4d3a0-0649-11ec-a394-dd513bb31df6</t>
+  </si>
+  <si>
+    <t>353cf030-064c-11ec-a394-dd513bb31df6</t>
+  </si>
+  <si>
+    <t>50ac9240-0650-11ec-a394-dd513bb31df6</t>
+  </si>
+  <si>
+    <t>8a3564d0-0653-11ec-a394-dd513bb31df6</t>
+  </si>
+  <si>
+    <t>604404e0-0655-11ec-a394-dd513bb31df6</t>
+  </si>
+  <si>
+    <t>58529010-0657-11ec-a394-dd513bb31df6</t>
+  </si>
+  <si>
+    <t>a0c19560-0659-11ec-a394-dd513bb31df6</t>
+  </si>
+  <si>
+    <t>73553820-065e-11ec-a394-dd513bb31df6</t>
+  </si>
+  <si>
+    <t>91ad3f00-0660-11ec-a394-dd513bb31df6</t>
+  </si>
+  <si>
+    <t>d7dec580-0664-11ec-a394-dd513bb31df6</t>
+  </si>
+  <si>
+    <t>68f3a980-0667-11ec-a394-dd513bb31df6</t>
+  </si>
+  <si>
+    <t>50604b60-066e-11ec-a394-dd513bb31df6</t>
+  </si>
+  <si>
+    <t>5a0e8e90-0670-11ec-a394-dd513bb31df6</t>
+  </si>
+  <si>
+    <t>bb6f1360-0672-11ec-a394-dd513bb31df6</t>
+  </si>
+  <si>
+    <t>e8bfce20-0674-11ec-a394-dd513bb31df6</t>
+  </si>
+  <si>
+    <t>21856e00-0647-11ec-bdf7-ad536f10dfa5</t>
+  </si>
+  <si>
+    <t>5146be20-064a-11ec-bdf7-ad536f10dfa5</t>
+  </si>
+  <si>
+    <t>71748480-064e-11ec-bdf7-ad536f10dfa5</t>
+  </si>
+  <si>
+    <t>cbcb78f0-0651-11ec-bdf7-ad536f10dfa5</t>
+  </si>
+  <si>
+    <t>8b1ab460-0656-11ec-bdf7-ad536f10dfa5</t>
+  </si>
+  <si>
+    <t>434e4190-065d-11ec-bdf7-ad536f10dfa5</t>
+  </si>
+  <si>
+    <t>d19babb0-0660-11ec-bdf7-ad536f10dfa5</t>
+  </si>
+  <si>
+    <t>6af04430-0664-11ec-bdf7-ad536f10dfa5</t>
+  </si>
+  <si>
+    <t>3b43d770-0668-11ec-bdf7-ad536f10dfa5</t>
+  </si>
+  <si>
+    <t>9f4485c0-066e-11ec-bdf7-ad536f10dfa5</t>
+  </si>
+  <si>
+    <t>8c3fc2b0-0672-11ec-bdf7-ad536f10dfa5</t>
+  </si>
 </sst>
 </file>
 
@@ -1360,7 +1441,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1369,7 +1453,61 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF9BC2E6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1378,7 +1516,61 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF9BC2E6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1387,10 +1579,61 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF9BC2E6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1606,6 +1849,12 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -1799,6 +2048,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2008,6 +2263,12 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -2201,6 +2462,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2410,6 +2677,12 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -2611,199 +2884,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color rgb="FF9BC2E6"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color rgb="FF9BC2E6"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color rgb="FF9BC2E6"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3089,8 +3170,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:AK137" totalsRowShown="0">
-  <autoFilter ref="A1:AK137" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:AK153" totalsRowShown="0">
+  <autoFilter ref="A1:AK153" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="37">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="battle"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="winner1"/>
@@ -3227,13 +3308,13 @@
   <autoFilter ref="G1:J4" xr:uid="{C15024E5-2A00-4F8B-BBEB-0FE7A036BC54}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8B1F2C44-EA02-4821-AAA5-49A7D2E47A7E}" name="level"/>
-    <tableColumn id="2" xr3:uid="{F62B10F6-8A81-4A5B-A655-EF553400866D}" name="spear" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{F62B10F6-8A81-4A5B-A655-EF553400866D}" name="spear" dataDxfId="213">
       <calculatedColumnFormula>COUNTIFS(Таблица1[winner1],"paragon",Таблица1[winner1-pw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"paragon",Таблица1[winner2-pw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"paragon",Таблица1[loser1-pw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"paragon",Таблица1[loser2-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner1],"paragon",Table41[winner1-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner2],"paragon",Table41[winner2-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner3],"paragon",Table41[winner3-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser1],"paragon",Table41[loser1-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser2],"paragon",Table41[loser2-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser3],"paragon",Table41[loser3-pw],Table42[[#This Row],[level]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F4CFC04E-00E1-447E-954B-909DEBE33E7C}" name="shield" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{F4CFC04E-00E1-447E-954B-909DEBE33E7C}" name="shield" dataDxfId="212">
       <calculatedColumnFormula>COUNTIFS(Таблица1[winner1],"paragon",Таблица1[winner1-sw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"paragon",Таблица1[winner2-sw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"paragon",Таблица1[loser1-sw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"paragon",Таблица1[loser2-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner1],"paragon",Table41[winner1-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner2],"paragon",Table41[winner2-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner3],"paragon",Table41[winner3-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser1],"paragon",Table41[loser1-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser2],"paragon",Table41[loser2-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser3],"paragon",Table41[loser3-sw],Table42[[#This Row],[level]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{3051F8DD-C458-45A9-A22A-CA5DF4CE7313}" name="chestpiece" dataDxfId="15">
+    <tableColumn id="4" xr3:uid="{3051F8DD-C458-45A9-A22A-CA5DF4CE7313}" name="chestpiece" dataDxfId="211">
       <calculatedColumnFormula>COUNTIFS(Таблица1[winner1],"paragon",Таблица1[winner1-cp],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"paragon",Таблица1[winner2-cp],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"paragon",Таблица1[loser1-cp],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"paragon",Таблица1[loser2-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner1],"paragon",Table41[winner1-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner2],"paragon",Table41[winner2-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner3],"paragon",Table41[winner3-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser1],"paragon",Table41[loser1-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser2],"paragon",Table41[loser2-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser3],"paragon",Table41[loser3-cp],Table42[[#This Row],[level]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3246,16 +3327,16 @@
   <autoFilter ref="A1:E4" xr:uid="{DCA301F1-E0F8-4700-BEE5-2688AF43F23A}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{C5F0ACF1-033B-4C35-A916-4F278AF4A3BE}" name="ability"/>
-    <tableColumn id="6" xr3:uid="{1A19440C-2A32-4C29-99C7-AC47DDBFE5CB}" name="takes" dataDxfId="213">
+    <tableColumn id="6" xr3:uid="{1A19440C-2A32-4C29-99C7-AC47DDBFE5CB}" name="takes" dataDxfId="210">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table712[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EA007BCF-FE0D-472D-89CC-3B157C4AB07B}" name="wins" dataDxfId="212">
+    <tableColumn id="4" xr3:uid="{EA007BCF-FE0D-472D-89CC-3B157C4AB07B}" name="wins" dataDxfId="209">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table712[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A94185BE-9816-474C-8973-0A54D8FEF710}" name="battles-take-rate" dataDxfId="211">
+    <tableColumn id="5" xr3:uid="{A94185BE-9816-474C-8973-0A54D8FEF710}" name="battles-take-rate" dataDxfId="208">
       <calculatedColumnFormula>IF(SUM(Table712[[#This Row],[takes]]) &gt; 0,Table712[[#This Row],[takes]]/SUM(Table712[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D2FB093C-12E7-4FE0-B969-FBA8E1A7826C}" name="take-win-rate" dataDxfId="210">
+    <tableColumn id="7" xr3:uid="{D2FB093C-12E7-4FE0-B969-FBA8E1A7826C}" name="take-win-rate" dataDxfId="207">
       <calculatedColumnFormula>IF(Table712[[#This Row],[takes]]&gt;0,Table712[[#This Row],[wins]]/Table712[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3264,20 +3345,20 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{35449B03-EE54-4BB6-91BF-728706DF582D}" name="Table813" displayName="Table813" ref="A6:E9" totalsRowShown="0" headerRowDxfId="209" headerRowBorderDxfId="208" tableBorderDxfId="207" totalsRowBorderDxfId="206">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{35449B03-EE54-4BB6-91BF-728706DF582D}" name="Table813" displayName="Table813" ref="A6:E9" totalsRowShown="0" headerRowDxfId="206" headerRowBorderDxfId="205" tableBorderDxfId="204" totalsRowBorderDxfId="203">
   <autoFilter ref="A6:E9" xr:uid="{8ADAEE31-4DDA-4DF2-9EAD-04808D53FFC1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{48D74CBC-EC17-4EC2-95FA-4302F28E4416}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{93D0F4C4-BC1B-4219-9A49-08A5A87A5C24}" name="takes" dataDxfId="205">
+    <tableColumn id="2" xr3:uid="{93D0F4C4-BC1B-4219-9A49-08A5A87A5C24}" name="takes" dataDxfId="202">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability2],Table813[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table813[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table813[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{629F1216-A487-4A9D-AFED-6FA41B8F696C}" name="wins" dataDxfId="204">
+    <tableColumn id="3" xr3:uid="{629F1216-A487-4A9D-AFED-6FA41B8F696C}" name="wins" dataDxfId="201">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability2],Table813[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{888D233F-C4EE-4508-B89C-814A73B5F64E}" name="battles-take-rate" dataDxfId="203">
+    <tableColumn id="4" xr3:uid="{888D233F-C4EE-4508-B89C-814A73B5F64E}" name="battles-take-rate" dataDxfId="200">
       <calculatedColumnFormula>IF(SUM(Table813[[#This Row],[takes]]) &gt; 0,Table813[[#This Row],[takes]]/SUM(Table813[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E2951F86-9EDC-45ED-9996-DC5B4F7916F5}" name="take-win-rate" dataDxfId="202">
+    <tableColumn id="5" xr3:uid="{E2951F86-9EDC-45ED-9996-DC5B4F7916F5}" name="take-win-rate" dataDxfId="199">
       <calculatedColumnFormula>IF(Table813[[#This Row],[takes]]&gt;0,Table813[[#This Row],[wins]]/Table813[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3286,20 +3367,20 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{CB6C96DF-520F-46F0-814A-99EE580997C7}" name="Table914" displayName="Table914" ref="A11:E14" totalsRowShown="0" headerRowDxfId="201" headerRowBorderDxfId="200" tableBorderDxfId="199" totalsRowBorderDxfId="198">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{CB6C96DF-520F-46F0-814A-99EE580997C7}" name="Table914" displayName="Table914" ref="A11:E14" totalsRowShown="0" headerRowDxfId="198" headerRowBorderDxfId="197" tableBorderDxfId="196" totalsRowBorderDxfId="195">
   <autoFilter ref="A11:E14" xr:uid="{1B0EA3CA-FA8E-4345-B52C-471D5C94AD38}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4DA29322-1A6A-4A5F-9F51-C610FDD2CF86}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{3DBB6A6B-EA0F-4C97-AD69-A8E330187DA8}" name="takes" dataDxfId="197">
+    <tableColumn id="2" xr3:uid="{3DBB6A6B-EA0F-4C97-AD69-A8E330187DA8}" name="takes" dataDxfId="194">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table914[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{68B3DF49-8FAA-4070-8551-E37FF5989C82}" name="wins" dataDxfId="196">
+    <tableColumn id="3" xr3:uid="{68B3DF49-8FAA-4070-8551-E37FF5989C82}" name="wins" dataDxfId="193">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A958FBA6-455E-46B1-8DB1-343255FAB02D}" name="battles-take-rate" dataDxfId="195">
+    <tableColumn id="4" xr3:uid="{A958FBA6-455E-46B1-8DB1-343255FAB02D}" name="battles-take-rate" dataDxfId="192">
       <calculatedColumnFormula>IF(SUM(Table914[[#This Row],[takes]]) &gt; 0,Table914[[#This Row],[takes]]/SUM(Table914[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B5021FB0-CFF0-4FD6-99CF-2879FA3F4ADC}" name="take-win-rate" dataDxfId="194">
+    <tableColumn id="5" xr3:uid="{B5021FB0-CFF0-4FD6-99CF-2879FA3F4ADC}" name="take-win-rate" dataDxfId="191">
       <calculatedColumnFormula>IF(Table914[[#This Row],[takes]]&gt;0,Table914[[#This Row],[wins]]/Table914[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3308,20 +3389,20 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{D5CAE6B0-8212-449E-8365-1CE49FC7A2AC}" name="Table1015" displayName="Table1015" ref="A16:E19" totalsRowShown="0" headerRowDxfId="193" headerRowBorderDxfId="192" tableBorderDxfId="191" totalsRowBorderDxfId="190">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{D5CAE6B0-8212-449E-8365-1CE49FC7A2AC}" name="Table1015" displayName="Table1015" ref="A16:E19" totalsRowShown="0" headerRowDxfId="190" headerRowBorderDxfId="189" tableBorderDxfId="188" totalsRowBorderDxfId="187">
   <autoFilter ref="A16:E19" xr:uid="{2AADA4A0-2F4A-4009-8ECF-0BECA693390C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8E59CB0B-F46F-4C18-8B95-AC9EE45E75F5}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{1412A00E-40DA-4EAF-9241-7DE469DC1564}" name="takes" dataDxfId="189">
+    <tableColumn id="2" xr3:uid="{1412A00E-40DA-4EAF-9241-7DE469DC1564}" name="takes" dataDxfId="186">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability4],Table1015[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table1015[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability4],Table1015[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability4],Table1015[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table1015[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table1015[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table1015[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability4],Table1015[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability4],Table1015[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability4],Table1015[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{617EE036-454C-4F13-ADEA-8CF13330DC75}" name="wins" dataDxfId="188">
+    <tableColumn id="3" xr3:uid="{617EE036-454C-4F13-ADEA-8CF13330DC75}" name="wins" dataDxfId="185">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability4],Table1015[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table1015[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table1015[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table1015[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table1015[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{071CD302-9515-46E0-BB4A-71CA32876586}" name="battles-take-rate" dataDxfId="187">
+    <tableColumn id="4" xr3:uid="{071CD302-9515-46E0-BB4A-71CA32876586}" name="battles-take-rate" dataDxfId="184">
       <calculatedColumnFormula>IF(SUM(Table1015[[#This Row],[takes]]) &gt; 0,Table1015[[#This Row],[takes]]/SUM(Table1015[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{36E2935A-CA9B-4248-B5F5-46DD2B381350}" name="take-win-rate" dataDxfId="186">
+    <tableColumn id="5" xr3:uid="{36E2935A-CA9B-4248-B5F5-46DD2B381350}" name="take-win-rate" dataDxfId="183">
       <calculatedColumnFormula>IF(Table1015[[#This Row],[takes]]&gt;0,Table1015[[#This Row],[wins]]/Table1015[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3334,10 +3415,10 @@
   <autoFilter ref="G1:I4" xr:uid="{70CCA8ED-7F9A-4DA0-B2E1-3253F8CFF7EF}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4BD7425D-1FF4-48B6-99E4-EE95BF97D00E}" name="level"/>
-    <tableColumn id="2" xr3:uid="{9E99629A-6C69-418A-98FB-E0F0485D4B15}" name="sword" dataDxfId="14">
+    <tableColumn id="2" xr3:uid="{9E99629A-6C69-418A-98FB-E0F0485D4B15}" name="sword" dataDxfId="182">
       <calculatedColumnFormula>COUNTIFS(Таблица1[winner1],"highlander",Таблица1[winner1-pw],Table4244[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"highlander",Таблица1[winner2-pw],Table4244[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"highlander",Таблица1[loser1-pw],Table4244[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"highlander",Таблица1[loser2-pw],Table4244[[#This Row],[level]])+COUNTIFS(Table41[winner1],"highlander",Table41[winner1-pw],Table4244[[#This Row],[level]])+COUNTIFS(Table41[winner2],"highlander",Table41[winner2-pw],Table4244[[#This Row],[level]])+COUNTIFS(Table41[winner3],"highlander",Table41[winner3-pw],Table4244[[#This Row],[level]])+COUNTIFS(Table41[loser1],"highlander",Table41[loser1-pw],Table4244[[#This Row],[level]])+COUNTIFS(Table41[loser2],"highlander",Table41[loser2-pw],Table4244[[#This Row],[level]])+COUNTIFS(Table41[loser3],"highlander",Table41[loser3-pw],Table4244[[#This Row],[level]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8A6A5E6F-AE8E-44FA-B627-36E455AE03F2}" name="chestpiece" dataDxfId="13">
+    <tableColumn id="4" xr3:uid="{8A6A5E6F-AE8E-44FA-B627-36E455AE03F2}" name="chestpiece" dataDxfId="181">
       <calculatedColumnFormula>COUNTIFS(Таблица1[winner1],"highlander",Таблица1[winner1-cp],Table4244[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"highlander",Таблица1[winner2-cp],Table4244[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"highlander",Таблица1[loser1-cp],Table4244[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"highlander",Таблица1[loser2-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[winner1],"highlander",Table41[winner1-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[winner2],"highlander",Table41[winner2-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[winner3],"highlander",Table41[winner3-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[loser1],"highlander",Table41[loser1-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[loser2],"highlander",Table41[loser2-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[loser3],"highlander",Table41[loser3-cp],Table4244[[#This Row],[level]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3372,16 +3453,16 @@
   <autoFilter ref="A1:E4" xr:uid="{DCA301F1-E0F8-4700-BEE5-2688AF43F23A}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{9255EF85-AB1A-4B79-BB1F-45DD5C5BB686}" name="ability"/>
-    <tableColumn id="6" xr3:uid="{F5527CBC-F61B-4EC3-AFAF-244F8F979593}" name="takes" dataDxfId="185">
+    <tableColumn id="6" xr3:uid="{F5527CBC-F61B-4EC3-AFAF-244F8F979593}" name="takes" dataDxfId="180">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table71216[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4AF4CA96-9568-456F-83E4-4C45299A4F4C}" name="wins" dataDxfId="184">
+    <tableColumn id="4" xr3:uid="{4AF4CA96-9568-456F-83E4-4C45299A4F4C}" name="wins" dataDxfId="179">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table71216[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FC42A0B5-886A-41F6-9E7D-9675E817474A}" name="battles-take-rate" dataDxfId="183">
+    <tableColumn id="5" xr3:uid="{FC42A0B5-886A-41F6-9E7D-9675E817474A}" name="battles-take-rate" dataDxfId="178">
       <calculatedColumnFormula>IF(SUM(Table71216[[#This Row],[takes]]) &gt; 0,Table71216[[#This Row],[takes]]/SUM(Table71216[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0F819830-8510-40D0-A38E-9533D2D9AFD1}" name="take-win-rate" dataDxfId="182">
+    <tableColumn id="7" xr3:uid="{0F819830-8510-40D0-A38E-9533D2D9AFD1}" name="take-win-rate" dataDxfId="177">
       <calculatedColumnFormula>IF(Table71216[[#This Row],[takes]]&gt;0,Table71216[[#This Row],[wins]]/Table71216[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3390,20 +3471,20 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{1FE4E6EF-FC1D-4976-877B-BC194BCDD02A}" name="Table81317" displayName="Table81317" ref="A6:E9" totalsRowShown="0" headerRowDxfId="181" headerRowBorderDxfId="180" tableBorderDxfId="179" totalsRowBorderDxfId="178">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{1FE4E6EF-FC1D-4976-877B-BC194BCDD02A}" name="Table81317" displayName="Table81317" ref="A6:E9" totalsRowShown="0" headerRowDxfId="176" headerRowBorderDxfId="175" tableBorderDxfId="174" totalsRowBorderDxfId="173">
   <autoFilter ref="A6:E9" xr:uid="{8ADAEE31-4DDA-4DF2-9EAD-04808D53FFC1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0CC258B7-E949-4428-9385-8FC18520F986}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{0809AB48-BD16-40C1-AA9A-2BED7CDB89C9}" name="takes" dataDxfId="177">
+    <tableColumn id="2" xr3:uid="{0809AB48-BD16-40C1-AA9A-2BED7CDB89C9}" name="takes" dataDxfId="172">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table81317[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D9B285F7-8194-4926-BDE5-97EA47B86640}" name="wins" dataDxfId="176">
+    <tableColumn id="3" xr3:uid="{D9B285F7-8194-4926-BDE5-97EA47B86640}" name="wins" dataDxfId="171">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table81317[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B6E2E229-9691-4B70-99E3-659A3042B811}" name="battles-take-rate" dataDxfId="175">
+    <tableColumn id="4" xr3:uid="{B6E2E229-9691-4B70-99E3-659A3042B811}" name="battles-take-rate" dataDxfId="170">
       <calculatedColumnFormula>IF(SUM(Table81317[[#This Row],[takes]]) &gt; 0,Table81317[[#This Row],[takes]]/SUM(Table81317[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D2FE3150-C1DC-49F8-97DC-FF60A14B658A}" name="take-win-rate" dataDxfId="174">
+    <tableColumn id="5" xr3:uid="{D2FE3150-C1DC-49F8-97DC-FF60A14B658A}" name="take-win-rate" dataDxfId="169">
       <calculatedColumnFormula>IF(Table81317[[#This Row],[takes]]&gt;0,Table81317[[#This Row],[wins]]/Table81317[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3412,20 +3493,20 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{2D2DB8EE-3C5F-4271-8BC0-A2340FDAE1A8}" name="Table91418" displayName="Table91418" ref="A11:E14" totalsRowShown="0" headerRowDxfId="173" headerRowBorderDxfId="172" tableBorderDxfId="171" totalsRowBorderDxfId="170">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{2D2DB8EE-3C5F-4271-8BC0-A2340FDAE1A8}" name="Table91418" displayName="Table91418" ref="A11:E14" totalsRowShown="0" headerRowDxfId="168" headerRowBorderDxfId="167" tableBorderDxfId="166" totalsRowBorderDxfId="165">
   <autoFilter ref="A11:E14" xr:uid="{1B0EA3CA-FA8E-4345-B52C-471D5C94AD38}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EDC121D2-421E-4D61-B08B-AFE0AD98CF55}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{DE80DC4C-8E41-432E-9216-D58458D7C78B}" name="takes" dataDxfId="169">
+    <tableColumn id="2" xr3:uid="{DE80DC4C-8E41-432E-9216-D58458D7C78B}" name="takes" dataDxfId="164">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table91418[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{49FD1C31-19AC-47C4-A9E0-4010FDBC5652}" name="wins" dataDxfId="168">
+    <tableColumn id="3" xr3:uid="{49FD1C31-19AC-47C4-A9E0-4010FDBC5652}" name="wins" dataDxfId="163">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table91418[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{867096AF-A5E7-4152-BAFF-F69057ACF877}" name="battles-take-rate" dataDxfId="167">
+    <tableColumn id="4" xr3:uid="{867096AF-A5E7-4152-BAFF-F69057ACF877}" name="battles-take-rate" dataDxfId="162">
       <calculatedColumnFormula>IF(SUM(Table91418[[#This Row],[takes]]) &gt; 0,Table91418[[#This Row],[takes]]/SUM(Table91418[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6BFB68FF-249B-4057-B242-D2C80FC127AA}" name="take-win-rate" dataDxfId="166">
+    <tableColumn id="5" xr3:uid="{6BFB68FF-249B-4057-B242-D2C80FC127AA}" name="take-win-rate" dataDxfId="161">
       <calculatedColumnFormula>IF(Table91418[[#This Row],[takes]]&gt;0,Table91418[[#This Row],[wins]]/Table91418[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3434,20 +3515,20 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{5F9400BF-2866-4FD3-A527-43C4C9E0705E}" name="Table101519" displayName="Table101519" ref="A16:E19" totalsRowShown="0" headerRowDxfId="165" headerRowBorderDxfId="164" tableBorderDxfId="163" totalsRowBorderDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{5F9400BF-2866-4FD3-A527-43C4C9E0705E}" name="Table101519" displayName="Table101519" ref="A16:E19" totalsRowShown="0" headerRowDxfId="160" headerRowBorderDxfId="159" tableBorderDxfId="158" totalsRowBorderDxfId="157">
   <autoFilter ref="A16:E19" xr:uid="{2AADA4A0-2F4A-4009-8ECF-0BECA693390C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDEFFDA0-05FD-4426-AE7A-2F47242047B8}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{BA53EFC8-0FFF-4EB6-B11A-33B8B635AC12}" name="takes" dataDxfId="161">
+    <tableColumn id="2" xr3:uid="{BA53EFC8-0FFF-4EB6-B11A-33B8B635AC12}" name="takes" dataDxfId="156">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability4],Table101519[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{368187D4-DE5D-4EDF-97AE-66B18BD7AD1E}" name="wins" dataDxfId="160">
+    <tableColumn id="3" xr3:uid="{368187D4-DE5D-4EDF-97AE-66B18BD7AD1E}" name="wins" dataDxfId="155">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table101519[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2E0ED5D0-CAAA-4F70-987D-37A42F4D6130}" name="battles-take-rate" dataDxfId="159">
+    <tableColumn id="4" xr3:uid="{2E0ED5D0-CAAA-4F70-987D-37A42F4D6130}" name="battles-take-rate" dataDxfId="154">
       <calculatedColumnFormula>IF(SUM(Table101519[[#This Row],[takes]]) &gt; 0,Table101519[[#This Row],[takes]]/SUM(Table101519[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1CFECBC5-8D82-4661-8290-C3BBA3428030}" name="take-win-rate" dataDxfId="158">
+    <tableColumn id="5" xr3:uid="{1CFECBC5-8D82-4661-8290-C3BBA3428030}" name="take-win-rate" dataDxfId="153">
       <calculatedColumnFormula>IF(Table101519[[#This Row],[takes]]&gt;0,Table101519[[#This Row],[wins]]/Table101519[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3460,10 +3541,10 @@
   <autoFilter ref="G1:I4" xr:uid="{18D25BEC-D4E8-4197-8B84-22E7EA1B468D}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1B7E33D1-6A87-4160-A7A5-A89F2BAB5299}" name="level"/>
-    <tableColumn id="2" xr3:uid="{CFB91AEA-6710-4D14-B6A6-A55067324922}" name="staff" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{CFB91AEA-6710-4D14-B6A6-A55067324922}" name="staff" dataDxfId="152">
       <calculatedColumnFormula>COUNTIFS(Таблица1[winner1],"druid",Таблица1[winner1-pw],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"druid",Таблица1[winner2-pw],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"druid",Таблица1[loser1-pw],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"druid",Таблица1[loser2-pw],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner1],"druid",Table41[winner1-pw],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner2],"druid",Table41[winner2-pw],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner3],"druid",Table41[winner3-pw],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser1],"druid",Table41[loser1-pw],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser2],"druid",Table41[loser2-pw],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser3],"druid",Table41[loser3-pw],Table424445[[#This Row],[level]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B17AE47C-1BD4-43EA-85FD-2FC30E8D3E40}" name="chestpiece" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{B17AE47C-1BD4-43EA-85FD-2FC30E8D3E40}" name="chestpiece" dataDxfId="151">
       <calculatedColumnFormula>COUNTIFS(Таблица1[winner1],"druid",Таблица1[winner1-cp],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"druid",Таблица1[winner2-cp],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"druid",Таблица1[loser1-cp],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"druid",Таблица1[loser2-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner1],"druid",Table41[winner1-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner2],"druid",Table41[winner2-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner3],"druid",Table41[winner3-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser1],"druid",Table41[loser1-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser2],"druid",Table41[loser2-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser3],"druid",Table41[loser3-cp],Table424445[[#This Row],[level]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3476,16 +3557,16 @@
   <autoFilter ref="A1:E4" xr:uid="{DCA301F1-E0F8-4700-BEE5-2688AF43F23A}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{CFB0E30C-19A4-426D-B1F5-F8407D33CDEF}" name="ability"/>
-    <tableColumn id="6" xr3:uid="{CE63CB81-DB10-4197-84E0-425E8D07D8C8}" name="takes" dataDxfId="157">
+    <tableColumn id="6" xr3:uid="{CE63CB81-DB10-4197-84E0-425E8D07D8C8}" name="takes" dataDxfId="150">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table7121620[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AA391A5E-572B-4FEE-B4CC-C0571AFE83E4}" name="wins" dataDxfId="156">
+    <tableColumn id="4" xr3:uid="{AA391A5E-572B-4FEE-B4CC-C0571AFE83E4}" name="wins" dataDxfId="149">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table7121620[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D3594B7B-050C-4CBA-AB69-2394167CD43A}" name="battles-take-rate" dataDxfId="155">
+    <tableColumn id="5" xr3:uid="{D3594B7B-050C-4CBA-AB69-2394167CD43A}" name="battles-take-rate" dataDxfId="148">
       <calculatedColumnFormula>IF(SUM(Table7121620[[#This Row],[takes]]) &gt; 0,Table7121620[[#This Row],[takes]]/SUM(Table7121620[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4968CD21-2548-4A39-9D6B-A1AE3EDF5814}" name="take-win-rate" dataDxfId="154">
+    <tableColumn id="7" xr3:uid="{4968CD21-2548-4A39-9D6B-A1AE3EDF5814}" name="take-win-rate" dataDxfId="147">
       <calculatedColumnFormula>IF(Table7121620[[#This Row],[takes]]&gt;0,Table7121620[[#This Row],[wins]]/Table7121620[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3494,20 +3575,20 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{E9A047F9-DA07-4353-967F-BC39528B96F8}" name="Table8131721" displayName="Table8131721" ref="A6:E9" totalsRowShown="0" headerRowDxfId="153" headerRowBorderDxfId="152" tableBorderDxfId="151" totalsRowBorderDxfId="150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{E9A047F9-DA07-4353-967F-BC39528B96F8}" name="Table8131721" displayName="Table8131721" ref="A6:E9" totalsRowShown="0" headerRowDxfId="146" headerRowBorderDxfId="145" tableBorderDxfId="144" totalsRowBorderDxfId="143">
   <autoFilter ref="A6:E9" xr:uid="{8ADAEE31-4DDA-4DF2-9EAD-04808D53FFC1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E43772D8-E5ED-41B4-AFC2-B656F6DA75D7}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{5ACD7AA8-7B70-46E9-ABAC-2647C2A2C44E}" name="takes" dataDxfId="149">
+    <tableColumn id="2" xr3:uid="{5ACD7AA8-7B70-46E9-ABAC-2647C2A2C44E}" name="takes" dataDxfId="142">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table8131721[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{06612C30-7551-41BA-A083-E4CAC40CB231}" name="wins" dataDxfId="148">
+    <tableColumn id="3" xr3:uid="{06612C30-7551-41BA-A083-E4CAC40CB231}" name="wins" dataDxfId="141">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8131721[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{05EF1625-5B8F-4B06-88FA-F58F9D40B313}" name="battles-take-rate" dataDxfId="147">
+    <tableColumn id="4" xr3:uid="{05EF1625-5B8F-4B06-88FA-F58F9D40B313}" name="battles-take-rate" dataDxfId="140">
       <calculatedColumnFormula>IF(SUM(Table8131721[[#This Row],[takes]]) &gt; 0,Table8131721[[#This Row],[takes]]/SUM(Table8131721[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A65C6B84-7817-47CD-8AB3-C173C68846D7}" name="take-win-rate" dataDxfId="146">
+    <tableColumn id="5" xr3:uid="{A65C6B84-7817-47CD-8AB3-C173C68846D7}" name="take-win-rate" dataDxfId="139">
       <calculatedColumnFormula>IF(Table8131721[[#This Row],[takes]]&gt;0,Table8131721[[#This Row],[wins]]/Table8131721[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3516,20 +3597,20 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E10911B2-78C1-4FBF-B005-D6C2DABC6875}" name="Table9141822" displayName="Table9141822" ref="A11:E14" totalsRowShown="0" headerRowDxfId="145" headerRowBorderDxfId="144" tableBorderDxfId="143" totalsRowBorderDxfId="142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E10911B2-78C1-4FBF-B005-D6C2DABC6875}" name="Table9141822" displayName="Table9141822" ref="A11:E14" totalsRowShown="0" headerRowDxfId="138" headerRowBorderDxfId="137" tableBorderDxfId="136" totalsRowBorderDxfId="135">
   <autoFilter ref="A11:E14" xr:uid="{1B0EA3CA-FA8E-4345-B52C-471D5C94AD38}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EF677F5D-A27E-45C6-AC2A-0DD344A0DAF2}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{43062161-D894-4623-AD68-16DC67FA045B}" name="takes" dataDxfId="141">
+    <tableColumn id="2" xr3:uid="{43062161-D894-4623-AD68-16DC67FA045B}" name="takes" dataDxfId="134">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table9141822[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{23693642-362A-4C6D-8F18-C6369D3B07DB}" name="wins" dataDxfId="140">
+    <tableColumn id="3" xr3:uid="{23693642-362A-4C6D-8F18-C6369D3B07DB}" name="wins" dataDxfId="133">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table9141822[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8C01C44A-1CF7-4BBD-99BD-DD11E1D77AF8}" name="battles-take-rate" dataDxfId="139">
+    <tableColumn id="4" xr3:uid="{8C01C44A-1CF7-4BBD-99BD-DD11E1D77AF8}" name="battles-take-rate" dataDxfId="132">
       <calculatedColumnFormula>IF(SUM(Table9141822[[#This Row],[takes]]) &gt; 0,Table9141822[[#This Row],[takes]]/SUM(Table9141822[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FD0E9266-7570-4D9E-8BFD-ACD319CC981C}" name="take-win-rate" dataDxfId="138">
+    <tableColumn id="5" xr3:uid="{FD0E9266-7570-4D9E-8BFD-ACD319CC981C}" name="take-win-rate" dataDxfId="131">
       <calculatedColumnFormula>IF(Table9141822[[#This Row],[takes]]&gt;0,Table9141822[[#This Row],[wins]]/Table9141822[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3538,20 +3619,20 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{2735B440-5F53-4443-9B97-365642046D2D}" name="Table10151923" displayName="Table10151923" ref="A16:E19" totalsRowShown="0" headerRowDxfId="137" headerRowBorderDxfId="136" tableBorderDxfId="135" totalsRowBorderDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{2735B440-5F53-4443-9B97-365642046D2D}" name="Table10151923" displayName="Table10151923" ref="A16:E19" totalsRowShown="0" headerRowDxfId="130" headerRowBorderDxfId="129" tableBorderDxfId="128" totalsRowBorderDxfId="127">
   <autoFilter ref="A16:E19" xr:uid="{2AADA4A0-2F4A-4009-8ECF-0BECA693390C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{AA3B38AD-FB43-4FD7-998C-DC0AF187775C}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{BD2E0D63-F310-4592-B9BC-B67D886A73E0}" name="takes" dataDxfId="133">
+    <tableColumn id="2" xr3:uid="{BD2E0D63-F310-4592-B9BC-B67D886A73E0}" name="takes" dataDxfId="126">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability4],Table10151923[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table10151923[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability4],Table10151923[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability4],Table10151923[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table10151923[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table10151923[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table10151923[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability4],Table10151923[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability4],Table10151923[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability4],Table10151923[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{27A65A05-A41D-483E-9CCB-6C628E62DA4D}" name="wins" dataDxfId="132">
+    <tableColumn id="3" xr3:uid="{27A65A05-A41D-483E-9CCB-6C628E62DA4D}" name="wins" dataDxfId="125">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability4],Table10151923[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table10151923[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table10151923[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table10151923[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table10151923[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{54B9857B-4192-4097-8EFB-9090025A0BBD}" name="battles-take-rate" dataDxfId="131">
+    <tableColumn id="4" xr3:uid="{54B9857B-4192-4097-8EFB-9090025A0BBD}" name="battles-take-rate" dataDxfId="124">
       <calculatedColumnFormula>IF(SUM(Table10151923[[#This Row],[takes]]) &gt; 0,Table10151923[[#This Row],[takes]]/SUM(Table10151923[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{009D5A65-2D69-4416-955D-71B6A1D324E2}" name="take-win-rate" dataDxfId="130">
+    <tableColumn id="5" xr3:uid="{009D5A65-2D69-4416-955D-71B6A1D324E2}" name="take-win-rate" dataDxfId="123">
       <calculatedColumnFormula>IF(Table10151923[[#This Row],[takes]]&gt;0,Table10151923[[#This Row],[wins]]/Table10151923[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3564,10 +3645,10 @@
   <autoFilter ref="G1:I4" xr:uid="{DD605B13-407D-45BC-B202-5580F9B952B9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{75B3A13B-232A-4FDA-A169-A510E5CCB419}" name="level"/>
-    <tableColumn id="2" xr3:uid="{B4F2059D-EB28-4F9B-BC6C-714AFFCDEA50}" name="book" dataDxfId="10">
+    <tableColumn id="2" xr3:uid="{B4F2059D-EB28-4F9B-BC6C-714AFFCDEA50}" name="book" dataDxfId="122">
       <calculatedColumnFormula>COUNTIFS(Таблица1[winner1],"oracle",Таблица1[winner1-pw],Table42444546[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"oracle",Таблица1[winner2-pw],Table42444546[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"oracle",Таблица1[loser1-pw],Table42444546[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"oracle",Таблица1[loser2-pw],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[winner1],"oracle",Table41[winner1-pw],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[winner2],"oracle",Table41[winner2-pw],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[winner3],"oracle",Table41[winner3-pw],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[loser1],"oracle",Table41[loser1-pw],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[loser2],"oracle",Table41[loser2-pw],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[loser3],"oracle",Table41[loser3-pw],Table42444546[[#This Row],[level]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E921D906-7EC6-4F62-A3CA-F43003A44E6C}" name="chestpiece" dataDxfId="9">
+    <tableColumn id="4" xr3:uid="{E921D906-7EC6-4F62-A3CA-F43003A44E6C}" name="chestpiece" dataDxfId="121">
       <calculatedColumnFormula>COUNTIFS(Таблица1[winner1],"oracle",Таблица1[winner1-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"oracle",Таблица1[winner2-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"oracle",Таблица1[loser1-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"oracle",Таблица1[loser2-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[winner1],"oracle",Table41[winner1-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[winner2],"oracle",Table41[winner2-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[winner3],"oracle",Table41[winner3-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[loser1],"oracle",Table41[loser1-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[loser2],"oracle",Table41[loser2-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[loser3],"oracle",Table41[loser3-cp],Table42444546[[#This Row],[level]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3600,16 +3681,16 @@
   <autoFilter ref="A1:E4" xr:uid="{DCA301F1-E0F8-4700-BEE5-2688AF43F23A}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{CC4083E0-1343-404C-A49B-7D549AC04C5A}" name="ability"/>
-    <tableColumn id="6" xr3:uid="{8F68B71C-BA65-401C-94B2-192289814A70}" name="takes" dataDxfId="129">
+    <tableColumn id="6" xr3:uid="{8F68B71C-BA65-401C-94B2-192289814A70}" name="takes" dataDxfId="120">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table712162024[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2FD6D6E4-4E69-4713-82DC-E394DB2C118D}" name="wins" dataDxfId="128">
+    <tableColumn id="4" xr3:uid="{2FD6D6E4-4E69-4713-82DC-E394DB2C118D}" name="wins" dataDxfId="119">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table712162024[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FC57E2CC-1D8A-40E1-A327-E095A60A4FCE}" name="battles-take-rate" dataDxfId="127">
+    <tableColumn id="5" xr3:uid="{FC57E2CC-1D8A-40E1-A327-E095A60A4FCE}" name="battles-take-rate" dataDxfId="118">
       <calculatedColumnFormula>IF(SUM(Table712162024[[#This Row],[takes]]) &gt; 0,Table712162024[[#This Row],[takes]]/SUM(Table712162024[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5D9535C0-9A8E-4B95-9FF3-BDBCACE0A517}" name="take-win-rate" dataDxfId="126">
+    <tableColumn id="7" xr3:uid="{5D9535C0-9A8E-4B95-9FF3-BDBCACE0A517}" name="take-win-rate" dataDxfId="117">
       <calculatedColumnFormula>IF(Table712162024[[#This Row],[takes]]&gt;0,Table712162024[[#This Row],[wins]]/Table712162024[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3618,20 +3699,20 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{B0CE916E-C46C-46CC-BA0B-88AC09E2E307}" name="Table813172125" displayName="Table813172125" ref="A6:E9" totalsRowShown="0" headerRowDxfId="125" headerRowBorderDxfId="124" tableBorderDxfId="123" totalsRowBorderDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{B0CE916E-C46C-46CC-BA0B-88AC09E2E307}" name="Table813172125" displayName="Table813172125" ref="A6:E9" totalsRowShown="0" headerRowDxfId="116" headerRowBorderDxfId="115" tableBorderDxfId="114" totalsRowBorderDxfId="113">
   <autoFilter ref="A6:E9" xr:uid="{8ADAEE31-4DDA-4DF2-9EAD-04808D53FFC1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D0BBFE50-2BAA-4C5D-9BBF-0FD417741CA7}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{E3322819-C089-4D41-8496-7F43E3860E93}" name="takes" dataDxfId="121">
+    <tableColumn id="2" xr3:uid="{E3322819-C089-4D41-8496-7F43E3860E93}" name="takes" dataDxfId="112">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table813172125[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FED5F9C8-067D-425E-9B3C-7D9535407B89}" name="wins" dataDxfId="120">
+    <tableColumn id="3" xr3:uid="{FED5F9C8-067D-425E-9B3C-7D9535407B89}" name="wins" dataDxfId="111">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813172125[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{48CA24A6-6BB3-434B-9BD2-1820E681DD33}" name="battles-take-rate" dataDxfId="119">
+    <tableColumn id="4" xr3:uid="{48CA24A6-6BB3-434B-9BD2-1820E681DD33}" name="battles-take-rate" dataDxfId="110">
       <calculatedColumnFormula>IF(SUM(Table813172125[[#This Row],[takes]]) &gt; 0,Table813172125[[#This Row],[takes]]/SUM(Table813172125[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{05E51087-CE62-4BB6-94E3-2E54CAA9B326}" name="take-win-rate" dataDxfId="118">
+    <tableColumn id="5" xr3:uid="{05E51087-CE62-4BB6-94E3-2E54CAA9B326}" name="take-win-rate" dataDxfId="109">
       <calculatedColumnFormula>IF(Table813172125[[#This Row],[takes]]&gt;0,Table813172125[[#This Row],[wins]]/Table813172125[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3640,20 +3721,20 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{8B13BC70-6DEC-4CB9-A8B8-1B82E72D2260}" name="Table914182226" displayName="Table914182226" ref="A11:E14" totalsRowShown="0" headerRowDxfId="117" headerRowBorderDxfId="116" tableBorderDxfId="115" totalsRowBorderDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{8B13BC70-6DEC-4CB9-A8B8-1B82E72D2260}" name="Table914182226" displayName="Table914182226" ref="A11:E14" totalsRowShown="0" headerRowDxfId="108" headerRowBorderDxfId="107" tableBorderDxfId="106" totalsRowBorderDxfId="105">
   <autoFilter ref="A11:E14" xr:uid="{1B0EA3CA-FA8E-4345-B52C-471D5C94AD38}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F039C3F8-04EC-4D86-AA5F-F01F3E385309}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{699FC56B-A432-429D-BF0A-1BC870437EC4}" name="takes" dataDxfId="113">
+    <tableColumn id="2" xr3:uid="{699FC56B-A432-429D-BF0A-1BC870437EC4}" name="takes" dataDxfId="104">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table914182226[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{614792BB-2338-4FD5-BE31-8E554FBFED07}" name="wins" dataDxfId="112">
+    <tableColumn id="3" xr3:uid="{614792BB-2338-4FD5-BE31-8E554FBFED07}" name="wins" dataDxfId="103">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914182226[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1344C14D-2E40-4EA1-97DB-49C01B4C1938}" name="battles-take-rate" dataDxfId="111">
+    <tableColumn id="4" xr3:uid="{1344C14D-2E40-4EA1-97DB-49C01B4C1938}" name="battles-take-rate" dataDxfId="102">
       <calculatedColumnFormula>IF(SUM(Table914182226[[#This Row],[takes]]) &gt; 0,Table914182226[[#This Row],[takes]]/SUM(Table914182226[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D5CA8546-140E-4822-9D2A-E489D1CD3105}" name="take-win-rate" dataDxfId="110">
+    <tableColumn id="5" xr3:uid="{D5CA8546-140E-4822-9D2A-E489D1CD3105}" name="take-win-rate" dataDxfId="101">
       <calculatedColumnFormula>IF(Table914182226[[#This Row],[takes]]&gt;0,Table914182226[[#This Row],[wins]]/Table914182226[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3662,20 +3743,20 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{CE8B0D9C-1926-4AB7-9C65-EEACB3B9A86C}" name="Table1015192327" displayName="Table1015192327" ref="A16:E19" totalsRowShown="0" headerRowDxfId="109" headerRowBorderDxfId="108" tableBorderDxfId="107" totalsRowBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{CE8B0D9C-1926-4AB7-9C65-EEACB3B9A86C}" name="Table1015192327" displayName="Table1015192327" ref="A16:E19" totalsRowShown="0" headerRowDxfId="100" headerRowBorderDxfId="99" tableBorderDxfId="98" totalsRowBorderDxfId="97">
   <autoFilter ref="A16:E19" xr:uid="{2AADA4A0-2F4A-4009-8ECF-0BECA693390C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{94211769-FC21-4F3C-8749-30B0AD384A2F}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{72D2E5FB-2870-4E1F-94B7-133AB5C74897}" name="takes" dataDxfId="105">
+    <tableColumn id="2" xr3:uid="{72D2E5FB-2870-4E1F-94B7-133AB5C74897}" name="takes" dataDxfId="96">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability4],Table1015192327[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D9BD41BC-8E58-42E6-8503-2F895F3D0727}" name="wins" dataDxfId="104">
+    <tableColumn id="3" xr3:uid="{D9BD41BC-8E58-42E6-8503-2F895F3D0727}" name="wins" dataDxfId="95">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table1015192327[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{075A0B87-6347-45C9-B6A0-EA7734105E88}" name="battles-take-rate" dataDxfId="103">
+    <tableColumn id="4" xr3:uid="{075A0B87-6347-45C9-B6A0-EA7734105E88}" name="battles-take-rate" dataDxfId="94">
       <calculatedColumnFormula>IF(SUM(Table1015192327[[#This Row],[takes]]) &gt; 0,Table1015192327[[#This Row],[takes]]/SUM(Table1015192327[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CB58236A-7688-4580-9D3B-72EF11355EF0}" name="take-win-rate" dataDxfId="102">
+    <tableColumn id="5" xr3:uid="{CB58236A-7688-4580-9D3B-72EF11355EF0}" name="take-win-rate" dataDxfId="93">
       <calculatedColumnFormula>IF(Table1015192327[[#This Row],[takes]]&gt;0,Table1015192327[[#This Row],[wins]]/Table1015192327[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3688,10 +3769,10 @@
   <autoFilter ref="G1:I4" xr:uid="{1DEB3F45-AFDE-4BCC-A991-0B562DFCD2D4}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FD821349-0090-40F1-9C6C-DB764F1D3458}" name="level"/>
-    <tableColumn id="2" xr3:uid="{62F487F3-C77C-4045-9B1E-076B839E8B62}" name="bracers" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{62F487F3-C77C-4045-9B1E-076B839E8B62}" name="bracers" dataDxfId="92">
       <calculatedColumnFormula>COUNTIFS(Таблица1[winner1],"avatar",Таблица1[winner1-pw],Table4244454647[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"avatar",Таблица1[winner2-pw],Table4244454647[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"avatar",Таблица1[loser1-pw],Table4244454647[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"avatar",Таблица1[loser2-pw],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[winner1],"avatar",Table41[winner1-pw],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[winner2],"avatar",Table41[winner2-pw],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[winner3],"avatar",Table41[winner3-pw],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[loser1],"avatar",Table41[loser1-pw],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[loser2],"avatar",Table41[loser2-pw],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[loser3],"avatar",Table41[loser3-pw],Table4244454647[[#This Row],[level]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1F483E18-8E8A-4017-933A-2047B6051747}" name="chestpiece" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{1F483E18-8E8A-4017-933A-2047B6051747}" name="chestpiece" dataDxfId="91">
       <calculatedColumnFormula>COUNTIFS(Таблица1[winner1],"avatar",Таблица1[winner1-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"avatar",Таблица1[winner2-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"avatar",Таблица1[loser1-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"avatar",Таблица1[loser2-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[winner1],"avatar",Table41[winner1-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[winner2],"avatar",Table41[winner2-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[winner3],"avatar",Table41[winner3-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[loser1],"avatar",Table41[loser1-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[loser2],"avatar",Table41[loser2-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[loser3],"avatar",Table41[loser3-cp],Table4244454647[[#This Row],[level]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3704,16 +3785,16 @@
   <autoFilter ref="A1:E4" xr:uid="{DCA301F1-E0F8-4700-BEE5-2688AF43F23A}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{9F44409B-09C0-4081-8A27-FE4BBFED3C08}" name="ability"/>
-    <tableColumn id="6" xr3:uid="{14313730-E3CF-4ABF-B7EB-FF64C29CF80C}" name="takes" dataDxfId="101">
+    <tableColumn id="6" xr3:uid="{14313730-E3CF-4ABF-B7EB-FF64C29CF80C}" name="takes" dataDxfId="90">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table71216202428[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7734B599-AD91-4AF1-94BD-25C6F01A2721}" name="wins" dataDxfId="100">
+    <tableColumn id="4" xr3:uid="{7734B599-AD91-4AF1-94BD-25C6F01A2721}" name="wins" dataDxfId="89">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table71216202428[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EB6C365C-30BD-489D-ACDA-2DFFAA97A7B3}" name="battles-take-rate" dataDxfId="99">
+    <tableColumn id="5" xr3:uid="{EB6C365C-30BD-489D-ACDA-2DFFAA97A7B3}" name="battles-take-rate" dataDxfId="88">
       <calculatedColumnFormula>IF(SUM(Table71216202428[[#This Row],[takes]]) &gt; 0,Table71216202428[[#This Row],[takes]]/SUM(Table71216202428[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7081248A-ED9C-40B3-9AB5-46EABA90CB8C}" name="take-win-rate" dataDxfId="98">
+    <tableColumn id="7" xr3:uid="{7081248A-ED9C-40B3-9AB5-46EABA90CB8C}" name="take-win-rate" dataDxfId="87">
       <calculatedColumnFormula>IF(Table71216202428[[#This Row],[takes]]&gt;0,Table71216202428[[#This Row],[wins]]/Table71216202428[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3722,20 +3803,20 @@
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{FE7732F9-FB08-47AE-9D35-C8C7D5BEEFB5}" name="Table81317212529" displayName="Table81317212529" ref="A6:E9" totalsRowShown="0" headerRowDxfId="97" headerRowBorderDxfId="96" tableBorderDxfId="95" totalsRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{FE7732F9-FB08-47AE-9D35-C8C7D5BEEFB5}" name="Table81317212529" displayName="Table81317212529" ref="A6:E9" totalsRowShown="0" headerRowDxfId="86" headerRowBorderDxfId="85" tableBorderDxfId="84" totalsRowBorderDxfId="83">
   <autoFilter ref="A6:E9" xr:uid="{8ADAEE31-4DDA-4DF2-9EAD-04808D53FFC1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B978B3A4-D252-4FDE-BB92-AD174011A3FD}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{C22965B2-A7BE-4EA7-879F-282A9406F126}" name="takes" dataDxfId="93">
+    <tableColumn id="2" xr3:uid="{C22965B2-A7BE-4EA7-879F-282A9406F126}" name="takes" dataDxfId="82">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table81317212529[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4EB2C16A-BA90-4A32-98E2-0966B41F2B86}" name="wins" dataDxfId="92">
+    <tableColumn id="3" xr3:uid="{4EB2C16A-BA90-4A32-98E2-0966B41F2B86}" name="wins" dataDxfId="81">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table81317212529[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5B80BFEE-E552-4BE3-A377-30DBBA95ED00}" name="battles-take-rate" dataDxfId="91">
+    <tableColumn id="4" xr3:uid="{5B80BFEE-E552-4BE3-A377-30DBBA95ED00}" name="battles-take-rate" dataDxfId="80">
       <calculatedColumnFormula>IF(SUM(Table81317212529[[#This Row],[takes]]) &gt; 0,Table81317212529[[#This Row],[takes]]/SUM(Table81317212529[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3C32E2F9-29B2-462F-8B3F-B702DCCA48E9}" name="take-win-rate" dataDxfId="90">
+    <tableColumn id="5" xr3:uid="{3C32E2F9-29B2-462F-8B3F-B702DCCA48E9}" name="take-win-rate" dataDxfId="79">
       <calculatedColumnFormula>IF(Table81317212529[[#This Row],[takes]]&gt;0,Table81317212529[[#This Row],[wins]]/Table81317212529[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3744,20 +3825,20 @@
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{CE9E1708-FD61-4EB2-8BF1-2F7FD97F7EAA}" name="Table91418222630" displayName="Table91418222630" ref="A11:E14" totalsRowShown="0" headerRowDxfId="89" headerRowBorderDxfId="88" tableBorderDxfId="87" totalsRowBorderDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{CE9E1708-FD61-4EB2-8BF1-2F7FD97F7EAA}" name="Table91418222630" displayName="Table91418222630" ref="A11:E14" totalsRowShown="0" headerRowDxfId="78" headerRowBorderDxfId="77" tableBorderDxfId="76" totalsRowBorderDxfId="75">
   <autoFilter ref="A11:E14" xr:uid="{1B0EA3CA-FA8E-4345-B52C-471D5C94AD38}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{465E7B62-ABAA-4443-8E62-D9D5AE696904}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{21D816CB-DC73-47B7-8556-D1ABFD5334D3}" name="takes" dataDxfId="85">
+    <tableColumn id="2" xr3:uid="{21D816CB-DC73-47B7-8556-D1ABFD5334D3}" name="takes" dataDxfId="74">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table91418222630[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{020771E5-BB3C-4C38-BFA4-97040BB6F8DE}" name="wins" dataDxfId="84">
+    <tableColumn id="3" xr3:uid="{020771E5-BB3C-4C38-BFA4-97040BB6F8DE}" name="wins" dataDxfId="73">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table91418222630[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8246FBDC-E50E-45EA-B094-12224214E30C}" name="battles-take-rate" dataDxfId="83">
+    <tableColumn id="4" xr3:uid="{8246FBDC-E50E-45EA-B094-12224214E30C}" name="battles-take-rate" dataDxfId="72">
       <calculatedColumnFormula>IF(SUM(Table91418222630[[#This Row],[takes]]) &gt; 0,Table91418222630[[#This Row],[takes]]/SUM(Table91418222630[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F619010C-E88B-43B7-B92B-C2FC5C7F9D50}" name="take-win-rate" dataDxfId="82">
+    <tableColumn id="5" xr3:uid="{F619010C-E88B-43B7-B92B-C2FC5C7F9D50}" name="take-win-rate" dataDxfId="71">
       <calculatedColumnFormula>IF(Table91418222630[[#This Row],[takes]]&gt;0,Table91418222630[[#This Row],[wins]]/Table91418222630[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3766,20 +3847,20 @@
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{B49F7A9C-7E51-4302-BF39-7C463A3B9AC7}" name="Table101519232731" displayName="Table101519232731" ref="A16:E19" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="80" tableBorderDxfId="79" totalsRowBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{B49F7A9C-7E51-4302-BF39-7C463A3B9AC7}" name="Table101519232731" displayName="Table101519232731" ref="A16:E19" totalsRowShown="0" headerRowDxfId="70" headerRowBorderDxfId="69" tableBorderDxfId="68" totalsRowBorderDxfId="67">
   <autoFilter ref="A16:E19" xr:uid="{2AADA4A0-2F4A-4009-8ECF-0BECA693390C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A83DCC85-9F1F-43DF-9816-FD1E53AED2AE}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{23523275-8AA2-49D4-9C7C-830DEFA3D9E0}" name="takes" dataDxfId="77">
+    <tableColumn id="2" xr3:uid="{23523275-8AA2-49D4-9C7C-830DEFA3D9E0}" name="takes" dataDxfId="66">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability4],Table101519232731[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{635995F5-252B-45DC-B96B-670DFA7F3E40}" name="wins" dataDxfId="76">
+    <tableColumn id="3" xr3:uid="{635995F5-252B-45DC-B96B-670DFA7F3E40}" name="wins" dataDxfId="65">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table101519232731[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C1A581E6-0681-4F96-9A06-F17E70822A27}" name="battles-take-rate" dataDxfId="75">
+    <tableColumn id="4" xr3:uid="{C1A581E6-0681-4F96-9A06-F17E70822A27}" name="battles-take-rate" dataDxfId="64">
       <calculatedColumnFormula>IF(SUM(Table101519232731[[#This Row],[takes]]) &gt; 0,Table101519232731[[#This Row],[takes]]/SUM(Table101519232731[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A05A91A0-51C6-456B-A555-3BE5369BB59C}" name="take-win-rate" dataDxfId="74">
+    <tableColumn id="5" xr3:uid="{A05A91A0-51C6-456B-A555-3BE5369BB59C}" name="take-win-rate" dataDxfId="63">
       <calculatedColumnFormula>IF(Table101519232731[[#This Row],[takes]]&gt;0,Table101519232731[[#This Row],[wins]]/Table101519232731[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3792,10 +3873,10 @@
   <autoFilter ref="G1:I4" xr:uid="{1DF57343-6EB6-467B-AC87-5B89FA8E04B8}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3C084CEC-C8AE-408F-AD97-E693AACA1755}" name="level"/>
-    <tableColumn id="2" xr3:uid="{A9B64765-CF13-48CF-B246-C238B2F6121E}" name="bow" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{A9B64765-CF13-48CF-B246-C238B2F6121E}" name="bow" dataDxfId="62">
       <calculatedColumnFormula>COUNTIFS(Таблица1[winner1],"shadow",Таблица1[winner1-pw],Table424445464748[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"shadow",Таблица1[winner2-pw],Table424445464748[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"shadow",Таблица1[loser1-pw],Table424445464748[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"shadow",Таблица1[loser2-pw],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[winner1],"shadow",Table41[winner1-pw],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[winner2],"shadow",Table41[winner2-pw],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[winner3],"shadow",Table41[winner3-pw],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[loser1],"shadow",Table41[loser1-pw],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[loser2],"shadow",Table41[loser2-pw],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[loser3],"shadow",Table41[loser3-pw],Table424445464748[[#This Row],[level]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D575E23E-2C5C-4364-9276-FED9F1DC2C52}" name="chestpiece" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{D575E23E-2C5C-4364-9276-FED9F1DC2C52}" name="chestpiece" dataDxfId="61">
       <calculatedColumnFormula>COUNTIFS(Таблица1[winner1],"shadow",Таблица1[winner1-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"shadow",Таблица1[winner2-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"shadow",Таблица1[loser1-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"shadow",Таблица1[loser2-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[winner1],"shadow",Table41[winner1-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[winner2],"shadow",Table41[winner2-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[winner3],"shadow",Table41[winner3-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[loser1],"shadow",Table41[loser1-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[loser2],"shadow",Table41[loser2-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[loser3],"shadow",Table41[loser3-cp],Table424445464748[[#This Row],[level]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3824,16 +3905,16 @@
   <autoFilter ref="A1:E4" xr:uid="{DCA301F1-E0F8-4700-BEE5-2688AF43F23A}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{1ED2164D-0973-4259-9781-6BAF2E084165}" name="ability"/>
-    <tableColumn id="6" xr3:uid="{04D193BA-DBF0-4CDC-A756-9B40E68313C2}" name="takes" dataDxfId="73">
+    <tableColumn id="6" xr3:uid="{04D193BA-DBF0-4CDC-A756-9B40E68313C2}" name="takes" dataDxfId="60">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table7121620242832[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7ADEC841-AD50-43F9-8690-360B475CF8BE}" name="wins" dataDxfId="72">
+    <tableColumn id="4" xr3:uid="{7ADEC841-AD50-43F9-8690-360B475CF8BE}" name="wins" dataDxfId="59">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table7121620242832[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5F5D36E3-C252-4FDD-8F2A-EB8ACE45BFFB}" name="battles-take-rate" dataDxfId="71">
+    <tableColumn id="5" xr3:uid="{5F5D36E3-C252-4FDD-8F2A-EB8ACE45BFFB}" name="battles-take-rate" dataDxfId="58">
       <calculatedColumnFormula>IF(SUM(Table7121620242832[[#This Row],[takes]]) &gt; 0,Table7121620242832[[#This Row],[takes]]/SUM(Table7121620242832[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{40DF0F53-0FA5-4FFC-AEF7-2258D444EBFA}" name="take-win-rate" dataDxfId="70">
+    <tableColumn id="7" xr3:uid="{40DF0F53-0FA5-4FFC-AEF7-2258D444EBFA}" name="take-win-rate" dataDxfId="57">
       <calculatedColumnFormula>IF(Table7121620242832[[#This Row],[takes]]&gt;0,Table7121620242832[[#This Row],[wins]]/Table7121620242832[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3842,20 +3923,20 @@
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{F23BEAC8-A0CE-4882-9DC5-8C4FD9B02A23}" name="Table8131721252933" displayName="Table8131721252933" ref="A6:E9" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68" tableBorderDxfId="67" totalsRowBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{F23BEAC8-A0CE-4882-9DC5-8C4FD9B02A23}" name="Table8131721252933" displayName="Table8131721252933" ref="A6:E9" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54" totalsRowBorderDxfId="53">
   <autoFilter ref="A6:E9" xr:uid="{8ADAEE31-4DDA-4DF2-9EAD-04808D53FFC1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{969F47E9-33E4-48BE-AA5E-5736E1870A56}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{312B6A3F-AFB6-43B5-B057-8FF53D835BCF}" name="takes" dataDxfId="65">
+    <tableColumn id="2" xr3:uid="{312B6A3F-AFB6-43B5-B057-8FF53D835BCF}" name="takes" dataDxfId="52">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table8131721252933[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2E60A39F-6EAF-4AD0-A4E8-0191778971B9}" name="wins" dataDxfId="64">
+    <tableColumn id="3" xr3:uid="{2E60A39F-6EAF-4AD0-A4E8-0191778971B9}" name="wins" dataDxfId="51">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8131721252933[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E0075A4B-AEEA-431C-ACC8-5783B6613B01}" name="battles-take-rate" dataDxfId="63">
+    <tableColumn id="4" xr3:uid="{E0075A4B-AEEA-431C-ACC8-5783B6613B01}" name="battles-take-rate" dataDxfId="50">
       <calculatedColumnFormula>IF(SUM(Table8131721252933[[#This Row],[takes]]) &gt; 0,Table8131721252933[[#This Row],[takes]]/SUM(Table8131721252933[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4C732FF7-A77B-452D-B826-49D203EAF61C}" name="take-win-rate" dataDxfId="62">
+    <tableColumn id="5" xr3:uid="{4C732FF7-A77B-452D-B826-49D203EAF61C}" name="take-win-rate" dataDxfId="49">
       <calculatedColumnFormula>IF(Table8131721252933[[#This Row],[takes]]&gt;0,Table8131721252933[[#This Row],[wins]]/Table8131721252933[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3864,20 +3945,20 @@
 </file>
 
 <file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{A95774D6-ADD7-42F4-A3CD-4305812B602C}" name="Table9141822263034" displayName="Table9141822263034" ref="A11:E14" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59" totalsRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{A95774D6-ADD7-42F4-A3CD-4305812B602C}" name="Table9141822263034" displayName="Table9141822263034" ref="A11:E14" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46" totalsRowBorderDxfId="45">
   <autoFilter ref="A11:E14" xr:uid="{1B0EA3CA-FA8E-4345-B52C-471D5C94AD38}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1D143A54-64E0-40CF-969A-A6571AEE79E2}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{3AE5DA17-372A-4E8E-9891-F503A49BB59C}" name="takes" dataDxfId="57">
+    <tableColumn id="2" xr3:uid="{3AE5DA17-372A-4E8E-9891-F503A49BB59C}" name="takes" dataDxfId="44">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table9141822263034[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5819056E-9672-4D70-9BDD-FC7203231C89}" name="wins" dataDxfId="56">
+    <tableColumn id="3" xr3:uid="{5819056E-9672-4D70-9BDD-FC7203231C89}" name="wins" dataDxfId="43">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table9141822263034[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{157D9699-1B48-4EC3-B510-852D9FD33170}" name="battles-take-rate" dataDxfId="55">
+    <tableColumn id="4" xr3:uid="{157D9699-1B48-4EC3-B510-852D9FD33170}" name="battles-take-rate" dataDxfId="42">
       <calculatedColumnFormula>IF(SUM(Table9141822263034[[#This Row],[takes]]) &gt; 0,Table9141822263034[[#This Row],[takes]]/SUM(Table9141822263034[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C8BF4F38-4704-4527-BF37-8BCCFF678E26}" name="take-win-rate" dataDxfId="54">
+    <tableColumn id="5" xr3:uid="{C8BF4F38-4704-4527-BF37-8BCCFF678E26}" name="take-win-rate" dataDxfId="41">
       <calculatedColumnFormula>IF(Table9141822263034[[#This Row],[takes]]&gt;0,Table9141822263034[[#This Row],[wins]]/Table9141822263034[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3886,20 +3967,20 @@
 </file>
 
 <file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{DFBFAE47-6AC4-43F2-B74E-AED00007CFE4}" name="Table10151923273135" displayName="Table10151923273135" ref="A16:E19" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51" totalsRowBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{DFBFAE47-6AC4-43F2-B74E-AED00007CFE4}" name="Table10151923273135" displayName="Table10151923273135" ref="A16:E19" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38" totalsRowBorderDxfId="37">
   <autoFilter ref="A16:E19" xr:uid="{2AADA4A0-2F4A-4009-8ECF-0BECA693390C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D55FA695-8094-4C3D-88EE-A07EC3164BAD}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{CFA5A920-D977-44D2-B67A-D3AD87AA6150}" name="takes" dataDxfId="49">
+    <tableColumn id="2" xr3:uid="{CFA5A920-D977-44D2-B67A-D3AD87AA6150}" name="takes" dataDxfId="36">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability4],Table10151923273135[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3BAA5B2E-190A-400B-8854-BA9FD156788A}" name="wins" dataDxfId="48">
+    <tableColumn id="3" xr3:uid="{3BAA5B2E-190A-400B-8854-BA9FD156788A}" name="wins" dataDxfId="35">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table10151923273135[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6799D6E7-DA8F-425B-B7F1-A98E30323F53}" name="battles-take-rate" dataDxfId="47">
+    <tableColumn id="4" xr3:uid="{6799D6E7-DA8F-425B-B7F1-A98E30323F53}" name="battles-take-rate" dataDxfId="34">
       <calculatedColumnFormula>IF(SUM(Table10151923273135[[#This Row],[takes]]) &gt; 0,Table10151923273135[[#This Row],[takes]]/SUM(Table10151923273135[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F569E1D6-6B34-4F3F-84CB-3AB52432D2E8}" name="take-win-rate" dataDxfId="46">
+    <tableColumn id="5" xr3:uid="{F569E1D6-6B34-4F3F-84CB-3AB52432D2E8}" name="take-win-rate" dataDxfId="33">
       <calculatedColumnFormula>IF(Table10151923273135[[#This Row],[takes]]&gt;0,Table10151923273135[[#This Row],[wins]]/Table10151923273135[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3912,10 +3993,10 @@
   <autoFilter ref="G1:I4" xr:uid="{01198641-B5B5-466C-BF2E-5DFD2A0EAB1E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E68D959A-6ABE-435F-9FA5-6532806F6473}" name="level"/>
-    <tableColumn id="2" xr3:uid="{40CC5232-BC2A-4C74-8693-FE7CD3F5E97B}" name="hammer" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{40CC5232-BC2A-4C74-8693-FE7CD3F5E97B}" name="hammer" dataDxfId="32">
       <calculatedColumnFormula>COUNTIFS(Таблица1[winner1],"lightbringer",Таблица1[winner1-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"lightbringer",Таблица1[winner2-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"lightbringer",Таблица1[loser1-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"lightbringer",Таблица1[loser2-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner1],"lightbringer",Table41[winner1-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner2],"lightbringer",Table41[winner2-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner3],"lightbringer",Table41[winner3-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser1],"lightbringer",Table41[loser1-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser2],"lightbringer",Table41[loser2-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser3],"lightbringer",Table41[loser3-pw],Table42444546474849[[#This Row],[level]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F0BB8FA1-DB94-41D7-8821-CC33E132D173}" name="chestpiece" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{F0BB8FA1-DB94-41D7-8821-CC33E132D173}" name="chestpiece" dataDxfId="31">
       <calculatedColumnFormula>COUNTIFS(Таблица1[winner1],"lightbringer",Таблица1[winner1-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"lightbringer",Таблица1[winner2-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"lightbringer",Таблица1[loser1-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"lightbringer",Таблица1[loser2-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner1],"lightbringer",Table41[winner1-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner2],"lightbringer",Table41[winner2-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner3],"lightbringer",Table41[winner3-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser1],"lightbringer",Table41[loser1-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser2],"lightbringer",Table41[loser2-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser3],"lightbringer",Table41[loser3-cp],Table42444546474849[[#This Row],[level]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3928,16 +4009,16 @@
   <autoFilter ref="A1:E4" xr:uid="{DCA301F1-E0F8-4700-BEE5-2688AF43F23A}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{141B3573-1107-4477-85C4-9A46F985DE3A}" name="ability"/>
-    <tableColumn id="6" xr3:uid="{F60E52FB-D906-4921-8590-53CC77576411}" name="takes" dataDxfId="45">
+    <tableColumn id="6" xr3:uid="{F60E52FB-D906-4921-8590-53CC77576411}" name="takes" dataDxfId="30">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table712162024283236[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{789DFF79-4E8A-4455-9F11-868C053D7987}" name="wins" dataDxfId="44">
+    <tableColumn id="4" xr3:uid="{789DFF79-4E8A-4455-9F11-868C053D7987}" name="wins" dataDxfId="29">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table712162024283236[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F1C8A607-C20A-45DA-9600-9CB0A33E8E2F}" name="battles-take-rate" dataDxfId="43">
+    <tableColumn id="5" xr3:uid="{F1C8A607-C20A-45DA-9600-9CB0A33E8E2F}" name="battles-take-rate" dataDxfId="28">
       <calculatedColumnFormula>IF(SUM(Table712162024283236[[#This Row],[takes]]) &gt; 0,Table712162024283236[[#This Row],[takes]]/SUM(Table712162024283236[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8158EFD4-3FF6-48D9-9855-F204B278A59F}" name="take-win-rate" dataDxfId="42">
+    <tableColumn id="7" xr3:uid="{8158EFD4-3FF6-48D9-9855-F204B278A59F}" name="take-win-rate" dataDxfId="27">
       <calculatedColumnFormula>IF(Table712162024283236[[#This Row],[takes]]&gt;0,Table712162024283236[[#This Row],[wins]]/Table712162024283236[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3946,20 +4027,20 @@
 </file>
 
 <file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{B8B4FE1A-721E-445D-B7FE-544C1E559758}" name="Table813172125293337" displayName="Table813172125293337" ref="A6:E9" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="40" tableBorderDxfId="39" totalsRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{B8B4FE1A-721E-445D-B7FE-544C1E559758}" name="Table813172125293337" displayName="Table813172125293337" ref="A6:E9" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A6:E9" xr:uid="{8ADAEE31-4DDA-4DF2-9EAD-04808D53FFC1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A4E908F7-D504-4F53-BF01-5BCBA77EA5EE}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{ECAE308A-5AC5-4A80-B04B-1202E0DE701E}" name="takes" dataDxfId="37">
+    <tableColumn id="2" xr3:uid="{ECAE308A-5AC5-4A80-B04B-1202E0DE701E}" name="takes" dataDxfId="22">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table813172125293337[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CB736A48-B13B-4B9C-8F34-EE02E1C41F6A}" name="wins" dataDxfId="36">
+    <tableColumn id="3" xr3:uid="{CB736A48-B13B-4B9C-8F34-EE02E1C41F6A}" name="wins" dataDxfId="21">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813172125293337[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7B7C8B4B-CC34-4704-AB97-C84815D668EF}" name="battles-take-rate" dataDxfId="35">
+    <tableColumn id="4" xr3:uid="{7B7C8B4B-CC34-4704-AB97-C84815D668EF}" name="battles-take-rate" dataDxfId="20">
       <calculatedColumnFormula>IF(SUM(Table813172125293337[[#This Row],[takes]]) &gt; 0,Table813172125293337[[#This Row],[takes]]/SUM(Table813172125293337[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{200B53C6-F34B-4F51-8D59-87BDA3EF3991}" name="take-win-rate" dataDxfId="34">
+    <tableColumn id="5" xr3:uid="{200B53C6-F34B-4F51-8D59-87BDA3EF3991}" name="take-win-rate" dataDxfId="19">
       <calculatedColumnFormula>IF(Table813172125293337[[#This Row],[takes]]&gt;0,Table813172125293337[[#This Row],[wins]]/Table813172125293337[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3968,20 +4049,20 @@
 </file>
 
 <file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{38656292-EBA4-4FFA-97EA-22863D0FC025}" name="Table914182226303438" displayName="Table914182226303438" ref="A11:E14" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{38656292-EBA4-4FFA-97EA-22863D0FC025}" name="Table914182226303438" displayName="Table914182226303438" ref="A11:E14" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A11:E14" xr:uid="{1B0EA3CA-FA8E-4345-B52C-471D5C94AD38}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3C366E04-3732-4401-B166-CFBEFB79CA7C}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{7A4B73B5-D380-462C-AE0E-FFE1E26EADF4}" name="takes" dataDxfId="29">
+    <tableColumn id="2" xr3:uid="{7A4B73B5-D380-462C-AE0E-FFE1E26EADF4}" name="takes" dataDxfId="14">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table914182226303438[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4B46F025-9564-43E2-8C60-72D0340A7006}" name="wins" dataDxfId="28">
+    <tableColumn id="3" xr3:uid="{4B46F025-9564-43E2-8C60-72D0340A7006}" name="wins" dataDxfId="13">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914182226303438[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{81BA3B73-94C1-44D2-A568-4D75E2308314}" name="battles-take-rate" dataDxfId="27">
+    <tableColumn id="4" xr3:uid="{81BA3B73-94C1-44D2-A568-4D75E2308314}" name="battles-take-rate" dataDxfId="12">
       <calculatedColumnFormula>IF(SUM(Table914182226303438[[#This Row],[takes]]) &gt; 0,Table914182226303438[[#This Row],[takes]]/SUM(Table914182226303438[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{94C3AD85-8A80-49F8-890D-784C47D1DD3D}" name="take-win-rate" dataDxfId="26">
+    <tableColumn id="5" xr3:uid="{94C3AD85-8A80-49F8-890D-784C47D1DD3D}" name="take-win-rate" dataDxfId="11">
       <calculatedColumnFormula>IF(Table914182226303438[[#This Row],[takes]]&gt;0,Table914182226303438[[#This Row],[wins]]/Table914182226303438[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3990,20 +4071,20 @@
 </file>
 
 <file path=xl/tables/table48.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{3AE526D2-E569-4158-9521-D085C3CA944E}" name="Table1015192327313539" displayName="Table1015192327313539" ref="A16:E19" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{3AE526D2-E569-4158-9521-D085C3CA944E}" name="Table1015192327313539" displayName="Table1015192327313539" ref="A16:E19" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A16:E19" xr:uid="{2AADA4A0-2F4A-4009-8ECF-0BECA693390C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1614699-3BF2-4CB0-AF69-55D9197FFA37}" name="ability"/>
-    <tableColumn id="2" xr3:uid="{2AEFD293-6E60-4102-90C1-C426928BD5A8}" name="takes" dataDxfId="21">
+    <tableColumn id="2" xr3:uid="{2AEFD293-6E60-4102-90C1-C426928BD5A8}" name="takes" dataDxfId="6">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability4],Table1015192327313539[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7A79D551-0723-4B22-8B7F-DE20E9FA2C70}" name="wins" dataDxfId="20">
+    <tableColumn id="3" xr3:uid="{7A79D551-0723-4B22-8B7F-DE20E9FA2C70}" name="wins" dataDxfId="5">
       <calculatedColumnFormula>COUNTIF(Таблица1[winner1-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table1015192327313539[[#This Row],[ability]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8FD45B06-430F-453A-B143-E8B554BB65D6}" name="battles-take-rate" dataDxfId="19">
+    <tableColumn id="4" xr3:uid="{8FD45B06-430F-453A-B143-E8B554BB65D6}" name="battles-take-rate" dataDxfId="4">
       <calculatedColumnFormula>IF(SUM(Table1015192327313539[[#This Row],[takes]]) &gt; 0,Table1015192327313539[[#This Row],[takes]]/SUM(Table1015192327313539[takes]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{19E23A61-3746-4D96-87FF-F61A60D368A6}" name="take-win-rate" dataDxfId="18">
+    <tableColumn id="5" xr3:uid="{19E23A61-3746-4D96-87FF-F61A60D368A6}" name="take-win-rate" dataDxfId="3">
       <calculatedColumnFormula>IF(Table1015192327313539[[#This Row],[takes]]&gt;0,Table1015192327313539[[#This Row],[wins]]/Table1015192327313539[[#This Row],[takes]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4031,8 +4112,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{8FF0AB99-2334-42CE-ABF7-14A6AEB9D902}" name="Table41" displayName="Table41" ref="A1:BA38" totalsRowShown="0">
-  <autoFilter ref="A1:BA38" xr:uid="{8FF0AB99-2334-42CE-ABF7-14A6AEB9D902}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{8FF0AB99-2334-42CE-ABF7-14A6AEB9D902}" name="Table41" displayName="Table41" ref="A1:BA49" totalsRowShown="0">
+  <autoFilter ref="A1:BA49" xr:uid="{8FF0AB99-2334-42CE-ABF7-14A6AEB9D902}"/>
   <tableColumns count="53">
     <tableColumn id="1" xr3:uid="{CD10349B-4AB7-4535-B085-37444EE4435D}" name="battle"/>
     <tableColumn id="3" xr3:uid="{611F2791-43B2-4D45-A159-38BE1D3E1EF9}" name="winner1"/>
@@ -4435,10 +4516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK137"/>
+  <dimension ref="A1:AK153"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView topLeftCell="T127" workbookViewId="0">
+      <selection activeCell="AF157" sqref="AF157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15463,6 +15544,1286 @@
         <v>2</v>
       </c>
     </row>
+    <row r="138" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>368</v>
+      </c>
+      <c r="B138" t="s">
+        <v>48</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>49</v>
+      </c>
+      <c r="G138" t="s">
+        <v>71</v>
+      </c>
+      <c r="J138" t="s">
+        <v>33</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>3</v>
+      </c>
+      <c r="N138" t="s">
+        <v>46</v>
+      </c>
+      <c r="O138" t="s">
+        <v>35</v>
+      </c>
+      <c r="R138" t="s">
+        <v>56</v>
+      </c>
+      <c r="S138">
+        <v>1</v>
+      </c>
+      <c r="U138">
+        <v>1</v>
+      </c>
+      <c r="V138" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z138" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA138">
+        <v>1</v>
+      </c>
+      <c r="AC138">
+        <v>1</v>
+      </c>
+      <c r="AD138" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE138" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH138">
+        <v>5</v>
+      </c>
+      <c r="AI138">
+        <v>32</v>
+      </c>
+      <c r="AJ138">
+        <v>30</v>
+      </c>
+      <c r="AK138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>369</v>
+      </c>
+      <c r="B139" t="s">
+        <v>48</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139" t="s">
+        <v>49</v>
+      </c>
+      <c r="G139" t="s">
+        <v>71</v>
+      </c>
+      <c r="J139" t="s">
+        <v>43</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139" t="s">
+        <v>73</v>
+      </c>
+      <c r="O139" t="s">
+        <v>74</v>
+      </c>
+      <c r="P139" t="s">
+        <v>75</v>
+      </c>
+      <c r="R139" t="s">
+        <v>56</v>
+      </c>
+      <c r="S139">
+        <v>1</v>
+      </c>
+      <c r="U139">
+        <v>1</v>
+      </c>
+      <c r="V139" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z139" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA139">
+        <v>1</v>
+      </c>
+      <c r="AC139">
+        <v>1</v>
+      </c>
+      <c r="AD139" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH139">
+        <v>4</v>
+      </c>
+      <c r="AI139">
+        <v>33</v>
+      </c>
+      <c r="AJ139">
+        <v>30</v>
+      </c>
+      <c r="AK139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>370</v>
+      </c>
+      <c r="B140" t="s">
+        <v>56</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140" t="s">
+        <v>68</v>
+      </c>
+      <c r="J140" t="s">
+        <v>45</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140" t="s">
+        <v>47</v>
+      </c>
+      <c r="O140" t="s">
+        <v>76</v>
+      </c>
+      <c r="P140" t="s">
+        <v>100</v>
+      </c>
+      <c r="R140" t="s">
+        <v>48</v>
+      </c>
+      <c r="S140">
+        <v>1</v>
+      </c>
+      <c r="U140">
+        <v>1</v>
+      </c>
+      <c r="V140" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z140" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA140">
+        <v>1</v>
+      </c>
+      <c r="AC140">
+        <v>1</v>
+      </c>
+      <c r="AD140" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE140" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF140" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH140">
+        <v>5</v>
+      </c>
+      <c r="AI140">
+        <v>54</v>
+      </c>
+      <c r="AJ140">
+        <v>30</v>
+      </c>
+      <c r="AK140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>371</v>
+      </c>
+      <c r="B141" t="s">
+        <v>48</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>49</v>
+      </c>
+      <c r="G141" t="s">
+        <v>71</v>
+      </c>
+      <c r="J141" t="s">
+        <v>38</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141" t="s">
+        <v>67</v>
+      </c>
+      <c r="O141" t="s">
+        <v>105</v>
+      </c>
+      <c r="P141" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>177</v>
+      </c>
+      <c r="R141" t="s">
+        <v>56</v>
+      </c>
+      <c r="S141">
+        <v>1</v>
+      </c>
+      <c r="U141">
+        <v>1</v>
+      </c>
+      <c r="V141" t="s">
+        <v>68</v>
+      </c>
+      <c r="W141" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z141" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA141">
+        <v>1</v>
+      </c>
+      <c r="AC141">
+        <v>2</v>
+      </c>
+      <c r="AD141" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE141" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF141" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH141">
+        <v>9</v>
+      </c>
+      <c r="AI141">
+        <v>41</v>
+      </c>
+      <c r="AJ141">
+        <v>30</v>
+      </c>
+      <c r="AK141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>372</v>
+      </c>
+      <c r="B142" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>46</v>
+      </c>
+      <c r="G142" t="s">
+        <v>151</v>
+      </c>
+      <c r="H142" t="s">
+        <v>36</v>
+      </c>
+      <c r="J142" t="s">
+        <v>43</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142" t="s">
+        <v>73</v>
+      </c>
+      <c r="O142" t="s">
+        <v>74</v>
+      </c>
+      <c r="P142" t="s">
+        <v>75</v>
+      </c>
+      <c r="R142" t="s">
+        <v>56</v>
+      </c>
+      <c r="S142">
+        <v>1</v>
+      </c>
+      <c r="U142">
+        <v>1</v>
+      </c>
+      <c r="V142" t="s">
+        <v>68</v>
+      </c>
+      <c r="W142" t="s">
+        <v>69</v>
+      </c>
+      <c r="X142" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z142" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA142">
+        <v>1</v>
+      </c>
+      <c r="AC142">
+        <v>1</v>
+      </c>
+      <c r="AD142" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE142" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF142" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH142">
+        <v>8</v>
+      </c>
+      <c r="AI142">
+        <v>25</v>
+      </c>
+      <c r="AJ142">
+        <v>30</v>
+      </c>
+      <c r="AK142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>373</v>
+      </c>
+      <c r="B143" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>46</v>
+      </c>
+      <c r="G143" t="s">
+        <v>35</v>
+      </c>
+      <c r="J143" t="s">
+        <v>63</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143" t="s">
+        <v>72</v>
+      </c>
+      <c r="R143" t="s">
+        <v>56</v>
+      </c>
+      <c r="S143">
+        <v>1</v>
+      </c>
+      <c r="U143">
+        <v>1</v>
+      </c>
+      <c r="V143" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z143" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA143">
+        <v>1</v>
+      </c>
+      <c r="AC143">
+        <v>1</v>
+      </c>
+      <c r="AD143" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE143" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF143" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG143" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH143">
+        <v>4</v>
+      </c>
+      <c r="AI143">
+        <v>26</v>
+      </c>
+      <c r="AJ143">
+        <v>30</v>
+      </c>
+      <c r="AK143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>374</v>
+      </c>
+      <c r="B144" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+      <c r="F144" t="s">
+        <v>46</v>
+      </c>
+      <c r="J144" t="s">
+        <v>38</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144" t="s">
+        <v>67</v>
+      </c>
+      <c r="R144" t="s">
+        <v>56</v>
+      </c>
+      <c r="S144">
+        <v>1</v>
+      </c>
+      <c r="U144">
+        <v>1</v>
+      </c>
+      <c r="V144" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z144" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA144">
+        <v>1</v>
+      </c>
+      <c r="AC144">
+        <v>1</v>
+      </c>
+      <c r="AD144" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE144" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH144">
+        <v>4</v>
+      </c>
+      <c r="AI144">
+        <v>30</v>
+      </c>
+      <c r="AJ144">
+        <v>30</v>
+      </c>
+      <c r="AK144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>375</v>
+      </c>
+      <c r="B145" t="s">
+        <v>56</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>3</v>
+      </c>
+      <c r="F145" t="s">
+        <v>68</v>
+      </c>
+      <c r="G145" t="s">
+        <v>69</v>
+      </c>
+      <c r="H145" t="s">
+        <v>91</v>
+      </c>
+      <c r="J145" t="s">
+        <v>45</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145" t="s">
+        <v>47</v>
+      </c>
+      <c r="R145" t="s">
+        <v>43</v>
+      </c>
+      <c r="S145">
+        <v>1</v>
+      </c>
+      <c r="U145">
+        <v>1</v>
+      </c>
+      <c r="V145" t="s">
+        <v>73</v>
+      </c>
+      <c r="W145" t="s">
+        <v>74</v>
+      </c>
+      <c r="X145" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y145" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z145" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA145">
+        <v>1</v>
+      </c>
+      <c r="AC145">
+        <v>2</v>
+      </c>
+      <c r="AD145" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE145" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF145" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG145" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH145">
+        <v>11</v>
+      </c>
+      <c r="AI145">
+        <v>66</v>
+      </c>
+      <c r="AJ145">
+        <v>30</v>
+      </c>
+      <c r="AK145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>376</v>
+      </c>
+      <c r="B146" t="s">
+        <v>43</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>73</v>
+      </c>
+      <c r="G146" t="s">
+        <v>74</v>
+      </c>
+      <c r="J146" t="s">
+        <v>38</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146" t="s">
+        <v>67</v>
+      </c>
+      <c r="R146" t="s">
+        <v>56</v>
+      </c>
+      <c r="S146">
+        <v>1</v>
+      </c>
+      <c r="U146">
+        <v>1</v>
+      </c>
+      <c r="V146" t="s">
+        <v>68</v>
+      </c>
+      <c r="W146" t="s">
+        <v>69</v>
+      </c>
+      <c r="X146" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z146" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA146">
+        <v>1</v>
+      </c>
+      <c r="AC146">
+        <v>1</v>
+      </c>
+      <c r="AD146" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE146" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH146">
+        <v>4</v>
+      </c>
+      <c r="AI146">
+        <v>27</v>
+      </c>
+      <c r="AJ146">
+        <v>30</v>
+      </c>
+      <c r="AK146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>377</v>
+      </c>
+      <c r="B147" t="s">
+        <v>63</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147" t="s">
+        <v>72</v>
+      </c>
+      <c r="G147" t="s">
+        <v>103</v>
+      </c>
+      <c r="H147" t="s">
+        <v>168</v>
+      </c>
+      <c r="J147" t="s">
+        <v>38</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147" t="s">
+        <v>67</v>
+      </c>
+      <c r="R147" t="s">
+        <v>56</v>
+      </c>
+      <c r="S147">
+        <v>1</v>
+      </c>
+      <c r="U147">
+        <v>2</v>
+      </c>
+      <c r="V147" t="s">
+        <v>68</v>
+      </c>
+      <c r="W147" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z147" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA147">
+        <v>1</v>
+      </c>
+      <c r="AC147">
+        <v>2</v>
+      </c>
+      <c r="AD147" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE147" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH147">
+        <v>8</v>
+      </c>
+      <c r="AI147">
+        <v>55</v>
+      </c>
+      <c r="AJ147">
+        <v>30</v>
+      </c>
+      <c r="AK147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>378</v>
+      </c>
+      <c r="B148" t="s">
+        <v>48</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148" t="s">
+        <v>49</v>
+      </c>
+      <c r="G148" t="s">
+        <v>71</v>
+      </c>
+      <c r="H148" t="s">
+        <v>94</v>
+      </c>
+      <c r="I148" t="s">
+        <v>52</v>
+      </c>
+      <c r="J148" t="s">
+        <v>33</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148" t="s">
+        <v>46</v>
+      </c>
+      <c r="O148" t="s">
+        <v>35</v>
+      </c>
+      <c r="R148" t="s">
+        <v>56</v>
+      </c>
+      <c r="S148">
+        <v>1</v>
+      </c>
+      <c r="U148">
+        <v>2</v>
+      </c>
+      <c r="V148" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z148" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA148">
+        <v>1</v>
+      </c>
+      <c r="AC148">
+        <v>1</v>
+      </c>
+      <c r="AD148" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE148" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF148" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH148">
+        <v>7</v>
+      </c>
+      <c r="AI148">
+        <v>35</v>
+      </c>
+      <c r="AJ148">
+        <v>30</v>
+      </c>
+      <c r="AK148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>379</v>
+      </c>
+      <c r="B149" t="s">
+        <v>56</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149" t="s">
+        <v>68</v>
+      </c>
+      <c r="G149" t="s">
+        <v>69</v>
+      </c>
+      <c r="J149" t="s">
+        <v>63</v>
+      </c>
+      <c r="K149">
+        <v>3</v>
+      </c>
+      <c r="M149">
+        <v>3</v>
+      </c>
+      <c r="N149" t="s">
+        <v>72</v>
+      </c>
+      <c r="O149" t="s">
+        <v>167</v>
+      </c>
+      <c r="P149" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>172</v>
+      </c>
+      <c r="R149" t="s">
+        <v>48</v>
+      </c>
+      <c r="S149">
+        <v>2</v>
+      </c>
+      <c r="U149">
+        <v>3</v>
+      </c>
+      <c r="V149" t="s">
+        <v>49</v>
+      </c>
+      <c r="W149" t="s">
+        <v>85</v>
+      </c>
+      <c r="X149" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z149" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA149">
+        <v>1</v>
+      </c>
+      <c r="AC149">
+        <v>3</v>
+      </c>
+      <c r="AD149" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE149" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF149" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG149" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH149">
+        <v>21</v>
+      </c>
+      <c r="AI149">
+        <v>84</v>
+      </c>
+      <c r="AJ149">
+        <v>30</v>
+      </c>
+      <c r="AK149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>380</v>
+      </c>
+      <c r="B150" t="s">
+        <v>56</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" t="s">
+        <v>68</v>
+      </c>
+      <c r="G150" t="s">
+        <v>69</v>
+      </c>
+      <c r="H150" t="s">
+        <v>91</v>
+      </c>
+      <c r="J150" t="s">
+        <v>63</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150" t="s">
+        <v>72</v>
+      </c>
+      <c r="O150" t="s">
+        <v>95</v>
+      </c>
+      <c r="R150" t="s">
+        <v>48</v>
+      </c>
+      <c r="S150">
+        <v>1</v>
+      </c>
+      <c r="U150">
+        <v>1</v>
+      </c>
+      <c r="V150" t="s">
+        <v>49</v>
+      </c>
+      <c r="W150" t="s">
+        <v>50</v>
+      </c>
+      <c r="X150" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z150" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA150">
+        <v>1</v>
+      </c>
+      <c r="AC150">
+        <v>1</v>
+      </c>
+      <c r="AD150" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE150" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF150" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH150">
+        <v>7</v>
+      </c>
+      <c r="AI150">
+        <v>27</v>
+      </c>
+      <c r="AJ150">
+        <v>30</v>
+      </c>
+      <c r="AK150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>381</v>
+      </c>
+      <c r="B151" t="s">
+        <v>56</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151" t="s">
+        <v>68</v>
+      </c>
+      <c r="G151" t="s">
+        <v>69</v>
+      </c>
+      <c r="J151" t="s">
+        <v>63</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151" t="s">
+        <v>72</v>
+      </c>
+      <c r="R151" t="s">
+        <v>48</v>
+      </c>
+      <c r="S151">
+        <v>1</v>
+      </c>
+      <c r="U151">
+        <v>1</v>
+      </c>
+      <c r="V151" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z151" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA151">
+        <v>1</v>
+      </c>
+      <c r="AB151">
+        <v>1</v>
+      </c>
+      <c r="AC151">
+        <v>2</v>
+      </c>
+      <c r="AD151" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH151">
+        <v>2</v>
+      </c>
+      <c r="AI151">
+        <v>30</v>
+      </c>
+      <c r="AJ151">
+        <v>30</v>
+      </c>
+      <c r="AK151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>382</v>
+      </c>
+      <c r="B152" t="s">
+        <v>33</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>46</v>
+      </c>
+      <c r="J152" t="s">
+        <v>43</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152" t="s">
+        <v>73</v>
+      </c>
+      <c r="O152" t="s">
+        <v>74</v>
+      </c>
+      <c r="R152" t="s">
+        <v>56</v>
+      </c>
+      <c r="S152">
+        <v>1</v>
+      </c>
+      <c r="U152">
+        <v>1</v>
+      </c>
+      <c r="V152" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z152" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA152">
+        <v>1</v>
+      </c>
+      <c r="AC152">
+        <v>1</v>
+      </c>
+      <c r="AD152" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH152">
+        <v>1</v>
+      </c>
+      <c r="AI152">
+        <v>28</v>
+      </c>
+      <c r="AJ152">
+        <v>30</v>
+      </c>
+      <c r="AK152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>383</v>
+      </c>
+      <c r="B153" t="s">
+        <v>33</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
+        <v>46</v>
+      </c>
+      <c r="G153" t="s">
+        <v>66</v>
+      </c>
+      <c r="H153" t="s">
+        <v>36</v>
+      </c>
+      <c r="J153" t="s">
+        <v>45</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153" t="s">
+        <v>47</v>
+      </c>
+      <c r="O153" t="s">
+        <v>76</v>
+      </c>
+      <c r="P153" t="s">
+        <v>100</v>
+      </c>
+      <c r="R153" t="s">
+        <v>56</v>
+      </c>
+      <c r="S153">
+        <v>1</v>
+      </c>
+      <c r="U153">
+        <v>1</v>
+      </c>
+      <c r="V153" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA153">
+        <v>1</v>
+      </c>
+      <c r="AC153">
+        <v>1</v>
+      </c>
+      <c r="AD153" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH153">
+        <v>4</v>
+      </c>
+      <c r="AI153">
+        <v>41</v>
+      </c>
+      <c r="AJ153">
+        <v>30</v>
+      </c>
+      <c r="AK153">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15543,11 +16904,11 @@
       </c>
       <c r="H2">
         <f>COUNTIFS(Таблица1[winner1],"avatar",Таблица1[winner1-pw],Table4244454647[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"avatar",Таблица1[winner2-pw],Table4244454647[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"avatar",Таблица1[loser1-pw],Table4244454647[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"avatar",Таблица1[loser2-pw],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[winner1],"avatar",Table41[winner1-pw],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[winner2],"avatar",Table41[winner2-pw],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[winner3],"avatar",Table41[winner3-pw],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[loser1],"avatar",Table41[loser1-pw],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[loser2],"avatar",Table41[loser2-pw],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[loser3],"avatar",Table41[loser3-pw],Table4244454647[[#This Row],[level]])</f>
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="I2">
         <f>COUNTIFS(Таблица1[winner1],"avatar",Таблица1[winner1-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"avatar",Таблица1[winner2-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"avatar",Таблица1[loser1-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"avatar",Таблица1[loser2-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[winner1],"avatar",Table41[winner1-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[winner2],"avatar",Table41[winner2-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[winner3],"avatar",Table41[winner3-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[loser1],"avatar",Table41[loser1-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[loser2],"avatar",Table41[loser2-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[loser3],"avatar",Table41[loser3-cp],Table4244454647[[#This Row],[level]])</f>
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -15579,7 +16940,7 @@
       </c>
       <c r="I3">
         <f>COUNTIFS(Таблица1[winner1],"avatar",Таблица1[winner1-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"avatar",Таблица1[winner2-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"avatar",Таблица1[loser1-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"avatar",Таблица1[loser2-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[winner1],"avatar",Table41[winner1-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[winner2],"avatar",Table41[winner2-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[winner3],"avatar",Table41[winner3-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[loser1],"avatar",Table41[loser1-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[loser2],"avatar",Table41[loser2-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[loser3],"avatar",Table41[loser3-cp],Table4244454647[[#This Row],[level]])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -15588,11 +16949,11 @@
       </c>
       <c r="B4">
         <f>COUNTIF(Таблица1[winner1-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table712162024[[#This Row],[ability]])</f>
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <f>COUNTIF(Таблица1[winner1-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table712162024[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table712162024[[#This Row],[ability]])</f>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3">
         <f>IF(SUM(Table712162024[[#This Row],[takes]]) &gt; 0,Table712162024[[#This Row],[takes]]/SUM(Table712162024[takes]),0)</f>
@@ -15600,7 +16961,7 @@
       </c>
       <c r="E4" s="3">
         <f>IF(Table712162024[[#This Row],[takes]]&gt;0,Table712162024[[#This Row],[wins]]/Table712162024[[#This Row],[takes]],0)</f>
-        <v>0.42696629213483145</v>
+        <v>0.42156862745098039</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -15611,7 +16972,7 @@
       </c>
       <c r="I4">
         <f>COUNTIFS(Таблица1[winner1],"avatar",Таблица1[winner1-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"avatar",Таблица1[winner2-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"avatar",Таблица1[loser1-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"avatar",Таблица1[loser2-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[winner1],"avatar",Table41[winner1-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[winner2],"avatar",Table41[winner2-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[winner3],"avatar",Table41[winner3-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[loser1],"avatar",Table41[loser1-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[loser2],"avatar",Table41[loser2-cp],Table4244454647[[#This Row],[level]])+COUNTIFS(Table41[loser3],"avatar",Table41[loser3-cp],Table4244454647[[#This Row],[level]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -15637,19 +16998,19 @@
       </c>
       <c r="B7" s="2">
         <f>COUNTIF(Таблица1[winner1-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table813172125[[#This Row],[ability]])</f>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2">
         <f>COUNTIF(Таблица1[winner1-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813172125[[#This Row],[ability]])</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D7" s="16">
         <f>IF(SUM(Table813172125[[#This Row],[takes]]) &gt; 0,Table813172125[[#This Row],[takes]]/SUM(Table813172125[takes]),0)</f>
-        <v>0.76119402985074625</v>
+        <v>0.78481012658227844</v>
       </c>
       <c r="E7" s="16">
         <f>IF(Table813172125[[#This Row],[takes]]&gt;0,Table813172125[[#This Row],[wins]]/Table813172125[[#This Row],[takes]],0)</f>
-        <v>0.47058823529411764</v>
+        <v>0.46774193548387094</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -15658,7 +17019,7 @@
       </c>
       <c r="B8">
         <f>COUNTIF(Таблица1[winner1-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table813172125[[#This Row],[ability]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <f>COUNTIF(Таблица1[winner1-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813172125[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813172125[[#This Row],[ability]])</f>
@@ -15666,11 +17027,11 @@
       </c>
       <c r="D8" s="3">
         <f>IF(SUM(Table813172125[[#This Row],[takes]]) &gt; 0,Table813172125[[#This Row],[takes]]/SUM(Table813172125[takes]),0)</f>
-        <v>5.9701492537313432E-2</v>
+        <v>6.3291139240506333E-2</v>
       </c>
       <c r="E8" s="3">
         <f>IF(Table813172125[[#This Row],[takes]]&gt;0,Table813172125[[#This Row],[wins]]/Table813172125[[#This Row],[takes]],0)</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -15687,7 +17048,7 @@
       </c>
       <c r="D9" s="17">
         <f>IF(SUM(Table813172125[[#This Row],[takes]]) &gt; 0,Table813172125[[#This Row],[takes]]/SUM(Table813172125[takes]),0)</f>
-        <v>0.17910447761194029</v>
+        <v>0.15189873417721519</v>
       </c>
       <c r="E9" s="17">
         <f>IF(Table813172125[[#This Row],[takes]]&gt;0,Table813172125[[#This Row],[wins]]/Table813172125[[#This Row],[takes]],0)</f>
@@ -15717,7 +17078,7 @@
       </c>
       <c r="B12" s="1">
         <f>COUNTIF(Таблица1[winner1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table914182226[[#This Row],[ability]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1">
         <f>COUNTIF(Таблица1[winner1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914182226[[#This Row],[ability]])</f>
@@ -15725,11 +17086,11 @@
       </c>
       <c r="D12" s="18">
         <f>IF(SUM(Table914182226[[#This Row],[takes]]) &gt; 0,Table914182226[[#This Row],[takes]]/SUM(Table914182226[takes]),0)</f>
-        <v>0.2413793103448276</v>
+        <v>0.21621621621621623</v>
       </c>
       <c r="E12" s="18">
         <f>IF(Table914182226[[#This Row],[takes]]&gt;0,Table914182226[[#This Row],[wins]]/Table914182226[[#This Row],[takes]],0)</f>
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -15738,7 +17099,7 @@
       </c>
       <c r="B13" s="2">
         <f>COUNTIF(Таблица1[winner1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table914182226[[#This Row],[ability]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2">
         <f>COUNTIF(Таблица1[winner1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914182226[[#This Row],[ability]])</f>
@@ -15746,11 +17107,11 @@
       </c>
       <c r="D13" s="16">
         <f>IF(SUM(Table914182226[[#This Row],[takes]]) &gt; 0,Table914182226[[#This Row],[takes]]/SUM(Table914182226[takes]),0)</f>
-        <v>0.31034482758620691</v>
+        <v>0.27027027027027029</v>
       </c>
       <c r="E13" s="16">
         <f>IF(Table914182226[[#This Row],[takes]]&gt;0,Table914182226[[#This Row],[wins]]/Table914182226[[#This Row],[takes]],0)</f>
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -15759,19 +17120,19 @@
       </c>
       <c r="B14" s="15">
         <f>COUNTIF(Таблица1[winner1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table914182226[[#This Row],[ability]])</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15">
         <f>COUNTIF(Таблица1[winner1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914182226[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914182226[[#This Row],[ability]])</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" s="19">
         <f>IF(SUM(Table914182226[[#This Row],[takes]]) &gt; 0,Table914182226[[#This Row],[takes]]/SUM(Table914182226[takes]),0)</f>
-        <v>0.44827586206896552</v>
+        <v>0.51351351351351349</v>
       </c>
       <c r="E14" s="19">
         <f>IF(Table914182226[[#This Row],[takes]]&gt;0,Table914182226[[#This Row],[wins]]/Table914182226[[#This Row],[takes]],0)</f>
-        <v>0.61538461538461542</v>
+        <v>0.52631578947368418</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -15797,7 +17158,7 @@
       </c>
       <c r="B17" s="2">
         <f>COUNTIF(Таблица1[winner1-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability4],Table1015192327[[#This Row],[ability]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2">
         <f>COUNTIF(Таблица1[winner1-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table1015192327[[#This Row],[ability]])</f>
@@ -15805,7 +17166,7 @@
       </c>
       <c r="D17" s="16">
         <f>IF(SUM(Table1015192327[[#This Row],[takes]]) &gt; 0,Table1015192327[[#This Row],[takes]]/SUM(Table1015192327[takes]),0)</f>
-        <v>0</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="E17" s="16">
         <f>IF(Table1015192327[[#This Row],[takes]]&gt;0,Table1015192327[[#This Row],[wins]]/Table1015192327[[#This Row],[takes]],0)</f>
@@ -15818,7 +17179,7 @@
       </c>
       <c r="B18" s="2">
         <f>COUNTIF(Таблица1[winner1-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability4],Table1015192327[[#This Row],[ability]])</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
         <f>COUNTIF(Таблица1[winner1-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table1015192327[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table1015192327[[#This Row],[ability]])</f>
@@ -15826,11 +17187,11 @@
       </c>
       <c r="D18" s="16">
         <f>IF(SUM(Table1015192327[[#This Row],[takes]]) &gt; 0,Table1015192327[[#This Row],[takes]]/SUM(Table1015192327[takes]),0)</f>
-        <v>1</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="E18" s="16">
         <f>IF(Table1015192327[[#This Row],[takes]]&gt;0,Table1015192327[[#This Row],[wins]]/Table1015192327[[#This Row],[takes]],0)</f>
-        <v>0.23076923076923078</v>
+        <v>0.17647058823529413</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -15918,15 +17279,15 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Таблица1[winner1-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table71216202428[[#This Row],[ability]])</f>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <f>COUNTIF(Таблица1[winner1-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table71216202428[[#This Row],[ability]])</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3">
         <f>IF(SUM(Table71216202428[[#This Row],[takes]]) &gt; 0,Table71216202428[[#This Row],[takes]]/SUM(Table71216202428[takes]),0)</f>
-        <v>0.85365853658536583</v>
+        <v>0.84158415841584155</v>
       </c>
       <c r="E2" s="3">
         <f>IF(Table71216202428[[#This Row],[takes]]&gt;0,Table71216202428[[#This Row],[wins]]/Table71216202428[[#This Row],[takes]],0)</f>
@@ -15937,11 +17298,11 @@
       </c>
       <c r="H2">
         <f>COUNTIFS(Таблица1[winner1],"shadow",Таблица1[winner1-pw],Table424445464748[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"shadow",Таблица1[winner2-pw],Table424445464748[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"shadow",Таблица1[loser1-pw],Table424445464748[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"shadow",Таблица1[loser2-pw],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[winner1],"shadow",Table41[winner1-pw],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[winner2],"shadow",Table41[winner2-pw],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[winner3],"shadow",Table41[winner3-pw],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[loser1],"shadow",Table41[loser1-pw],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[loser2],"shadow",Table41[loser2-pw],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[loser3],"shadow",Table41[loser3-pw],Table424445464748[[#This Row],[level]])</f>
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <f>COUNTIFS(Таблица1[winner1],"shadow",Таблица1[winner1-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"shadow",Таблица1[winner2-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"shadow",Таблица1[loser1-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"shadow",Таблица1[loser2-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[winner1],"shadow",Table41[winner1-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[winner2],"shadow",Table41[winner2-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[winner3],"shadow",Table41[winner3-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[loser1],"shadow",Table41[loser1-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[loser2],"shadow",Table41[loser2-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[loser3],"shadow",Table41[loser3-cp],Table424445464748[[#This Row],[level]])</f>
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -15950,15 +17311,15 @@
       </c>
       <c r="B3">
         <f>COUNTIF(Таблица1[winner1-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table71216202428[[#This Row],[ability]])</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <f>COUNTIF(Таблица1[winner1-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table71216202428[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table71216202428[[#This Row],[ability]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3">
         <f>IF(SUM(Table71216202428[[#This Row],[takes]]) &gt; 0,Table71216202428[[#This Row],[takes]]/SUM(Table71216202428[takes]),0)</f>
-        <v>0.14634146341463414</v>
+        <v>0.15841584158415842</v>
       </c>
       <c r="E3" s="3">
         <f>IF(Table71216202428[[#This Row],[takes]]&gt;0,Table71216202428[[#This Row],[wins]]/Table71216202428[[#This Row],[takes]],0)</f>
@@ -15973,7 +17334,7 @@
       </c>
       <c r="I3">
         <f>COUNTIFS(Таблица1[winner1],"shadow",Таблица1[winner1-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"shadow",Таблица1[winner2-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"shadow",Таблица1[loser1-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"shadow",Таблица1[loser2-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[winner1],"shadow",Table41[winner1-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[winner2],"shadow",Table41[winner2-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[winner3],"shadow",Table41[winner3-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[loser1],"shadow",Table41[loser1-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[loser2],"shadow",Table41[loser2-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[loser3],"shadow",Table41[loser3-cp],Table424445464748[[#This Row],[level]])</f>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -16005,7 +17366,7 @@
       </c>
       <c r="I4">
         <f>COUNTIFS(Таблица1[winner1],"shadow",Таблица1[winner1-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"shadow",Таблица1[winner2-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"shadow",Таблица1[loser1-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"shadow",Таблица1[loser2-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[winner1],"shadow",Table41[winner1-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[winner2],"shadow",Table41[winner2-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[winner3],"shadow",Table41[winner3-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[loser1],"shadow",Table41[loser1-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[loser2],"shadow",Table41[loser2-cp],Table424445464748[[#This Row],[level]])+COUNTIFS(Table41[loser3],"shadow",Table41[loser3-cp],Table424445464748[[#This Row],[level]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -16031,7 +17392,7 @@
       </c>
       <c r="B7" s="2">
         <f>COUNTIF(Таблица1[winner1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table81317212529[[#This Row],[ability]])</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <f>COUNTIF(Таблица1[winner1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table81317212529[[#This Row],[ability]])</f>
@@ -16039,11 +17400,11 @@
       </c>
       <c r="D7" s="16">
         <f>IF(SUM(Table81317212529[[#This Row],[takes]]) &gt; 0,Table81317212529[[#This Row],[takes]]/SUM(Table81317212529[takes]),0)</f>
-        <v>0.24528301886792453</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="E7" s="16">
         <f>IF(Table81317212529[[#This Row],[takes]]&gt;0,Table81317212529[[#This Row],[wins]]/Table81317212529[[#This Row],[takes]],0)</f>
-        <v>0.53846153846153844</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -16052,7 +17413,7 @@
       </c>
       <c r="B8">
         <f>COUNTIF(Таблица1[winner1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table81317212529[[#This Row],[ability]])</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <f>COUNTIF(Таблица1[winner1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table81317212529[[#This Row],[ability]])</f>
@@ -16060,11 +17421,11 @@
       </c>
       <c r="D8" s="3">
         <f>IF(SUM(Table81317212529[[#This Row],[takes]]) &gt; 0,Table81317212529[[#This Row],[takes]]/SUM(Table81317212529[takes]),0)</f>
-        <v>0.16981132075471697</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E8" s="3">
         <f>IF(Table81317212529[[#This Row],[takes]]&gt;0,Table81317212529[[#This Row],[wins]]/Table81317212529[[#This Row],[takes]],0)</f>
-        <v>0.44444444444444442</v>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -16073,19 +17434,19 @@
       </c>
       <c r="B9" s="14">
         <f>COUNTIF(Таблица1[winner1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table81317212529[[#This Row],[ability]])</f>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C9" s="14">
         <f>COUNTIF(Таблица1[winner1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table81317212529[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table81317212529[[#This Row],[ability]])</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9" s="17">
         <f>IF(SUM(Table81317212529[[#This Row],[takes]]) &gt; 0,Table81317212529[[#This Row],[takes]]/SUM(Table81317212529[takes]),0)</f>
-        <v>0.58490566037735847</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="E9" s="17">
         <f>IF(Table81317212529[[#This Row],[takes]]&gt;0,Table81317212529[[#This Row],[wins]]/Table81317212529[[#This Row],[takes]],0)</f>
-        <v>0.32258064516129031</v>
+        <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -16111,7 +17472,7 @@
       </c>
       <c r="B12" s="1">
         <f>COUNTIF(Таблица1[winner1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table91418222630[[#This Row],[ability]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1">
         <f>COUNTIF(Таблица1[winner1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table91418222630[[#This Row],[ability]])</f>
@@ -16119,11 +17480,11 @@
       </c>
       <c r="D12" s="18">
         <f>IF(SUM(Table91418222630[[#This Row],[takes]]) &gt; 0,Table91418222630[[#This Row],[takes]]/SUM(Table91418222630[takes]),0)</f>
-        <v>0.22580645161290322</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="18">
         <f>IF(Table91418222630[[#This Row],[takes]]&gt;0,Table91418222630[[#This Row],[wins]]/Table91418222630[[#This Row],[takes]],0)</f>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -16132,19 +17493,19 @@
       </c>
       <c r="B13" s="2">
         <f>COUNTIF(Таблица1[winner1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table91418222630[[#This Row],[ability]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
         <f>COUNTIF(Таблица1[winner1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table91418222630[[#This Row],[ability]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="16">
         <f>IF(SUM(Table91418222630[[#This Row],[takes]]) &gt; 0,Table91418222630[[#This Row],[takes]]/SUM(Table91418222630[takes]),0)</f>
-        <v>0.12903225806451613</v>
+        <v>0.125</v>
       </c>
       <c r="E13" s="16">
         <f>IF(Table91418222630[[#This Row],[takes]]&gt;0,Table91418222630[[#This Row],[wins]]/Table91418222630[[#This Row],[takes]],0)</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -16153,19 +17514,19 @@
       </c>
       <c r="B14" s="15">
         <f>COUNTIF(Таблица1[winner1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table91418222630[[#This Row],[ability]])</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C14" s="15">
         <f>COUNTIF(Таблица1[winner1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table91418222630[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table91418222630[[#This Row],[ability]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D14" s="19">
         <f>IF(SUM(Table91418222630[[#This Row],[takes]]) &gt; 0,Table91418222630[[#This Row],[takes]]/SUM(Table91418222630[takes]),0)</f>
-        <v>0.64516129032258063</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="E14" s="19">
         <f>IF(Table91418222630[[#This Row],[takes]]&gt;0,Table91418222630[[#This Row],[wins]]/Table91418222630[[#This Row],[takes]],0)</f>
-        <v>0.5</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -16191,7 +17552,7 @@
       </c>
       <c r="B17" s="2">
         <f>COUNTIF(Таблица1[winner1-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability4],Table101519232731[[#This Row],[ability]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2">
         <f>COUNTIF(Таблица1[winner1-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table101519232731[[#This Row],[ability]])</f>
@@ -16199,11 +17560,11 @@
       </c>
       <c r="D17" s="16">
         <f>IF(SUM(Table101519232731[[#This Row],[takes]]) &gt; 0,Table101519232731[[#This Row],[takes]]/SUM(Table101519232731[takes]),0)</f>
-        <v>0.625</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="E17" s="16">
         <f>IF(Table101519232731[[#This Row],[takes]]&gt;0,Table101519232731[[#This Row],[wins]]/Table101519232731[[#This Row],[takes]],0)</f>
-        <v>0.5</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -16220,7 +17581,7 @@
       </c>
       <c r="D18" s="16">
         <f>IF(SUM(Table101519232731[[#This Row],[takes]]) &gt; 0,Table101519232731[[#This Row],[takes]]/SUM(Table101519232731[takes]),0)</f>
-        <v>6.25E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="E18" s="16">
         <f>IF(Table101519232731[[#This Row],[takes]]&gt;0,Table101519232731[[#This Row],[wins]]/Table101519232731[[#This Row],[takes]],0)</f>
@@ -16233,19 +17594,19 @@
       </c>
       <c r="B19" s="14">
         <f>COUNTIF(Таблица1[winner1-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability4],Table101519232731[[#This Row],[ability]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="14">
         <f>COUNTIF(Таблица1[winner1-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table101519232731[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table101519232731[[#This Row],[ability]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="17">
         <f>IF(SUM(Table101519232731[[#This Row],[takes]]) &gt; 0,Table101519232731[[#This Row],[takes]]/SUM(Table101519232731[takes]),0)</f>
-        <v>0.3125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E19" s="17">
         <f>IF(Table101519232731[[#This Row],[takes]]&gt;0,Table101519232731[[#This Row],[wins]]/Table101519232731[[#This Row],[takes]],0)</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -16312,30 +17673,30 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Таблица1[winner1-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table7121620242832[[#This Row],[ability]])</f>
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <f>COUNTIF(Таблица1[winner1-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table7121620242832[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table7121620242832[[#This Row],[ability]])</f>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3">
         <f>IF(SUM(Table7121620242832[[#This Row],[takes]]) &gt; 0,Table7121620242832[[#This Row],[takes]]/SUM(Table7121620242832[takes]),0)</f>
-        <v>0.9375</v>
+        <v>0.95</v>
       </c>
       <c r="E2" s="3">
         <f>IF(Table7121620242832[[#This Row],[takes]]&gt;0,Table7121620242832[[#This Row],[wins]]/Table7121620242832[[#This Row],[takes]],0)</f>
-        <v>0.34666666666666668</v>
+        <v>0.38947368421052631</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
         <f>COUNTIFS(Таблица1[winner1],"lightbringer",Таблица1[winner1-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"lightbringer",Таблица1[winner2-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"lightbringer",Таблица1[loser1-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"lightbringer",Таблица1[loser2-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner1],"lightbringer",Table41[winner1-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner2],"lightbringer",Table41[winner2-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner3],"lightbringer",Table41[winner3-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser1],"lightbringer",Table41[loser1-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser2],"lightbringer",Table41[loser2-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser3],"lightbringer",Table41[loser3-pw],Table42444546474849[[#This Row],[level]])</f>
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="I2">
         <f>COUNTIFS(Таблица1[winner1],"lightbringer",Таблица1[winner1-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"lightbringer",Таблица1[winner2-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"lightbringer",Таблица1[loser1-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"lightbringer",Таблица1[loser2-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner1],"lightbringer",Table41[winner1-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner2],"lightbringer",Table41[winner2-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner3],"lightbringer",Table41[winner3-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser1],"lightbringer",Table41[loser1-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser2],"lightbringer",Table41[loser2-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser3],"lightbringer",Table41[loser3-cp],Table42444546474849[[#This Row],[level]])</f>
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -16367,7 +17728,7 @@
       </c>
       <c r="I3">
         <f>COUNTIFS(Таблица1[winner1],"lightbringer",Таблица1[winner1-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"lightbringer",Таблица1[winner2-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"lightbringer",Таблица1[loser1-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"lightbringer",Таблица1[loser2-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner1],"lightbringer",Table41[winner1-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner2],"lightbringer",Table41[winner2-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner3],"lightbringer",Table41[winner3-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser1],"lightbringer",Table41[loser1-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser2],"lightbringer",Table41[loser2-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser3],"lightbringer",Table41[loser3-cp],Table42444546474849[[#This Row],[level]])</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -16384,7 +17745,7 @@
       </c>
       <c r="D4" s="3">
         <f>IF(SUM(Table7121620242832[[#This Row],[takes]]) &gt; 0,Table7121620242832[[#This Row],[takes]]/SUM(Table7121620242832[takes]),0)</f>
-        <v>6.25E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="3">
         <f>IF(Table7121620242832[[#This Row],[takes]]&gt;0,Table7121620242832[[#This Row],[wins]]/Table7121620242832[[#This Row],[takes]],0)</f>
@@ -16395,11 +17756,11 @@
       </c>
       <c r="H4">
         <f>COUNTIFS(Таблица1[winner1],"lightbringer",Таблица1[winner1-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"lightbringer",Таблица1[winner2-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"lightbringer",Таблица1[loser1-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"lightbringer",Таблица1[loser2-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner1],"lightbringer",Table41[winner1-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner2],"lightbringer",Table41[winner2-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner3],"lightbringer",Table41[winner3-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser1],"lightbringer",Table41[loser1-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser2],"lightbringer",Table41[loser2-pw],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser3],"lightbringer",Table41[loser3-pw],Table42444546474849[[#This Row],[level]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <f>COUNTIFS(Таблица1[winner1],"lightbringer",Таблица1[winner1-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"lightbringer",Таблица1[winner2-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"lightbringer",Таблица1[loser1-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"lightbringer",Таблица1[loser2-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner1],"lightbringer",Table41[winner1-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner2],"lightbringer",Table41[winner2-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[winner3],"lightbringer",Table41[winner3-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser1],"lightbringer",Table41[loser1-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser2],"lightbringer",Table41[loser2-cp],Table42444546474849[[#This Row],[level]])+COUNTIFS(Table41[loser3],"lightbringer",Table41[loser3-cp],Table42444546474849[[#This Row],[level]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -16425,19 +17786,19 @@
       </c>
       <c r="B7" s="2">
         <f>COUNTIF(Таблица1[winner1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table8131721252933[[#This Row],[ability]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
         <f>COUNTIF(Таблица1[winner1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8131721252933[[#This Row],[ability]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="16">
         <f>IF(SUM(Table8131721252933[[#This Row],[takes]]) &gt; 0,Table8131721252933[[#This Row],[takes]]/SUM(Table8131721252933[takes]),0)</f>
-        <v>0.31428571428571428</v>
+        <v>0.27906976744186046</v>
       </c>
       <c r="E7" s="16">
         <f>IF(Table8131721252933[[#This Row],[takes]]&gt;0,Table8131721252933[[#This Row],[wins]]/Table8131721252933[[#This Row],[takes]],0)</f>
-        <v>0.45454545454545453</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -16446,19 +17807,19 @@
       </c>
       <c r="B8">
         <f>COUNTIF(Таблица1[winner1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table8131721252933[[#This Row],[ability]])</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <f>COUNTIF(Таблица1[winner1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8131721252933[[#This Row],[ability]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3">
         <f>IF(SUM(Table8131721252933[[#This Row],[takes]]) &gt; 0,Table8131721252933[[#This Row],[takes]]/SUM(Table8131721252933[takes]),0)</f>
-        <v>0.45714285714285713</v>
+        <v>0.44186046511627908</v>
       </c>
       <c r="E8" s="3">
         <f>IF(Table8131721252933[[#This Row],[takes]]&gt;0,Table8131721252933[[#This Row],[wins]]/Table8131721252933[[#This Row],[takes]],0)</f>
-        <v>0.5</v>
+        <v>0.47368421052631576</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -16467,19 +17828,19 @@
       </c>
       <c r="B9" s="14">
         <f>COUNTIF(Таблица1[winner1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table8131721252933[[#This Row],[ability]])</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" s="14">
         <f>COUNTIF(Таблица1[winner1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8131721252933[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8131721252933[[#This Row],[ability]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="17">
         <f>IF(SUM(Table8131721252933[[#This Row],[takes]]) &gt; 0,Table8131721252933[[#This Row],[takes]]/SUM(Table8131721252933[takes]),0)</f>
-        <v>0.22857142857142856</v>
+        <v>0.27906976744186046</v>
       </c>
       <c r="E9" s="17">
         <f>IF(Table8131721252933[[#This Row],[takes]]&gt;0,Table8131721252933[[#This Row],[wins]]/Table8131721252933[[#This Row],[takes]],0)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -16505,19 +17866,19 @@
       </c>
       <c r="B12" s="1">
         <f>COUNTIF(Таблица1[winner1-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table9141822263034[[#This Row],[ability]])</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
         <f>COUNTIF(Таблица1[winner1-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table9141822263034[[#This Row],[ability]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="18">
         <f>IF(SUM(Table9141822263034[[#This Row],[takes]]) &gt; 0,Table9141822263034[[#This Row],[takes]]/SUM(Table9141822263034[takes]),0)</f>
-        <v>0.46153846153846156</v>
+        <v>0.5</v>
       </c>
       <c r="E12" s="18">
         <f>IF(Table9141822263034[[#This Row],[takes]]&gt;0,Table9141822263034[[#This Row],[wins]]/Table9141822263034[[#This Row],[takes]],0)</f>
-        <v>0.5</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -16526,19 +17887,19 @@
       </c>
       <c r="B13" s="2">
         <f>COUNTIF(Таблица1[winner1-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table9141822263034[[#This Row],[ability]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
         <f>COUNTIF(Таблица1[winner1-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table9141822263034[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table9141822263034[[#This Row],[ability]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="16">
         <f>IF(SUM(Table9141822263034[[#This Row],[takes]]) &gt; 0,Table9141822263034[[#This Row],[takes]]/SUM(Table9141822263034[takes]),0)</f>
-        <v>0.30769230769230771</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E13" s="16">
         <f>IF(Table9141822263034[[#This Row],[takes]]&gt;0,Table9141822263034[[#This Row],[wins]]/Table9141822263034[[#This Row],[takes]],0)</f>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -16555,7 +17916,7 @@
       </c>
       <c r="D14" s="19">
         <f>IF(SUM(Table9141822263034[[#This Row],[takes]]) &gt; 0,Table9141822263034[[#This Row],[takes]]/SUM(Table9141822263034[takes]),0)</f>
-        <v>0.23076923076923078</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E14" s="19">
         <f>IF(Table9141822263034[[#This Row],[takes]]&gt;0,Table9141822263034[[#This Row],[wins]]/Table9141822263034[[#This Row],[takes]],0)</f>
@@ -16585,7 +17946,7 @@
       </c>
       <c r="B17" s="2">
         <f>COUNTIF(Таблица1[winner1-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability4],Table10151923273135[[#This Row],[ability]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
         <f>COUNTIF(Таблица1[winner1-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table10151923273135[[#This Row],[ability]])</f>
@@ -16593,11 +17954,11 @@
       </c>
       <c r="D17" s="16">
         <f>IF(SUM(Table10151923273135[[#This Row],[takes]]) &gt; 0,Table10151923273135[[#This Row],[takes]]/SUM(Table10151923273135[takes]),0)</f>
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E17" s="16">
         <f>IF(Table10151923273135[[#This Row],[takes]]&gt;0,Table10151923273135[[#This Row],[wins]]/Table10151923273135[[#This Row],[takes]],0)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -16627,19 +17988,19 @@
       </c>
       <c r="B19" s="14">
         <f>COUNTIF(Таблица1[winner1-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability4],Table10151923273135[[#This Row],[ability]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="14">
         <f>COUNTIF(Таблица1[winner1-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table10151923273135[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table10151923273135[[#This Row],[ability]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="17">
         <f>IF(SUM(Table10151923273135[[#This Row],[takes]]) &gt; 0,Table10151923273135[[#This Row],[takes]]/SUM(Table10151923273135[takes]),0)</f>
-        <v>0.4</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="E19" s="17">
         <f>IF(Table10151923273135[[#This Row],[takes]]&gt;0,Table10151923273135[[#This Row],[wins]]/Table10151923273135[[#This Row],[takes]],0)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -16659,7 +18020,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16710,34 +18071,34 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Таблица1[winner1-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table712162024283236[[#This Row],[ability]])</f>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <f>COUNTIF(Таблица1[winner1-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table712162024283236[[#This Row],[ability]])</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3">
         <f>IF(SUM(Table712162024283236[[#This Row],[takes]]) &gt; 0,Table712162024283236[[#This Row],[takes]]/SUM(Table712162024283236[takes]),0)</f>
-        <v>0.83544303797468356</v>
+        <v>0.81318681318681318</v>
       </c>
       <c r="E2" s="3">
         <f>IF(Table712162024283236[[#This Row],[takes]]&gt;0,Table712162024283236[[#This Row],[wins]]/Table712162024283236[[#This Row],[takes]],0)</f>
-        <v>0.5</v>
+        <v>0.51351351351351349</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
         <f>COUNTIFS(Таблица1[winner1],"avenger",Таблица1[winner1-pw],Table4250[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"avenger",Таблица1[winner2-pw],Table4250[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"avenger",Таблица1[loser1-pw],Table4250[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"avenger",Таблица1[loser2-pw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[winner1],"avenger",Table41[winner1-pw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[winner2],"avenger",Table41[winner2-pw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[winner3],"avenger",Table41[winner3-pw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[loser1],"avenger",Table41[loser1-pw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[loser2],"avenger",Table41[loser2-pw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[loser3],"avenger",Table41[loser3-pw],Table4250[[#This Row],[level]])</f>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I2">
         <f>COUNTIFS(Таблица1[winner1],"avenger",Таблица1[winner1-sw],Table4250[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"avenger",Таблица1[winner2-sw],Table4250[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"avenger",Таблица1[loser1-sw],Table4250[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"avenger",Таблица1[loser2-sw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[winner1],"avenger",Table41[winner1-sw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[winner2],"avenger",Table41[winner2-sw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[winner3],"avenger",Table41[winner3-sw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[loser1],"avenger",Table41[loser1-sw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[loser2],"avenger",Table41[loser2-sw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[loser3],"avenger",Table41[loser3-sw],Table4250[[#This Row],[level]])</f>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J2">
         <f>COUNTIFS(Таблица1[winner1],"avenger",Таблица1[winner1-cp],Table4250[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"avenger",Таблица1[winner2-cp],Table4250[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"avenger",Таблица1[loser1-cp],Table4250[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"avenger",Таблица1[loser2-cp],Table4250[[#This Row],[level]])+COUNTIFS(Table41[winner1],"avenger",Table41[winner1-cp],Table4250[[#This Row],[level]])+COUNTIFS(Table41[winner2],"avenger",Table41[winner2-cp],Table4250[[#This Row],[level]])+COUNTIFS(Table41[winner3],"avenger",Table41[winner3-cp],Table4250[[#This Row],[level]])+COUNTIFS(Table41[loser1],"avenger",Table41[loser1-cp],Table4250[[#This Row],[level]])+COUNTIFS(Table41[loser2],"avenger",Table41[loser2-cp],Table4250[[#This Row],[level]])+COUNTIFS(Table41[loser3],"avenger",Table41[loser3-cp],Table4250[[#This Row],[level]])</f>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -16746,34 +18107,34 @@
       </c>
       <c r="B3">
         <f>COUNTIF(Таблица1[winner1-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table712162024283236[[#This Row],[ability]])</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <f>COUNTIF(Таблица1[winner1-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table712162024283236[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table712162024283236[[#This Row],[ability]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
         <f>IF(SUM(Table712162024283236[[#This Row],[takes]]) &gt; 0,Table712162024283236[[#This Row],[takes]]/SUM(Table712162024283236[takes]),0)</f>
-        <v>0.16455696202531644</v>
+        <v>0.18681318681318682</v>
       </c>
       <c r="E3" s="3">
         <f>IF(Table712162024283236[[#This Row],[takes]]&gt;0,Table712162024283236[[#This Row],[wins]]/Table712162024283236[[#This Row],[takes]],0)</f>
-        <v>0.69230769230769229</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
         <f>COUNTIFS(Таблица1[winner1],"avenger",Таблица1[winner1-pw],Table4250[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"avenger",Таблица1[winner2-pw],Table4250[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"avenger",Таблица1[loser1-pw],Table4250[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"avenger",Таблица1[loser2-pw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[winner1],"avenger",Table41[winner1-pw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[winner2],"avenger",Table41[winner2-pw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[winner3],"avenger",Table41[winner3-pw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[loser1],"avenger",Table41[loser1-pw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[loser2],"avenger",Table41[loser2-pw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[loser3],"avenger",Table41[loser3-pw],Table4250[[#This Row],[level]])</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I3">
         <f>COUNTIFS(Таблица1[winner1],"avenger",Таблица1[winner1-sw],Table4250[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"avenger",Таблица1[winner2-sw],Table4250[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"avenger",Таблица1[loser1-sw],Table4250[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"avenger",Таблица1[loser2-sw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[winner1],"avenger",Table41[winner1-sw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[winner2],"avenger",Table41[winner2-sw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[winner3],"avenger",Table41[winner3-sw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[loser1],"avenger",Table41[loser1-sw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[loser2],"avenger",Table41[loser2-sw],Table4250[[#This Row],[level]])+COUNTIFS(Table41[loser3],"avenger",Table41[loser3-sw],Table4250[[#This Row],[level]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3">
         <f>COUNTIFS(Таблица1[winner1],"avenger",Таблица1[winner1-cp],Table4250[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"avenger",Таблица1[winner2-cp],Table4250[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"avenger",Таблица1[loser1-cp],Table4250[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"avenger",Таблица1[loser2-cp],Table4250[[#This Row],[level]])+COUNTIFS(Table41[winner1],"avenger",Table41[winner1-cp],Table4250[[#This Row],[level]])+COUNTIFS(Table41[winner2],"avenger",Table41[winner2-cp],Table4250[[#This Row],[level]])+COUNTIFS(Table41[winner3],"avenger",Table41[winner3-cp],Table4250[[#This Row],[level]])+COUNTIFS(Table41[loser1],"avenger",Table41[loser1-cp],Table4250[[#This Row],[level]])+COUNTIFS(Table41[loser2],"avenger",Table41[loser2-cp],Table4250[[#This Row],[level]])+COUNTIFS(Table41[loser3],"avenger",Table41[loser3-cp],Table4250[[#This Row],[level]])</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -16835,19 +18196,19 @@
       </c>
       <c r="B7" s="2">
         <f>COUNTIF(Таблица1[winner1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table813172125293337[[#This Row],[ability]])</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2">
         <f>COUNTIF(Таблица1[winner1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813172125293337[[#This Row],[ability]])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="16">
         <f>IF(SUM(Table813172125293337[[#This Row],[takes]]) &gt; 0,Table813172125293337[[#This Row],[takes]]/SUM(Table813172125293337[takes]),0)</f>
-        <v>0.54166666666666663</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="E7" s="16">
         <f>IF(Table813172125293337[[#This Row],[takes]]&gt;0,Table813172125293337[[#This Row],[wins]]/Table813172125293337[[#This Row],[takes]],0)</f>
-        <v>0.53846153846153844</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -16856,7 +18217,7 @@
       </c>
       <c r="B8">
         <f>COUNTIF(Таблица1[winner1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table813172125293337[[#This Row],[ability]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <f>COUNTIF(Таблица1[winner1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813172125293337[[#This Row],[ability]])</f>
@@ -16864,11 +18225,11 @@
       </c>
       <c r="D8" s="3">
         <f>IF(SUM(Table813172125293337[[#This Row],[takes]]) &gt; 0,Table813172125293337[[#This Row],[takes]]/SUM(Table813172125293337[takes]),0)</f>
-        <v>0.20833333333333334</v>
+        <v>0.19642857142857142</v>
       </c>
       <c r="E8" s="3">
         <f>IF(Table813172125293337[[#This Row],[takes]]&gt;0,Table813172125293337[[#This Row],[wins]]/Table813172125293337[[#This Row],[takes]],0)</f>
-        <v>0.5</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -16877,11 +18238,11 @@
       </c>
       <c r="B9" s="14">
         <f>COUNTIF(Таблица1[winner1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table813172125293337[[#This Row],[ability]])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="14">
         <f>COUNTIF(Таблица1[winner1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813172125293337[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813172125293337[[#This Row],[ability]])</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" s="17">
         <f>IF(SUM(Table813172125293337[[#This Row],[takes]]) &gt; 0,Table813172125293337[[#This Row],[takes]]/SUM(Table813172125293337[takes]),0)</f>
@@ -16889,7 +18250,7 @@
       </c>
       <c r="E9" s="17">
         <f>IF(Table813172125293337[[#This Row],[takes]]&gt;0,Table813172125293337[[#This Row],[wins]]/Table813172125293337[[#This Row],[takes]],0)</f>
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -16915,7 +18276,7 @@
       </c>
       <c r="B12" s="1">
         <f>COUNTIF(Таблица1[winner1-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table914182226303438[[#This Row],[ability]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <f>COUNTIF(Таблица1[winner1-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914182226303438[[#This Row],[ability]])</f>
@@ -16923,11 +18284,11 @@
       </c>
       <c r="D12" s="18">
         <f>IF(SUM(Table914182226303438[[#This Row],[takes]]) &gt; 0,Table914182226303438[[#This Row],[takes]]/SUM(Table914182226303438[takes]),0)</f>
-        <v>0.47619047619047616</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="E12" s="18">
         <f>IF(Table914182226303438[[#This Row],[takes]]&gt;0,Table914182226303438[[#This Row],[wins]]/Table914182226303438[[#This Row],[takes]],0)</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -16944,7 +18305,7 @@
       </c>
       <c r="D13" s="16">
         <f>IF(SUM(Table914182226303438[[#This Row],[takes]]) &gt; 0,Table914182226303438[[#This Row],[takes]]/SUM(Table914182226303438[takes]),0)</f>
-        <v>4.7619047619047616E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="E13" s="16">
         <f>IF(Table914182226303438[[#This Row],[takes]]&gt;0,Table914182226303438[[#This Row],[wins]]/Table914182226303438[[#This Row],[takes]],0)</f>
@@ -16957,19 +18318,19 @@
       </c>
       <c r="B14" s="15">
         <f>COUNTIF(Таблица1[winner1-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table914182226303438[[#This Row],[ability]])</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C14" s="15">
         <f>COUNTIF(Таблица1[winner1-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914182226303438[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914182226303438[[#This Row],[ability]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" s="19">
         <f>IF(SUM(Table914182226303438[[#This Row],[takes]]) &gt; 0,Table914182226303438[[#This Row],[takes]]/SUM(Table914182226303438[takes]),0)</f>
-        <v>0.47619047619047616</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="E14" s="19">
         <f>IF(Table914182226303438[[#This Row],[takes]]&gt;0,Table914182226303438[[#This Row],[wins]]/Table914182226303438[[#This Row],[takes]],0)</f>
-        <v>0.7</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -16995,7 +18356,7 @@
       </c>
       <c r="B17" s="2">
         <f>COUNTIF(Таблица1[winner1-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability4],Table1015192327313539[[#This Row],[ability]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2">
         <f>COUNTIF(Таблица1[winner1-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table1015192327313539[[#This Row],[ability]])</f>
@@ -17003,11 +18364,11 @@
       </c>
       <c r="D17" s="16">
         <f>IF(SUM(Table1015192327313539[[#This Row],[takes]]) &gt; 0,Table1015192327313539[[#This Row],[takes]]/SUM(Table1015192327313539[takes]),0)</f>
-        <v>0.1111111111111111</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="E17" s="16">
         <f>IF(Table1015192327313539[[#This Row],[takes]]&gt;0,Table1015192327313539[[#This Row],[wins]]/Table1015192327313539[[#This Row],[takes]],0)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -17016,15 +18377,15 @@
       </c>
       <c r="B18" s="2">
         <f>COUNTIF(Таблица1[winner1-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability4],Table1015192327313539[[#This Row],[ability]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2">
         <f>COUNTIF(Таблица1[winner1-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table1015192327313539[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table1015192327313539[[#This Row],[ability]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="16">
         <f>IF(SUM(Table1015192327313539[[#This Row],[takes]]) &gt; 0,Table1015192327313539[[#This Row],[takes]]/SUM(Table1015192327313539[takes]),0)</f>
-        <v>0.88888888888888884</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="E18" s="16">
         <f>IF(Table1015192327313539[[#This Row],[takes]]&gt;0,Table1015192327313539[[#This Row],[wins]]/Table1015192327313539[[#This Row],[takes]],0)</f>
@@ -17069,7 +18430,7 @@
   <dimension ref="A1:T212"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17174,11 +18535,11 @@
       </c>
       <c r="S2" s="10">
         <f>Table6[[#This Row],[Think Time]]*$P$5/1000/60</f>
-        <v>17.52941176470588</v>
+        <v>17.769736842105264</v>
       </c>
       <c r="T2" s="10">
         <f>Table6[[#This Row],[Estimated Battle Time (mins)]]*COUNTA(Таблица2[hero-1])/60</f>
-        <v>61.35294117647058</v>
+        <v>62.194078947368425</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17229,11 +18590,11 @@
       </c>
       <c r="S3" s="10">
         <f>Table6[[#This Row],[Think Time]]*$P$5/1000/60</f>
-        <v>35.058823529411761</v>
+        <v>35.539473684210527</v>
       </c>
       <c r="T3" s="10">
         <f>Table6[[#This Row],[Estimated Battle Time (mins)]]*COUNTA(Таблица2[hero-1])/60</f>
-        <v>122.70588235294116</v>
+        <v>124.38815789473685</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17284,18 +18645,18 @@
       </c>
       <c r="P4" s="7">
         <f>AVERAGE(Таблица1[crystals])</f>
-        <v>5.9632352941176467</v>
+        <v>6.0197368421052628</v>
       </c>
       <c r="R4">
         <v>120000</v>
       </c>
       <c r="S4" s="10">
         <f>Table6[[#This Row],[Think Time]]*$P$5/1000/60</f>
-        <v>70.117647058823522</v>
+        <v>71.078947368421055</v>
       </c>
       <c r="T4" s="10">
         <f>Table6[[#This Row],[Estimated Battle Time (mins)]]*COUNTA(Таблица2[hero-1])/60</f>
-        <v>245.41176470588232</v>
+        <v>248.7763157894737</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17346,18 +18707,18 @@
       </c>
       <c r="P5" s="9">
         <f>AVERAGE(Таблица1[turns])</f>
-        <v>35.058823529411768</v>
+        <v>35.539473684210527</v>
       </c>
       <c r="R5">
         <v>300000</v>
       </c>
       <c r="S5" s="10">
         <f>Table6[[#This Row],[Think Time]]*$P$5/1000/60</f>
-        <v>175.29411764705884</v>
+        <v>177.69736842105263</v>
       </c>
       <c r="T5" s="10">
         <f>Table6[[#This Row],[Estimated Battle Time (mins)]]*COUNTA(Таблица2[hero-1])/60</f>
-        <v>613.52941176470597</v>
+        <v>621.94078947368428</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17408,11 +18769,11 @@
       </c>
       <c r="S6" s="10">
         <f>Table6[[#This Row],[Think Time]]*$P$5/1000/60</f>
-        <v>350.58823529411768</v>
+        <v>355.39473684210526</v>
       </c>
       <c r="T6" s="10">
         <f>Table6[[#This Row],[Estimated Battle Time (mins)]]*COUNTA(Таблица2[hero-1])/60</f>
-        <v>1227.0588235294119</v>
+        <v>1243.8815789473686</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17463,7 +18824,7 @@
       </c>
       <c r="P7" s="7">
         <f>MAX(Таблица1[crystals])</f>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17514,7 +18875,7 @@
       </c>
       <c r="P8" s="9">
         <f>MAX(Таблица1[turns])</f>
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -17726,15 +19087,15 @@
       </c>
       <c r="K13">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L13">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[team-1-win],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[team-2-win],"1")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" s="3">
         <f>IF(Table3[[#This Row],[battles]],Table3[[#This Row],[wins]]/Table3[[#This Row],[battles]],0)</f>
-        <v>0.4</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -17770,15 +19131,15 @@
       </c>
       <c r="K14">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L14">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[team-1-win],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[team-2-win],"1")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <f>IF(Table3[[#This Row],[battles]],Table3[[#This Row],[wins]]/Table3[[#This Row],[battles]],0)</f>
-        <v>0</v>
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -17858,15 +19219,15 @@
       </c>
       <c r="K16">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L16">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[team-1-win],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[team-2-win],"1")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16" s="3">
         <f>IF(Table3[[#This Row],[battles]],Table3[[#This Row],[wins]]/Table3[[#This Row],[battles]],0)</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -17902,15 +19263,15 @@
       </c>
       <c r="K17">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L17">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[team-1-win],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[team-2-win],"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="3">
         <f>IF(Table3[[#This Row],[battles]],Table3[[#This Row],[wins]]/Table3[[#This Row],[battles]],0)</f>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -17946,7 +19307,7 @@
       </c>
       <c r="K18">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L18">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[team-1-win],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[team-2-win],"1")</f>
@@ -17954,7 +19315,7 @@
       </c>
       <c r="M18" s="3">
         <f>IF(Table3[[#This Row],[battles]],Table3[[#This Row],[wins]]/Table3[[#This Row],[battles]],0)</f>
-        <v>0.14285714285714285</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -17990,7 +19351,7 @@
       </c>
       <c r="K19">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L19">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[team-1-win],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[team-2-win],"1")</f>
@@ -17998,7 +19359,7 @@
       </c>
       <c r="M19" s="3">
         <f>IF(Table3[[#This Row],[battles]],Table3[[#This Row],[wins]]/Table3[[#This Row],[battles]],0)</f>
-        <v>0.42857142857142855</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -18034,15 +19395,15 @@
       </c>
       <c r="K20">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L20">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[team-1-win],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[team-2-win],"1")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20" s="3">
         <f>IF(Table3[[#This Row],[battles]],Table3[[#This Row],[wins]]/Table3[[#This Row],[battles]],0)</f>
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -18078,15 +19439,15 @@
       </c>
       <c r="K21">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L21">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[team-1-win],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[team-2-win],"1")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M21" s="3">
         <f>IF(Table3[[#This Row],[battles]],Table3[[#This Row],[wins]]/Table3[[#This Row],[battles]],0)</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -18122,15 +19483,15 @@
       </c>
       <c r="K22">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L22">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[team-1-win],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[team-2-win],"1")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <f>IF(Table3[[#This Row],[battles]],Table3[[#This Row],[wins]]/Table3[[#This Row],[battles]],0)</f>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -18166,15 +19527,15 @@
       </c>
       <c r="K23">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L23">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[team-1-win],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[team-2-win],"1")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M23" s="3">
         <f>IF(Table3[[#This Row],[battles]],Table3[[#This Row],[wins]]/Table3[[#This Row],[battles]],0)</f>
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -18210,15 +19571,15 @@
       </c>
       <c r="K24">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L24">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[team-1-win],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[team-2-win],"1")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <f>IF(Table3[[#This Row],[battles]],Table3[[#This Row],[wins]]/Table3[[#This Row],[battles]],0)</f>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -18298,7 +19659,7 @@
       </c>
       <c r="K26">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L26">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[team-1-win],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[team-2-win],"1")</f>
@@ -18306,7 +19667,7 @@
       </c>
       <c r="M26" s="3">
         <f>IF(Table3[[#This Row],[battles]],Table3[[#This Row],[wins]]/Table3[[#This Row],[battles]],0)</f>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -18342,15 +19703,15 @@
       </c>
       <c r="K27">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L27">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[team-1-win],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[team-2-win],"1")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" s="3">
         <f>IF(Table3[[#This Row],[battles]],Table3[[#This Row],[wins]]/Table3[[#This Row],[battles]],0)</f>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -18474,15 +19835,15 @@
       </c>
       <c r="K30">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[battles],"1")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L30">
         <f>COUNTIFS(Таблица2[hero-1],Table3[[#This Row],[hero-1]],Таблица2[hero-2],Table3[[#This Row],[hero-2]],Таблица2[team-1-win],"1")+COUNTIFS(Таблица2[hero-3],Table3[[#This Row],[hero-1]],Таблица2[hero-4],Table3[[#This Row],[hero-2]],Таблица2[team-2-win],"1")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M30" s="3">
         <f>IF(Table3[[#This Row],[battles]],Table3[[#This Row],[wins]]/Table3[[#This Row],[battles]],0)</f>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -21286,11 +22647,11 @@
       </c>
       <c r="F138">
         <f>COUNTIFS(Таблица1[winner1],Таблица2[[#This Row],[hero-3]],Таблица1[winner2],Таблица2[[#This Row],[hero-4]],Таблица1[loser1],Таблица2[[#This Row],[hero-1]],Таблица1[loser2],Таблица2[[#This Row],[hero-2]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138">
         <f>Таблица2[[#This Row],[team-1-win]]+Таблица2[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -21312,11 +22673,11 @@
       </c>
       <c r="F139">
         <f>COUNTIFS(Таблица1[winner1],Таблица2[[#This Row],[hero-3]],Таблица1[winner2],Таблица2[[#This Row],[hero-4]],Таблица1[loser1],Таблица2[[#This Row],[hero-1]],Таблица1[loser2],Таблица2[[#This Row],[hero-2]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139">
         <f>Таблица2[[#This Row],[team-1-win]]+Таблица2[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -21328,7 +22689,7 @@
       </c>
       <c r="C140">
         <f>COUNTIFS(Таблица1[winner1],Таблица2[[#This Row],[hero-1]],Таблица1[winner2],Таблица2[[#This Row],[hero-2]],Таблица1[loser1],Таблица2[[#This Row],[hero-3]],Таблица1[loser2],Таблица2[[#This Row],[hero-4]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="s">
         <v>48</v>
@@ -21342,7 +22703,7 @@
       </c>
       <c r="G140">
         <f>Таблица2[[#This Row],[team-1-win]]+Таблица2[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -21364,11 +22725,11 @@
       </c>
       <c r="F141">
         <f>COUNTIFS(Таблица1[winner1],Таблица2[[#This Row],[hero-3]],Таблица1[winner2],Таблица2[[#This Row],[hero-4]],Таблица1[loser1],Таблица2[[#This Row],[hero-1]],Таблица1[loser2],Таблица2[[#This Row],[hero-2]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141">
         <f>Таблица2[[#This Row],[team-1-win]]+Таблица2[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -21390,11 +22751,11 @@
       </c>
       <c r="F142">
         <f>COUNTIFS(Таблица1[winner1],Таблица2[[#This Row],[hero-3]],Таблица1[winner2],Таблица2[[#This Row],[hero-4]],Таблица1[loser1],Таблица2[[#This Row],[hero-1]],Таблица1[loser2],Таблица2[[#This Row],[hero-2]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142">
         <f>Таблица2[[#This Row],[team-1-win]]+Таблица2[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -21416,11 +22777,11 @@
       </c>
       <c r="F143">
         <f>COUNTIFS(Таблица1[winner1],Таблица2[[#This Row],[hero-3]],Таблица1[winner2],Таблица2[[#This Row],[hero-4]],Таблица1[loser1],Таблица2[[#This Row],[hero-1]],Таблица1[loser2],Таблица2[[#This Row],[hero-2]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143">
         <f>Таблица2[[#This Row],[team-1-win]]+Таблица2[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -21442,11 +22803,11 @@
       </c>
       <c r="F144">
         <f>COUNTIFS(Таблица1[winner1],Таблица2[[#This Row],[hero-3]],Таблица1[winner2],Таблица2[[#This Row],[hero-4]],Таблица1[loser1],Таблица2[[#This Row],[hero-1]],Таблица1[loser2],Таблица2[[#This Row],[hero-2]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144">
         <f>Таблица2[[#This Row],[team-1-win]]+Таблица2[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -21458,7 +22819,7 @@
       </c>
       <c r="C145">
         <f>COUNTIFS(Таблица1[winner1],Таблица2[[#This Row],[hero-1]],Таблица1[winner2],Таблица2[[#This Row],[hero-2]],Таблица1[loser1],Таблица2[[#This Row],[hero-3]],Таблица1[loser2],Таблица2[[#This Row],[hero-4]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="s">
         <v>43</v>
@@ -21472,7 +22833,7 @@
       </c>
       <c r="G145">
         <f>Таблица2[[#This Row],[team-1-win]]+Таблица2[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -21494,11 +22855,11 @@
       </c>
       <c r="F146">
         <f>COUNTIFS(Таблица1[winner1],Таблица2[[#This Row],[hero-3]],Таблица1[winner2],Таблица2[[#This Row],[hero-4]],Таблица1[loser1],Таблица2[[#This Row],[hero-1]],Таблица1[loser2],Таблица2[[#This Row],[hero-2]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146">
         <f>Таблица2[[#This Row],[team-1-win]]+Таблица2[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -21520,11 +22881,11 @@
       </c>
       <c r="F147">
         <f>COUNTIFS(Таблица1[winner1],Таблица2[[#This Row],[hero-3]],Таблица1[winner2],Таблица2[[#This Row],[hero-4]],Таблица1[loser1],Таблица2[[#This Row],[hero-1]],Таблица1[loser2],Таблица2[[#This Row],[hero-2]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147">
         <f>Таблица2[[#This Row],[team-1-win]]+Таблица2[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -21546,11 +22907,11 @@
       </c>
       <c r="F148">
         <f>COUNTIFS(Таблица1[winner1],Таблица2[[#This Row],[hero-3]],Таблица1[winner2],Таблица2[[#This Row],[hero-4]],Таблица1[loser1],Таблица2[[#This Row],[hero-1]],Таблица1[loser2],Таблица2[[#This Row],[hero-2]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148">
         <f>Таблица2[[#This Row],[team-1-win]]+Таблица2[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -21562,7 +22923,7 @@
       </c>
       <c r="C149">
         <f>COUNTIFS(Таблица1[winner1],Таблица2[[#This Row],[hero-1]],Таблица1[winner2],Таблица2[[#This Row],[hero-2]],Таблица1[loser1],Таблица2[[#This Row],[hero-3]],Таблица1[loser2],Таблица2[[#This Row],[hero-4]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="s">
         <v>48</v>
@@ -21576,7 +22937,7 @@
       </c>
       <c r="G149">
         <f>Таблица2[[#This Row],[team-1-win]]+Таблица2[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -21588,7 +22949,7 @@
       </c>
       <c r="C150">
         <f>COUNTIFS(Таблица1[winner1],Таблица2[[#This Row],[hero-1]],Таблица1[winner2],Таблица2[[#This Row],[hero-2]],Таблица1[loser1],Таблица2[[#This Row],[hero-3]],Таблица1[loser2],Таблица2[[#This Row],[hero-4]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" t="s">
         <v>48</v>
@@ -21602,7 +22963,7 @@
       </c>
       <c r="G150">
         <f>Таблица2[[#This Row],[team-1-win]]+Таблица2[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -21614,7 +22975,7 @@
       </c>
       <c r="C151">
         <f>COUNTIFS(Таблица1[winner1],Таблица2[[#This Row],[hero-1]],Таблица1[winner2],Таблица2[[#This Row],[hero-2]],Таблица1[loser1],Таблица2[[#This Row],[hero-3]],Таблица1[loser2],Таблица2[[#This Row],[hero-4]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151" t="s">
         <v>48</v>
@@ -21628,7 +22989,7 @@
       </c>
       <c r="G151">
         <f>Таблица2[[#This Row],[team-1-win]]+Таблица2[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -21650,11 +23011,11 @@
       </c>
       <c r="F152">
         <f>COUNTIFS(Таблица1[winner1],Таблица2[[#This Row],[hero-3]],Таблица1[winner2],Таблица2[[#This Row],[hero-4]],Таблица1[loser1],Таблица2[[#This Row],[hero-1]],Таблица1[loser2],Таблица2[[#This Row],[hero-2]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G152">
         <f>Таблица2[[#This Row],[team-1-win]]+Таблица2[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -21676,11 +23037,11 @@
       </c>
       <c r="F153">
         <f>COUNTIFS(Таблица1[winner1],Таблица2[[#This Row],[hero-3]],Таблица1[winner2],Таблица2[[#This Row],[hero-4]],Таблица1[loser1],Таблица2[[#This Row],[hero-1]],Таблица1[loser2],Таблица2[[#This Row],[hero-2]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153">
         <f>Таблица2[[#This Row],[team-1-win]]+Таблица2[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -23245,10 +24606,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43702A4-1B7E-462F-A7A0-BC39936C76A9}">
-  <dimension ref="A1:BA38"/>
+  <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AM21" sqref="AM21"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27764,6 +29125,1279 @@
         <v>2</v>
       </c>
     </row>
+    <row r="39" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>384</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>141</v>
+      </c>
+      <c r="R39" t="s">
+        <v>45</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AC39">
+        <v>1</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ39">
+        <v>1</v>
+      </c>
+      <c r="AR39">
+        <v>1</v>
+      </c>
+      <c r="AS39">
+        <v>1</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>173</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX39">
+        <v>6</v>
+      </c>
+      <c r="AY39">
+        <v>42</v>
+      </c>
+      <c r="AZ39">
+        <v>30</v>
+      </c>
+      <c r="BA39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>385</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>68</v>
+      </c>
+      <c r="O40" t="s">
+        <v>69</v>
+      </c>
+      <c r="R40" t="s">
+        <v>45</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AC40">
+        <v>1</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ40">
+        <v>1</v>
+      </c>
+      <c r="AR40">
+        <v>1</v>
+      </c>
+      <c r="AS40">
+        <v>1</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX40">
+        <v>6</v>
+      </c>
+      <c r="AY40">
+        <v>54</v>
+      </c>
+      <c r="AZ40">
+        <v>30</v>
+      </c>
+      <c r="BA40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>386</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>68</v>
+      </c>
+      <c r="O41" t="s">
+        <v>69</v>
+      </c>
+      <c r="R41" t="s">
+        <v>45</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ41">
+        <v>1</v>
+      </c>
+      <c r="AR41">
+        <v>1</v>
+      </c>
+      <c r="AS41">
+        <v>1</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX41">
+        <v>9</v>
+      </c>
+      <c r="AY41">
+        <v>45</v>
+      </c>
+      <c r="AZ41">
+        <v>30</v>
+      </c>
+      <c r="BA41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>387</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" t="s">
+        <v>108</v>
+      </c>
+      <c r="I42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>68</v>
+      </c>
+      <c r="O42" t="s">
+        <v>142</v>
+      </c>
+      <c r="R42" t="s">
+        <v>63</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AC42">
+        <v>2</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AS42">
+        <v>2</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX42">
+        <v>14</v>
+      </c>
+      <c r="AY42">
+        <v>60</v>
+      </c>
+      <c r="AZ42">
+        <v>30</v>
+      </c>
+      <c r="BA42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>388</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" t="s">
+        <v>109</v>
+      </c>
+      <c r="J43" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>68</v>
+      </c>
+      <c r="O43" t="s">
+        <v>69</v>
+      </c>
+      <c r="P43" t="s">
+        <v>144</v>
+      </c>
+      <c r="R43" t="s">
+        <v>63</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AC43">
+        <v>3</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ43">
+        <v>1</v>
+      </c>
+      <c r="AS43">
+        <v>2</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX43">
+        <v>17</v>
+      </c>
+      <c r="AY43">
+        <v>81</v>
+      </c>
+      <c r="AZ43">
+        <v>30</v>
+      </c>
+      <c r="BA43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>68</v>
+      </c>
+      <c r="O44" t="s">
+        <v>69</v>
+      </c>
+      <c r="R44" t="s">
+        <v>63</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
+      <c r="V44" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+      <c r="AC44">
+        <v>1</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI44">
+        <v>1</v>
+      </c>
+      <c r="AK44">
+        <v>2</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ44">
+        <v>1</v>
+      </c>
+      <c r="AR44">
+        <v>2</v>
+      </c>
+      <c r="AS44">
+        <v>1</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>173</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>175</v>
+      </c>
+      <c r="AX44">
+        <v>8</v>
+      </c>
+      <c r="AY44">
+        <v>45</v>
+      </c>
+      <c r="AZ44">
+        <v>30</v>
+      </c>
+      <c r="BA44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>390</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>68</v>
+      </c>
+      <c r="R45" t="s">
+        <v>63</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AC45">
+        <v>1</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI45">
+        <v>1</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AS45">
+        <v>1</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX45">
+        <v>5</v>
+      </c>
+      <c r="AY45">
+        <v>45</v>
+      </c>
+      <c r="AZ45">
+        <v>30</v>
+      </c>
+      <c r="BA45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>391</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s">
+        <v>148</v>
+      </c>
+      <c r="I46" t="s">
+        <v>52</v>
+      </c>
+      <c r="J46" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>73</v>
+      </c>
+      <c r="O46" t="s">
+        <v>74</v>
+      </c>
+      <c r="R46" t="s">
+        <v>38</v>
+      </c>
+      <c r="S46">
+        <v>2</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46" t="s">
+        <v>67</v>
+      </c>
+      <c r="W46" t="s">
+        <v>105</v>
+      </c>
+      <c r="X46" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA46">
+        <v>3</v>
+      </c>
+      <c r="AB46">
+        <v>1</v>
+      </c>
+      <c r="AC46">
+        <v>1</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AS46">
+        <v>1</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX46">
+        <v>11</v>
+      </c>
+      <c r="AY46">
+        <v>47</v>
+      </c>
+      <c r="AZ46">
+        <v>30</v>
+      </c>
+      <c r="BA46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>392</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" t="s">
+        <v>45</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>47</v>
+      </c>
+      <c r="O47" t="s">
+        <v>76</v>
+      </c>
+      <c r="P47" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>101</v>
+      </c>
+      <c r="R47" t="s">
+        <v>38</v>
+      </c>
+      <c r="S47">
+        <v>2</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47" t="s">
+        <v>173</v>
+      </c>
+      <c r="W47" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA47">
+        <v>2</v>
+      </c>
+      <c r="AB47">
+        <v>2</v>
+      </c>
+      <c r="AC47">
+        <v>1</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI47">
+        <v>1</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AS47">
+        <v>1</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX47">
+        <v>14</v>
+      </c>
+      <c r="AY47">
+        <v>78</v>
+      </c>
+      <c r="AZ47">
+        <v>30</v>
+      </c>
+      <c r="BA47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>393</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" t="s">
+        <v>84</v>
+      </c>
+      <c r="J48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>68</v>
+      </c>
+      <c r="O48" t="s">
+        <v>142</v>
+      </c>
+      <c r="R48" t="s">
+        <v>63</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48" t="s">
+        <v>72</v>
+      </c>
+      <c r="W48" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AC48">
+        <v>1</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI48">
+        <v>1</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ48">
+        <v>1</v>
+      </c>
+      <c r="AS48">
+        <v>1</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX48">
+        <v>9</v>
+      </c>
+      <c r="AY48">
+        <v>49</v>
+      </c>
+      <c r="AZ48">
+        <v>30</v>
+      </c>
+      <c r="BA48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>394</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" t="s">
+        <v>84</v>
+      </c>
+      <c r="J49" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>68</v>
+      </c>
+      <c r="O49" t="s">
+        <v>69</v>
+      </c>
+      <c r="P49" t="s">
+        <v>91</v>
+      </c>
+      <c r="R49" t="s">
+        <v>63</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AC49">
+        <v>1</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI49">
+        <v>1</v>
+      </c>
+      <c r="AK49">
+        <v>3</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ49">
+        <v>1</v>
+      </c>
+      <c r="AR49">
+        <v>2</v>
+      </c>
+      <c r="AS49">
+        <v>1</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>173</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>175</v>
+      </c>
+      <c r="AX49">
+        <v>14</v>
+      </c>
+      <c r="AY49">
+        <v>67</v>
+      </c>
+      <c r="AZ49">
+        <v>30</v>
+      </c>
+      <c r="BA49">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -27891,18 +30525,18 @@
       </c>
       <c r="S2" s="9">
         <f>MIN(Table41[turns])</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U2">
         <v>30000</v>
       </c>
       <c r="V2" s="10">
         <f>Table641[[#This Row],[Think Time]]*$S$5/1000/60</f>
-        <v>31.567567567567568</v>
+        <v>30.71875</v>
       </c>
       <c r="W2" s="10">
         <f>Table641[[#This Row],[Estimated Battle Time (mins)]]*COUNTA(Таблица26[hero-1])/60</f>
-        <v>147.3153153153153</v>
+        <v>143.35416666666666</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27962,11 +30596,11 @@
       </c>
       <c r="V3" s="10">
         <f>Table641[[#This Row],[Think Time]]*$S$5/1000/60</f>
-        <v>63.135135135135137</v>
+        <v>61.4375</v>
       </c>
       <c r="W3" s="10">
         <f>Table641[[#This Row],[Estimated Battle Time (mins)]]*COUNTA(Таблица26[hero-1])/60</f>
-        <v>294.63063063063061</v>
+        <v>286.70833333333331</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28026,18 +30660,18 @@
       </c>
       <c r="S4" s="7">
         <f>AVERAGE(Table41[crystals])</f>
-        <v>11.297297297297296</v>
+        <v>11.0625</v>
       </c>
       <c r="U4">
         <v>120000</v>
       </c>
       <c r="V4" s="10">
         <f>Table641[[#This Row],[Think Time]]*$S$5/1000/60</f>
-        <v>126.27027027027027</v>
+        <v>122.875</v>
       </c>
       <c r="W4" s="10">
         <f>Table641[[#This Row],[Estimated Battle Time (mins)]]*COUNTA(Таблица26[hero-1])/60</f>
-        <v>589.26126126126121</v>
+        <v>573.41666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28097,18 +30731,18 @@
       </c>
       <c r="S5" s="9">
         <f>AVERAGE(Table41[turns])</f>
-        <v>63.135135135135137</v>
+        <v>61.4375</v>
       </c>
       <c r="U5">
         <v>300000</v>
       </c>
       <c r="V5" s="10">
         <f>Table641[[#This Row],[Think Time]]*$S$5/1000/60</f>
-        <v>315.67567567567573</v>
+        <v>307.1875</v>
       </c>
       <c r="W5" s="10">
         <f>Table641[[#This Row],[Estimated Battle Time (mins)]]*COUNTA(Таблица26[hero-1])/60</f>
-        <v>1473.1531531531534</v>
+        <v>1433.5416666666667</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28153,26 +30787,26 @@
       </c>
       <c r="N6" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O6" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[team-1-win],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[team-2-win],"1")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P6" s="3">
         <f>IF(Table340[[#This Row],[battles]],Table340[[#This Row],[wins]]/Table340[[#This Row],[battles]],0)</f>
-        <v>0.5714285714285714</v>
+        <v>0.7</v>
       </c>
       <c r="U6">
         <v>600000</v>
       </c>
       <c r="V6" s="10">
         <f>Table641[[#This Row],[Think Time]]*$S$5/1000/60</f>
-        <v>631.35135135135147</v>
+        <v>614.375</v>
       </c>
       <c r="W6" s="10">
         <f>Table641[[#This Row],[Estimated Battle Time (mins)]]*COUNTA(Таблица26[hero-1])/60</f>
-        <v>2946.3063063063069</v>
+        <v>2867.0833333333335</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28217,15 +30851,15 @@
       </c>
       <c r="N7" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O7" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[team-1-win],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[team-2-win],"1")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P7" s="3">
         <f>IF(Table340[[#This Row],[battles]],Table340[[#This Row],[wins]]/Table340[[#This Row],[battles]],0)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>254</v>
@@ -29927,7 +32561,7 @@
       </c>
       <c r="N39" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O39" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[team-1-win],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[team-2-win],"1")</f>
@@ -29935,7 +32569,7 @@
       </c>
       <c r="P39" s="3">
         <f>IF(Table340[[#This Row],[battles]],Table340[[#This Row],[wins]]/Table340[[#This Row],[battles]],0)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -29950,7 +32584,7 @@
       </c>
       <c r="D40" s="20">
         <f>COUNTIFS(Table41[winner1],Таблица26[[#This Row],[hero-1]],Table41[winner2],Таблица26[[#This Row],[hero-2]],Table41[winner3],Таблица26[[#This Row],[hero-3]],Table41[loser1],Таблица26[[#This Row],[hero-4]],Table41[loser2],Таблица26[[#This Row],[hero-5]],Table41[loser3],Таблица26[[#This Row],[hero-6]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
         <v>33</v>
@@ -29967,7 +32601,7 @@
       </c>
       <c r="I40" s="20">
         <f>Таблица26[[#This Row],[team-1-win]]+Таблица26[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="s">
         <v>48</v>
@@ -29980,7 +32614,7 @@
       </c>
       <c r="N40" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O40" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[team-1-win],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[team-2-win],"1")</f>
@@ -29988,7 +32622,7 @@
       </c>
       <c r="P40" s="3">
         <f>IF(Table340[[#This Row],[battles]],Table340[[#This Row],[wins]]/Table340[[#This Row],[battles]],0)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -30003,7 +32637,7 @@
       </c>
       <c r="D41" s="20">
         <f>COUNTIFS(Table41[winner1],Таблица26[[#This Row],[hero-1]],Table41[winner2],Таблица26[[#This Row],[hero-2]],Table41[winner3],Таблица26[[#This Row],[hero-3]],Table41[loser1],Таблица26[[#This Row],[hero-4]],Table41[loser2],Таблица26[[#This Row],[hero-5]],Table41[loser3],Таблица26[[#This Row],[hero-6]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>33</v>
@@ -30020,7 +32654,7 @@
       </c>
       <c r="I41" s="20">
         <f>Таблица26[[#This Row],[team-1-win]]+Таблица26[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="s">
         <v>48</v>
@@ -30056,7 +32690,7 @@
       </c>
       <c r="D42" s="20">
         <f>COUNTIFS(Table41[winner1],Таблица26[[#This Row],[hero-1]],Table41[winner2],Таблица26[[#This Row],[hero-2]],Table41[winner3],Таблица26[[#This Row],[hero-3]],Table41[loser1],Таблица26[[#This Row],[hero-4]],Table41[loser2],Таблица26[[#This Row],[hero-5]],Table41[loser3],Таблица26[[#This Row],[hero-6]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>43</v>
@@ -30073,7 +32707,7 @@
       </c>
       <c r="I42" s="20">
         <f>Таблица26[[#This Row],[team-1-win]]+Таблица26[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
         <v>48</v>
@@ -30086,7 +32720,7 @@
       </c>
       <c r="N42" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O42" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[team-1-win],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[team-2-win],"1")</f>
@@ -30094,7 +32728,7 @@
       </c>
       <c r="P42" s="3">
         <f>IF(Table340[[#This Row],[battles]],Table340[[#This Row],[wins]]/Table340[[#This Row],[battles]],0)</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -30109,7 +32743,7 @@
       </c>
       <c r="D43" s="20">
         <f>COUNTIFS(Table41[winner1],Таблица26[[#This Row],[hero-1]],Table41[winner2],Таблица26[[#This Row],[hero-2]],Table41[winner3],Таблица26[[#This Row],[hero-3]],Table41[loser1],Таблица26[[#This Row],[hero-4]],Table41[loser2],Таблица26[[#This Row],[hero-5]],Table41[loser3],Таблица26[[#This Row],[hero-6]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>48</v>
@@ -30126,7 +32760,7 @@
       </c>
       <c r="I43" s="20">
         <f>Таблица26[[#This Row],[team-1-win]]+Таблица26[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="s">
         <v>48</v>
@@ -30139,7 +32773,7 @@
       </c>
       <c r="N43" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O43" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[team-1-win],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[team-2-win],"1")</f>
@@ -30162,7 +32796,7 @@
       </c>
       <c r="D44" s="20">
         <f>COUNTIFS(Table41[winner1],Таблица26[[#This Row],[hero-1]],Table41[winner2],Таблица26[[#This Row],[hero-2]],Table41[winner3],Таблица26[[#This Row],[hero-3]],Table41[loser1],Таблица26[[#This Row],[hero-4]],Table41[loser2],Таблица26[[#This Row],[hero-5]],Table41[loser3],Таблица26[[#This Row],[hero-6]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>48</v>
@@ -30179,7 +32813,7 @@
       </c>
       <c r="I44" s="20">
         <f>Таблица26[[#This Row],[team-1-win]]+Таблица26[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>48</v>
@@ -30215,7 +32849,7 @@
       </c>
       <c r="D45" s="20">
         <f>COUNTIFS(Table41[winner1],Таблица26[[#This Row],[hero-1]],Table41[winner2],Таблица26[[#This Row],[hero-2]],Table41[winner3],Таблица26[[#This Row],[hero-3]],Table41[loser1],Таблица26[[#This Row],[hero-4]],Table41[loser2],Таблица26[[#This Row],[hero-5]],Table41[loser3],Таблица26[[#This Row],[hero-6]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>48</v>
@@ -30232,7 +32866,7 @@
       </c>
       <c r="I45" s="20">
         <f>Таблица26[[#This Row],[team-1-win]]+Таблица26[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="s">
         <v>48</v>
@@ -30245,15 +32879,15 @@
       </c>
       <c r="N45" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O45" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[team-1-win],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[team-2-win],"1")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="3">
         <f>IF(Table340[[#This Row],[battles]],Table340[[#This Row],[wins]]/Table340[[#This Row],[battles]],0)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -30268,7 +32902,7 @@
       </c>
       <c r="D46" s="20">
         <f>COUNTIFS(Table41[winner1],Таблица26[[#This Row],[hero-1]],Table41[winner2],Таблица26[[#This Row],[hero-2]],Table41[winner3],Таблица26[[#This Row],[hero-3]],Table41[loser1],Таблица26[[#This Row],[hero-4]],Table41[loser2],Таблица26[[#This Row],[hero-5]],Table41[loser3],Таблица26[[#This Row],[hero-6]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>48</v>
@@ -30285,7 +32919,7 @@
       </c>
       <c r="I46" s="20">
         <f>Таблица26[[#This Row],[team-1-win]]+Таблица26[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="s">
         <v>48</v>
@@ -30334,11 +32968,11 @@
       </c>
       <c r="H47" s="20">
         <f>COUNTIFS(Table41[winner1],Таблица26[[#This Row],[hero-4]],Table41[winner2],Таблица26[[#This Row],[hero-5]],Table41[winner3],Таблица26[[#This Row],[hero-6]],Table41[loser1],Таблица26[[#This Row],[hero-1]],Table41[loser2],Таблица26[[#This Row],[hero-2]],Table41[loser3],Таблица26[[#This Row],[hero-3]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="20">
         <f>Таблица26[[#This Row],[team-1-win]]+Таблица26[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="s">
         <v>48</v>
@@ -30351,15 +32985,15 @@
       </c>
       <c r="N47" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O47" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[team-1-win],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[team-2-win],"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P47" s="3">
         <f>IF(Table340[[#This Row],[battles]],Table340[[#This Row],[wins]]/Table340[[#This Row],[battles]],0)</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -30387,11 +33021,11 @@
       </c>
       <c r="H48" s="20">
         <f>COUNTIFS(Table41[winner1],Таблица26[[#This Row],[hero-4]],Table41[winner2],Таблица26[[#This Row],[hero-5]],Table41[winner3],Таблица26[[#This Row],[hero-6]],Table41[loser1],Таблица26[[#This Row],[hero-1]],Table41[loser2],Таблица26[[#This Row],[hero-2]],Table41[loser3],Таблица26[[#This Row],[hero-3]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="20">
         <f>Таблица26[[#This Row],[team-1-win]]+Таблица26[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="s">
         <v>48</v>
@@ -30427,7 +33061,7 @@
       </c>
       <c r="D49" s="20">
         <f>COUNTIFS(Table41[winner1],Таблица26[[#This Row],[hero-1]],Table41[winner2],Таблица26[[#This Row],[hero-2]],Table41[winner3],Таблица26[[#This Row],[hero-3]],Table41[loser1],Таблица26[[#This Row],[hero-4]],Table41[loser2],Таблица26[[#This Row],[hero-5]],Table41[loser3],Таблица26[[#This Row],[hero-6]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>33</v>
@@ -30444,7 +33078,7 @@
       </c>
       <c r="I49" s="20">
         <f>Таблица26[[#This Row],[team-1-win]]+Таблица26[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="s">
         <v>33</v>
@@ -30457,7 +33091,7 @@
       </c>
       <c r="N49" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O49" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[team-1-win],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[team-2-win],"1")</f>
@@ -30480,7 +33114,7 @@
       </c>
       <c r="D50" s="20">
         <f>COUNTIFS(Table41[winner1],Таблица26[[#This Row],[hero-1]],Table41[winner2],Таблица26[[#This Row],[hero-2]],Table41[winner3],Таблица26[[#This Row],[hero-3]],Table41[loser1],Таблица26[[#This Row],[hero-4]],Table41[loser2],Таблица26[[#This Row],[hero-5]],Table41[loser3],Таблица26[[#This Row],[hero-6]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
         <v>33</v>
@@ -30497,7 +33131,7 @@
       </c>
       <c r="I50" s="20">
         <f>Таблица26[[#This Row],[team-1-win]]+Таблица26[[#This Row],[team-2-win]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="s">
         <v>33</v>
@@ -30563,7 +33197,7 @@
       </c>
       <c r="N51" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O51" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[team-1-win],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[team-2-win],"1")</f>
@@ -30722,7 +33356,7 @@
       </c>
       <c r="N54" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O54" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[team-1-win],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[team-2-win],"1")</f>
@@ -30881,7 +33515,7 @@
       </c>
       <c r="N57" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[battles],"1")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O57" s="20">
         <f>COUNTIFS(Таблица26[hero-1],Table340[[#This Row],[hero-1]],Таблица26[hero-2],Table340[[#This Row],[hero-2]],Таблица26[hero-3],Table340[[#This Row],[hero-3]],Таблица26[team-1-win],"1")+COUNTIFS(Таблица26[hero-4],Table340[[#This Row],[hero-1]],Таблица26[hero-5],Table340[[#This Row],[hero-2]],Таблица26[hero-6],Table340[[#This Row],[hero-3]],Таблица26[team-2-win],"1")</f>
@@ -30889,7 +33523,7 @@
       </c>
       <c r="P57" s="3">
         <f>IF(Table340[[#This Row],[battles]],Table340[[#This Row],[wins]]/Table340[[#This Row],[battles]],0)</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -38143,8 +40777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DF885E-AA77-4085-866A-0C5D013A86CB}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38180,15 +40814,15 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Таблица1[winner1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[winner2],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[loser1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[loser2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner1],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner3],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser1],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser2],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser3],Table4[[#This Row],[hero]])</f>
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2">
         <f>COUNTIF(Таблица1[winner1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner1],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner3],Table4[[#This Row],[hero]])</f>
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3">
         <f>Table4[[#This Row],[wins]]/Table4[[#This Row],[battles]]</f>
-        <v>0.71126760563380287</v>
+        <v>0.71895424836601307</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -38197,15 +40831,15 @@
       </c>
       <c r="B3">
         <f>COUNTIF(Таблица1[winner1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[winner2],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[loser1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[loser2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner1],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner3],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser1],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser2],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser3],Table4[[#This Row],[hero]])</f>
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C3">
         <f>COUNTIF(Таблица1[winner1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner1],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner3],Table4[[#This Row],[hero]])</f>
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D3" s="3">
         <f>Table4[[#This Row],[wins]]/Table4[[#This Row],[battles]]</f>
-        <v>0.54867256637168138</v>
+        <v>0.54285714285714282</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -38214,11 +40848,11 @@
       </c>
       <c r="B4">
         <f>COUNTIF(Таблица1[winner1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[winner2],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[loser1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[loser2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner1],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner3],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser1],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser2],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser3],Table4[[#This Row],[hero]])</f>
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C4">
         <f>COUNTIF(Таблица1[winner1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner1],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner3],Table4[[#This Row],[hero]])</f>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3">
         <f>Table4[[#This Row],[wins]]/Table4[[#This Row],[battles]]</f>
@@ -38231,15 +40865,15 @@
       </c>
       <c r="B5">
         <f>COUNTIF(Таблица1[winner1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[winner2],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[loser1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[loser2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner1],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner3],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser1],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser2],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser3],Table4[[#This Row],[hero]])</f>
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C5">
         <f>COUNTIF(Таблица1[winner1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner1],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner3],Table4[[#This Row],[hero]])</f>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3">
         <f>Table4[[#This Row],[wins]]/Table4[[#This Row],[battles]]</f>
-        <v>0.46666666666666667</v>
+        <v>0.47115384615384615</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -38248,15 +40882,15 @@
       </c>
       <c r="B6">
         <f>COUNTIF(Таблица1[winner1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[winner2],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[loser1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[loser2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner1],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner3],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser1],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser2],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser3],Table4[[#This Row],[hero]])</f>
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C6">
         <f>COUNTIF(Таблица1[winner1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner1],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner3],Table4[[#This Row],[hero]])</f>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3">
         <f>Table4[[#This Row],[wins]]/Table4[[#This Row],[battles]]</f>
-        <v>0.42696629213483145</v>
+        <v>0.42156862745098039</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -38265,15 +40899,15 @@
       </c>
       <c r="B7">
         <f>COUNTIF(Таблица1[winner1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[winner2],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[loser1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[loser2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner1],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner3],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser1],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser2],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser3],Table4[[#This Row],[hero]])</f>
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C7">
         <f>COUNTIF(Таблица1[winner1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner1],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner3],Table4[[#This Row],[hero]])</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3">
         <f>Table4[[#This Row],[wins]]/Table4[[#This Row],[battles]]</f>
-        <v>0.37804878048780488</v>
+        <v>0.37623762376237624</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -38282,15 +40916,15 @@
       </c>
       <c r="B8">
         <f>COUNTIF(Таблица1[winner1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[winner2],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[loser1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[loser2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner1],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner3],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser1],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser2],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser3],Table4[[#This Row],[hero]])</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <f>COUNTIF(Таблица1[winner1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner1],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner3],Table4[[#This Row],[hero]])</f>
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3">
         <f>Table4[[#This Row],[wins]]/Table4[[#This Row],[battles]]</f>
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -38299,15 +40933,15 @@
       </c>
       <c r="B9">
         <f>COUNTIF(Таблица1[winner1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[winner2],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[loser1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[loser2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner1],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner3],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser1],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser2],Table4[[#This Row],[hero]])+COUNTIF(Table41[loser3],Table4[[#This Row],[hero]])</f>
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <f>COUNTIF(Таблица1[winner1],Table4[[#This Row],[hero]])+COUNTIF(Таблица1[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner1],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner2],Table4[[#This Row],[hero]])+COUNTIF(Table41[winner3],Table4[[#This Row],[hero]])</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3">
         <f>Table4[[#This Row],[wins]]/Table4[[#This Row],[battles]]</f>
-        <v>0.53164556962025311</v>
+        <v>0.52747252747252749</v>
       </c>
     </row>
   </sheetData>
@@ -38332,8 +40966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BB0B43-A2BB-4CF9-9C6C-55527BC15CFA}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38384,11 +41018,11 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Таблица1[winner1-ability1],Table7[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table7[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table7[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table7[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table7[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table7[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table7[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table7[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table7[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table7[[#This Row],[ability]])</f>
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2">
         <f>COUNTIF(Таблица1[winner1-ability1],Table7[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table7[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table7[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table7[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table7[[#This Row],[ability]])</f>
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3">
         <f>IF(SUM(Table7[[#This Row],[takes]]) &gt; 0,Table7[[#This Row],[takes]]/SUM(Table7[takes]),0)</f>
@@ -38396,22 +41030,22 @@
       </c>
       <c r="E2" s="3">
         <f>IF(Table7[[#This Row],[takes]]&gt;0,Table7[[#This Row],[wins]]/Table7[[#This Row],[takes]],0)</f>
-        <v>0.71126760563380287</v>
+        <v>0.71895424836601307</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
         <f>COUNTIFS(Таблица1[winner1],"paragon",Таблица1[winner1-pw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"paragon",Таблица1[winner2-pw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"paragon",Таблица1[loser1-pw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"paragon",Таблица1[loser2-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner1],"paragon",Table41[winner1-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner2],"paragon",Table41[winner2-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner3],"paragon",Table41[winner3-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser1],"paragon",Table41[loser1-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser2],"paragon",Table41[loser2-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser3],"paragon",Table41[loser3-pw],Table42[[#This Row],[level]])</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <f>COUNTIFS(Таблица1[winner1],"paragon",Таблица1[winner1-sw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"paragon",Таблица1[winner2-sw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"paragon",Таблица1[loser1-sw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"paragon",Таблица1[loser2-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner1],"paragon",Table41[winner1-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner2],"paragon",Table41[winner2-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner3],"paragon",Table41[winner3-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser1],"paragon",Table41[loser1-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser2],"paragon",Table41[loser2-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser3],"paragon",Table41[loser3-sw],Table42[[#This Row],[level]])</f>
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="J2">
         <f>COUNTIFS(Таблица1[winner1],"paragon",Таблица1[winner1-cp],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"paragon",Таблица1[winner2-cp],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"paragon",Таблица1[loser1-cp],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"paragon",Таблица1[loser2-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner1],"paragon",Table41[winner1-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner2],"paragon",Table41[winner2-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner3],"paragon",Table41[winner3-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser1],"paragon",Table41[loser1-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser2],"paragon",Table41[loser2-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser3],"paragon",Table41[loser3-cp],Table42[[#This Row],[level]])</f>
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -38439,15 +41073,15 @@
       </c>
       <c r="H3">
         <f>COUNTIFS(Таблица1[winner1],"paragon",Таблица1[winner1-pw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"paragon",Таблица1[winner2-pw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"paragon",Таблица1[loser1-pw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"paragon",Таблица1[loser2-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner1],"paragon",Table41[winner1-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner2],"paragon",Table41[winner2-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner3],"paragon",Table41[winner3-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser1],"paragon",Table41[loser1-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser2],"paragon",Table41[loser2-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser3],"paragon",Table41[loser3-pw],Table42[[#This Row],[level]])</f>
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <f>COUNTIFS(Таблица1[winner1],"paragon",Таблица1[winner1-sw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"paragon",Таблица1[winner2-sw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"paragon",Таблица1[loser1-sw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"paragon",Таблица1[loser2-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner1],"paragon",Table41[winner1-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner2],"paragon",Table41[winner2-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner3],"paragon",Table41[winner3-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser1],"paragon",Table41[loser1-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser2],"paragon",Table41[loser2-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser3],"paragon",Table41[loser3-sw],Table42[[#This Row],[level]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3">
         <f>COUNTIFS(Таблица1[winner1],"paragon",Таблица1[winner1-cp],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"paragon",Таблица1[winner2-cp],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"paragon",Таблица1[loser1-cp],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"paragon",Таблица1[loser2-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner1],"paragon",Table41[winner1-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner2],"paragon",Table41[winner2-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner3],"paragon",Table41[winner3-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser1],"paragon",Table41[loser1-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser2],"paragon",Table41[loser2-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser3],"paragon",Table41[loser3-cp],Table42[[#This Row],[level]])</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -38475,7 +41109,7 @@
       </c>
       <c r="H4">
         <f>COUNTIFS(Таблица1[winner1],"paragon",Таблица1[winner1-pw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"paragon",Таблица1[winner2-pw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"paragon",Таблица1[loser1-pw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"paragon",Таблица1[loser2-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner1],"paragon",Table41[winner1-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner2],"paragon",Table41[winner2-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner3],"paragon",Table41[winner3-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser1],"paragon",Table41[loser1-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser2],"paragon",Table41[loser2-pw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser3],"paragon",Table41[loser3-pw],Table42[[#This Row],[level]])</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I4">
         <f>COUNTIFS(Таблица1[winner1],"paragon",Таблица1[winner1-sw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"paragon",Таблица1[winner2-sw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"paragon",Таблица1[loser1-sw],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"paragon",Таблица1[loser2-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner1],"paragon",Table41[winner1-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner2],"paragon",Table41[winner2-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner3],"paragon",Table41[winner3-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser1],"paragon",Table41[loser1-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser2],"paragon",Table41[loser2-sw],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser3],"paragon",Table41[loser3-sw],Table42[[#This Row],[level]])</f>
@@ -38483,7 +41117,7 @@
       </c>
       <c r="J4">
         <f>COUNTIFS(Таблица1[winner1],"paragon",Таблица1[winner1-cp],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"paragon",Таблица1[winner2-cp],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"paragon",Таблица1[loser1-cp],Table42[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"paragon",Таблица1[loser2-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner1],"paragon",Table41[winner1-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner2],"paragon",Table41[winner2-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[winner3],"paragon",Table41[winner3-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser1],"paragon",Table41[loser1-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser2],"paragon",Table41[loser2-cp],Table42[[#This Row],[level]])+COUNTIFS(Table41[loser3],"paragon",Table41[loser3-cp],Table42[[#This Row],[level]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -38509,19 +41143,19 @@
       </c>
       <c r="B7" s="2">
         <f>COUNTIF(Таблица1[winner1-ability2],Table8[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table8[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table8[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table8[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table8[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table8[[#This Row],[ability]])</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
         <f>COUNTIF(Таблица1[winner1-ability2],Table8[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8[[#This Row],[ability]])</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="16">
         <f>IF(SUM(Table8[[#This Row],[takes]]) &gt; 0,Table8[[#This Row],[takes]]/SUM(Table8[takes]),0)</f>
-        <v>0.3258426966292135</v>
+        <v>0.30612244897959184</v>
       </c>
       <c r="E7" s="16">
         <f>IF(Table8[[#This Row],[takes]]&gt;0,Table8[[#This Row],[wins]]/Table8[[#This Row],[takes]],0)</f>
-        <v>0.86206896551724133</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -38530,19 +41164,19 @@
       </c>
       <c r="B8">
         <f>COUNTIF(Таблица1[winner1-ability2],Table8[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table8[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table8[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table8[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table8[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table8[[#This Row],[ability]])</f>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <f>COUNTIF(Таблица1[winner1-ability2],Table8[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8[[#This Row],[ability]])</f>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3">
         <f>IF(SUM(Table8[[#This Row],[takes]]) &gt; 0,Table8[[#This Row],[takes]]/SUM(Table8[takes]),0)</f>
-        <v>0.6292134831460674</v>
+        <v>0.65306122448979587</v>
       </c>
       <c r="E8" s="3">
         <f>IF(Table8[[#This Row],[takes]]&gt;0,Table8[[#This Row],[wins]]/Table8[[#This Row],[takes]],0)</f>
-        <v>0.7142857142857143</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -38559,7 +41193,7 @@
       </c>
       <c r="D9" s="17">
         <f>IF(SUM(Table8[[#This Row],[takes]]) &gt; 0,Table8[[#This Row],[takes]]/SUM(Table8[takes]),0)</f>
-        <v>4.49438202247191E-2</v>
+        <v>4.0816326530612242E-2</v>
       </c>
       <c r="E9" s="17">
         <f>IF(Table8[[#This Row],[takes]]&gt;0,Table8[[#This Row],[wins]]/Table8[[#This Row],[takes]],0)</f>
@@ -38597,7 +41231,7 @@
       </c>
       <c r="D12" s="18">
         <f>IF(SUM(Table9[[#This Row],[takes]]) &gt; 0,Table9[[#This Row],[takes]]/SUM(Table9[takes]),0)</f>
-        <v>0.44444444444444442</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="18">
         <f>IF(Table9[[#This Row],[takes]]&gt;0,Table9[[#This Row],[wins]]/Table9[[#This Row],[takes]],0)</f>
@@ -38610,19 +41244,19 @@
       </c>
       <c r="B13" s="2">
         <f>COUNTIF(Таблица1[winner1-ability3],Table9[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table9[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table9[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table9[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table9[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table9[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table9[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table9[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table9[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table9[[#This Row],[ability]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2">
         <f>COUNTIF(Таблица1[winner1-ability3],Table9[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table9[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table9[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table9[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table9[[#This Row],[ability]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="16">
         <f>IF(SUM(Table9[[#This Row],[takes]]) &gt; 0,Table9[[#This Row],[takes]]/SUM(Table9[takes]),0)</f>
-        <v>0.25925925925925924</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="E13" s="16">
         <f>IF(Table9[[#This Row],[takes]]&gt;0,Table9[[#This Row],[wins]]/Table9[[#This Row],[takes]],0)</f>
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -38631,19 +41265,19 @@
       </c>
       <c r="B14" s="15">
         <f>COUNTIF(Таблица1[winner1-ability3],Table9[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table9[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table9[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table9[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table9[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table9[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table9[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table9[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table9[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table9[[#This Row],[ability]])</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14" s="15">
         <f>COUNTIF(Таблица1[winner1-ability3],Table9[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table9[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table9[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table9[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table9[[#This Row],[ability]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="19">
         <f>IF(SUM(Table9[[#This Row],[takes]]) &gt; 0,Table9[[#This Row],[takes]]/SUM(Table9[takes]),0)</f>
-        <v>0.29629629629629628</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E14" s="19">
         <f>IF(Table9[[#This Row],[takes]]&gt;0,Table9[[#This Row],[wins]]/Table9[[#This Row],[takes]],0)</f>
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -38669,15 +41303,15 @@
       </c>
       <c r="B17" s="2">
         <f>COUNTIF(Таблица1[winner1-ability4],Table10[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table10[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability4],Table10[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability4],Table10[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table10[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table10[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table10[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability4],Table10[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability4],Table10[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability4],Table10[[#This Row],[ability]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2">
         <f>COUNTIF(Таблица1[winner1-ability4],Table10[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table10[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table10[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table10[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table10[[#This Row],[ability]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" s="16">
         <f>IF(SUM(Table10[[#This Row],[takes]]) &gt; 0,Table10[[#This Row],[takes]]/SUM(Table10[takes]),0)</f>
-        <v>0.77777777777777779</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="E17" s="16">
         <f>IF(Table10[[#This Row],[takes]]&gt;0,Table10[[#This Row],[wins]]/Table10[[#This Row],[takes]],0)</f>
@@ -38719,7 +41353,7 @@
       </c>
       <c r="D19" s="17">
         <f>IF(SUM(Table10[[#This Row],[takes]]) &gt; 0,Table10[[#This Row],[takes]]/SUM(Table10[takes]),0)</f>
-        <v>0.22222222222222221</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="E19" s="17">
         <f>IF(Table10[[#This Row],[takes]]&gt;0,Table10[[#This Row],[wins]]/Table10[[#This Row],[takes]],0)</f>
@@ -38790,30 +41424,30 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Таблица1[winner1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table712[[#This Row],[ability]])</f>
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C2">
         <f>COUNTIF(Таблица1[winner1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table712[[#This Row],[ability]])</f>
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D2" s="3">
         <f>IF(SUM(Table712[[#This Row],[takes]]) &gt; 0,Table712[[#This Row],[takes]]/SUM(Table712[takes]),0)</f>
-        <v>0.87610619469026552</v>
+        <v>0.87857142857142856</v>
       </c>
       <c r="E2" s="3">
         <f>IF(Table712[[#This Row],[takes]]&gt;0,Table712[[#This Row],[wins]]/Table712[[#This Row],[takes]],0)</f>
-        <v>0.54545454545454541</v>
+        <v>0.54471544715447151</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
         <f>COUNTIFS(Таблица1[winner1],"highlander",Таблица1[winner1-pw],Table4244[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"highlander",Таблица1[winner2-pw],Table4244[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"highlander",Таблица1[loser1-pw],Table4244[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"highlander",Таблица1[loser2-pw],Table4244[[#This Row],[level]])+COUNTIFS(Table41[winner1],"highlander",Table41[winner1-pw],Table4244[[#This Row],[level]])+COUNTIFS(Table41[winner2],"highlander",Table41[winner2-pw],Table4244[[#This Row],[level]])+COUNTIFS(Table41[winner3],"highlander",Table41[winner3-pw],Table4244[[#This Row],[level]])+COUNTIFS(Table41[loser1],"highlander",Table41[loser1-pw],Table4244[[#This Row],[level]])+COUNTIFS(Table41[loser2],"highlander",Table41[loser2-pw],Table4244[[#This Row],[level]])+COUNTIFS(Table41[loser3],"highlander",Table41[loser3-pw],Table4244[[#This Row],[level]])</f>
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="I2">
         <f>COUNTIFS(Таблица1[winner1],"highlander",Таблица1[winner1-cp],Table4244[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"highlander",Таблица1[winner2-cp],Table4244[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"highlander",Таблица1[loser1-cp],Table4244[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"highlander",Таблица1[loser2-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[winner1],"highlander",Table41[winner1-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[winner2],"highlander",Table41[winner2-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[winner3],"highlander",Table41[winner3-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[loser1],"highlander",Table41[loser1-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[loser2],"highlander",Table41[loser2-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[loser3],"highlander",Table41[loser3-cp],Table4244[[#This Row],[level]])</f>
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -38822,15 +41456,15 @@
       </c>
       <c r="B3">
         <f>COUNTIF(Таблица1[winner1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table712[[#This Row],[ability]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <f>COUNTIF(Таблица1[winner1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table712[[#This Row],[ability]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3">
         <f>IF(SUM(Table712[[#This Row],[takes]]) &gt; 0,Table712[[#This Row],[takes]]/SUM(Table712[takes]),0)</f>
-        <v>8.8495575221238937E-2</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="E3" s="3">
         <f>IF(Table712[[#This Row],[takes]]&gt;0,Table712[[#This Row],[wins]]/Table712[[#This Row],[takes]],0)</f>
@@ -38845,7 +41479,7 @@
       </c>
       <c r="I3">
         <f>COUNTIFS(Таблица1[winner1],"highlander",Таблица1[winner1-cp],Table4244[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"highlander",Таблица1[winner2-cp],Table4244[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"highlander",Таблица1[loser1-cp],Table4244[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"highlander",Таблица1[loser2-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[winner1],"highlander",Table41[winner1-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[winner2],"highlander",Table41[winner2-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[winner3],"highlander",Table41[winner3-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[loser1],"highlander",Table41[loser1-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[loser2],"highlander",Table41[loser2-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[loser3],"highlander",Table41[loser3-cp],Table4244[[#This Row],[level]])</f>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -38854,7 +41488,7 @@
       </c>
       <c r="B4">
         <f>COUNTIF(Таблица1[winner1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table712[[#This Row],[ability]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <f>COUNTIF(Таблица1[winner1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table712[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table712[[#This Row],[ability]])</f>
@@ -38862,11 +41496,11 @@
       </c>
       <c r="D4" s="3">
         <f>IF(SUM(Table712[[#This Row],[takes]]) &gt; 0,Table712[[#This Row],[takes]]/SUM(Table712[takes]),0)</f>
-        <v>3.5398230088495575E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="E4" s="3">
         <f>IF(Table712[[#This Row],[takes]]&gt;0,Table712[[#This Row],[wins]]/Table712[[#This Row],[takes]],0)</f>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -38877,7 +41511,7 @@
       </c>
       <c r="I4">
         <f>COUNTIFS(Таблица1[winner1],"highlander",Таблица1[winner1-cp],Table4244[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"highlander",Таблица1[winner2-cp],Table4244[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"highlander",Таблица1[loser1-cp],Table4244[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"highlander",Таблица1[loser2-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[winner1],"highlander",Table41[winner1-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[winner2],"highlander",Table41[winner2-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[winner3],"highlander",Table41[winner3-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[loser1],"highlander",Table41[loser1-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[loser2],"highlander",Table41[loser2-cp],Table4244[[#This Row],[level]])+COUNTIFS(Table41[loser3],"highlander",Table41[loser3-cp],Table4244[[#This Row],[level]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -38903,19 +41537,19 @@
       </c>
       <c r="B7" s="2">
         <f>COUNTIF(Таблица1[winner1-ability2],Table813[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table813[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table813[[#This Row],[ability]])</f>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2">
         <f>COUNTIF(Таблица1[winner1-ability2],Table813[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813[[#This Row],[ability]])</f>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D7" s="16">
         <f>IF(SUM(Table813[[#This Row],[takes]]) &gt; 0,Table813[[#This Row],[takes]]/SUM(Table813[takes]),0)</f>
-        <v>0.86363636363636365</v>
+        <v>0.86419753086419748</v>
       </c>
       <c r="E7" s="16">
         <f>IF(Table813[[#This Row],[takes]]&gt;0,Table813[[#This Row],[wins]]/Table813[[#This Row],[takes]],0)</f>
-        <v>0.50877192982456143</v>
+        <v>0.54285714285714282</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -38924,19 +41558,19 @@
       </c>
       <c r="B8">
         <f>COUNTIF(Таблица1[winner1-ability2],Table813[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table813[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table813[[#This Row],[ability]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <f>COUNTIF(Таблица1[winner1-ability2],Table813[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table813[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table813[[#This Row],[ability]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3">
         <f>IF(SUM(Table813[[#This Row],[takes]]) &gt; 0,Table813[[#This Row],[takes]]/SUM(Table813[takes]),0)</f>
-        <v>7.575757575757576E-2</v>
+        <v>8.6419753086419748E-2</v>
       </c>
       <c r="E8" s="3">
         <f>IF(Table813[[#This Row],[takes]]&gt;0,Table813[[#This Row],[wins]]/Table813[[#This Row],[takes]],0)</f>
-        <v>0.4</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -38953,7 +41587,7 @@
       </c>
       <c r="D9" s="17">
         <f>IF(SUM(Table813[[#This Row],[takes]]) &gt; 0,Table813[[#This Row],[takes]]/SUM(Table813[takes]),0)</f>
-        <v>6.0606060606060608E-2</v>
+        <v>4.9382716049382713E-2</v>
       </c>
       <c r="E9" s="17">
         <f>IF(Table813[[#This Row],[takes]]&gt;0,Table813[[#This Row],[wins]]/Table813[[#This Row],[takes]],0)</f>
@@ -38983,19 +41617,19 @@
       </c>
       <c r="B12" s="1">
         <f>COUNTIF(Таблица1[winner1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table914[[#This Row],[ability]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
         <f>COUNTIF(Таблица1[winner1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914[[#This Row],[ability]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="18">
         <f>IF(SUM(Table914[[#This Row],[takes]]) &gt; 0,Table914[[#This Row],[takes]]/SUM(Table914[takes]),0)</f>
-        <v>0.24242424242424243</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="E12" s="18">
         <f>IF(Table914[[#This Row],[takes]]&gt;0,Table914[[#This Row],[wins]]/Table914[[#This Row],[takes]],0)</f>
-        <v>0.375</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -39004,19 +41638,19 @@
       </c>
       <c r="B13" s="2">
         <f>COUNTIF(Таблица1[winner1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table914[[#This Row],[ability]])</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <f>COUNTIF(Таблица1[winner1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914[[#This Row],[ability]])</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D13" s="16">
         <f>IF(SUM(Table914[[#This Row],[takes]]) &gt; 0,Table914[[#This Row],[takes]]/SUM(Table914[takes]),0)</f>
-        <v>0.60606060606060608</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="E13" s="16">
         <f>IF(Table914[[#This Row],[takes]]&gt;0,Table914[[#This Row],[wins]]/Table914[[#This Row],[takes]],0)</f>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -39025,7 +41659,7 @@
       </c>
       <c r="B14" s="15">
         <f>COUNTIF(Таблица1[winner1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table914[[#This Row],[ability]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="15">
         <f>COUNTIF(Таблица1[winner1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table914[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table914[[#This Row],[ability]])</f>
@@ -39033,11 +41667,11 @@
       </c>
       <c r="D14" s="19">
         <f>IF(SUM(Table914[[#This Row],[takes]]) &gt; 0,Table914[[#This Row],[takes]]/SUM(Table914[takes]),0)</f>
-        <v>0.15151515151515152</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="E14" s="19">
         <f>IF(Table914[[#This Row],[takes]]&gt;0,Table914[[#This Row],[wins]]/Table914[[#This Row],[takes]],0)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -39184,30 +41818,30 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Таблица1[winner1-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table71216[[#This Row],[ability]])</f>
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C2">
         <f>COUNTIF(Таблица1[winner1-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table71216[[#This Row],[ability]])</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3">
         <f>IF(SUM(Table71216[[#This Row],[takes]]) &gt; 0,Table71216[[#This Row],[takes]]/SUM(Table71216[takes]),0)</f>
-        <v>0.78021978021978022</v>
+        <v>0.79047619047619044</v>
       </c>
       <c r="E2" s="3">
         <f>IF(Table71216[[#This Row],[takes]]&gt;0,Table71216[[#This Row],[wins]]/Table71216[[#This Row],[takes]],0)</f>
-        <v>0.45070422535211269</v>
+        <v>0.44578313253012047</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
         <f>COUNTIFS(Таблица1[winner1],"druid",Таблица1[winner1-pw],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"druid",Таблица1[winner2-pw],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"druid",Таблица1[loser1-pw],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"druid",Таблица1[loser2-pw],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner1],"druid",Table41[winner1-pw],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner2],"druid",Table41[winner2-pw],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner3],"druid",Table41[winner3-pw],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser1],"druid",Table41[loser1-pw],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser2],"druid",Table41[loser2-pw],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser3],"druid",Table41[loser3-pw],Table424445[[#This Row],[level]])</f>
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="I2">
         <f>COUNTIFS(Таблица1[winner1],"druid",Таблица1[winner1-cp],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"druid",Таблица1[winner2-cp],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"druid",Таблица1[loser1-cp],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"druid",Таблица1[loser2-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner1],"druid",Table41[winner1-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner2],"druid",Table41[winner2-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner3],"druid",Table41[winner3-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser1],"druid",Table41[loser1-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser2],"druid",Table41[loser2-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser3],"druid",Table41[loser3-cp],Table424445[[#This Row],[level]])</f>
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -39216,30 +41850,30 @@
       </c>
       <c r="B3">
         <f>COUNTIF(Таблица1[winner1-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table71216[[#This Row],[ability]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <f>COUNTIF(Таблица1[winner1-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table71216[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table71216[[#This Row],[ability]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3">
         <f>IF(SUM(Table71216[[#This Row],[takes]]) &gt; 0,Table71216[[#This Row],[takes]]/SUM(Table71216[takes]),0)</f>
-        <v>7.6923076923076927E-2</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="E3" s="3">
         <f>IF(Table71216[[#This Row],[takes]]&gt;0,Table71216[[#This Row],[wins]]/Table71216[[#This Row],[takes]],0)</f>
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
         <f>COUNTIFS(Таблица1[winner1],"druid",Таблица1[winner1-pw],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"druid",Таблица1[winner2-pw],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"druid",Таблица1[loser1-pw],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"druid",Таблица1[loser2-pw],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner1],"druid",Table41[winner1-pw],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner2],"druid",Table41[winner2-pw],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner3],"druid",Table41[winner3-pw],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser1],"druid",Table41[loser1-pw],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser2],"druid",Table41[loser2-pw],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser3],"druid",Table41[loser3-pw],Table424445[[#This Row],[level]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <f>COUNTIFS(Таблица1[winner1],"druid",Таблица1[winner1-cp],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"druid",Таблица1[winner2-cp],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"druid",Таблица1[loser1-cp],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"druid",Таблица1[loser2-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner1],"druid",Table41[winner1-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner2],"druid",Table41[winner2-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner3],"druid",Table41[winner3-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser1],"druid",Table41[loser1-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser2],"druid",Table41[loser2-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser3],"druid",Table41[loser3-cp],Table424445[[#This Row],[level]])</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -39256,7 +41890,7 @@
       </c>
       <c r="D4" s="3">
         <f>IF(SUM(Table71216[[#This Row],[takes]]) &gt; 0,Table71216[[#This Row],[takes]]/SUM(Table71216[takes]),0)</f>
-        <v>0.14285714285714285</v>
+        <v>0.12380952380952381</v>
       </c>
       <c r="E4" s="3">
         <f>IF(Table71216[[#This Row],[takes]]&gt;0,Table71216[[#This Row],[wins]]/Table71216[[#This Row],[takes]],0)</f>
@@ -39271,7 +41905,7 @@
       </c>
       <c r="I4">
         <f>COUNTIFS(Таблица1[winner1],"druid",Таблица1[winner1-cp],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"druid",Таблица1[winner2-cp],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"druid",Таблица1[loser1-cp],Table424445[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"druid",Таблица1[loser2-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner1],"druid",Table41[winner1-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner2],"druid",Table41[winner2-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[winner3],"druid",Table41[winner3-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser1],"druid",Table41[loser1-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser2],"druid",Table41[loser2-cp],Table424445[[#This Row],[level]])+COUNTIFS(Table41[loser3],"druid",Table41[loser3-cp],Table424445[[#This Row],[level]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -39297,19 +41931,19 @@
       </c>
       <c r="B7" s="2">
         <f>COUNTIF(Таблица1[winner1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table81317[[#This Row],[ability]])</f>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2">
         <f>COUNTIF(Таблица1[winner1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table81317[[#This Row],[ability]])</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D7" s="16">
         <f>IF(SUM(Table81317[[#This Row],[takes]]) &gt; 0,Table81317[[#This Row],[takes]]/SUM(Table81317[takes]),0)</f>
-        <v>0.58823529411764708</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="E7" s="16">
         <f>IF(Table81317[[#This Row],[takes]]&gt;0,Table81317[[#This Row],[wins]]/Table81317[[#This Row],[takes]],0)</f>
-        <v>0.625</v>
+        <v>0.65957446808510634</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -39318,7 +41952,7 @@
       </c>
       <c r="B8">
         <f>COUNTIF(Таблица1[winner1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table81317[[#This Row],[ability]])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <f>COUNTIF(Таблица1[winner1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table81317[[#This Row],[ability]])</f>
@@ -39326,11 +41960,11 @@
       </c>
       <c r="D8" s="3">
         <f>IF(SUM(Table81317[[#This Row],[takes]]) &gt; 0,Table81317[[#This Row],[takes]]/SUM(Table81317[takes]),0)</f>
-        <v>0.20588235294117646</v>
+        <v>0.1875</v>
       </c>
       <c r="E8" s="3">
         <f>IF(Table81317[[#This Row],[takes]]&gt;0,Table81317[[#This Row],[wins]]/Table81317[[#This Row],[takes]],0)</f>
-        <v>0.35714285714285715</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -39339,7 +41973,7 @@
       </c>
       <c r="B9" s="14">
         <f>COUNTIF(Таблица1[winner1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table81317[[#This Row],[ability]])</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9" s="14">
         <f>COUNTIF(Таблица1[winner1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table81317[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table81317[[#This Row],[ability]])</f>
@@ -39347,11 +41981,11 @@
       </c>
       <c r="D9" s="17">
         <f>IF(SUM(Table81317[[#This Row],[takes]]) &gt; 0,Table81317[[#This Row],[takes]]/SUM(Table81317[takes]),0)</f>
-        <v>0.20588235294117646</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="E9" s="17">
         <f>IF(Table81317[[#This Row],[takes]]&gt;0,Table81317[[#This Row],[wins]]/Table81317[[#This Row],[takes]],0)</f>
-        <v>0.35714285714285715</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -39377,19 +42011,19 @@
       </c>
       <c r="B12" s="1">
         <f>COUNTIF(Таблица1[winner1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table91418[[#This Row],[ability]])</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1">
         <f>COUNTIF(Таблица1[winner1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table91418[[#This Row],[ability]])</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="18">
         <f>IF(SUM(Table91418[[#This Row],[takes]]) &gt; 0,Table91418[[#This Row],[takes]]/SUM(Table91418[takes]),0)</f>
-        <v>0.58536585365853655</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E12" s="18">
         <f>IF(Table91418[[#This Row],[takes]]&gt;0,Table91418[[#This Row],[wins]]/Table91418[[#This Row],[takes]],0)</f>
-        <v>0.66666666666666663</v>
+        <v>0.65384615384615385</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -39398,19 +42032,19 @@
       </c>
       <c r="B13" s="2">
         <f>COUNTIF(Таблица1[winner1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table91418[[#This Row],[ability]])</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <f>COUNTIF(Таблица1[winner1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table91418[[#This Row],[ability]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="16">
         <f>IF(SUM(Table91418[[#This Row],[takes]]) &gt; 0,Table91418[[#This Row],[takes]]/SUM(Table91418[takes]),0)</f>
-        <v>0.3902439024390244</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E13" s="16">
         <f>IF(Table91418[[#This Row],[takes]]&gt;0,Table91418[[#This Row],[wins]]/Table91418[[#This Row],[takes]],0)</f>
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -39419,19 +42053,19 @@
       </c>
       <c r="B14" s="15">
         <f>COUNTIF(Таблица1[winner1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table91418[[#This Row],[ability]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="15">
         <f>COUNTIF(Таблица1[winner1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table91418[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table91418[[#This Row],[ability]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="19">
         <f>IF(SUM(Table91418[[#This Row],[takes]]) &gt; 0,Table91418[[#This Row],[takes]]/SUM(Table91418[takes]),0)</f>
-        <v>2.4390243902439025E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E14" s="19">
         <f>IF(Table91418[[#This Row],[takes]]&gt;0,Table91418[[#This Row],[wins]]/Table91418[[#This Row],[takes]],0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -39465,7 +42099,7 @@
       </c>
       <c r="D17" s="16">
         <f>IF(SUM(Table101519[[#This Row],[takes]]) &gt; 0,Table101519[[#This Row],[takes]]/SUM(Table101519[takes]),0)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E17" s="16">
         <f>IF(Table101519[[#This Row],[takes]]&gt;0,Table101519[[#This Row],[wins]]/Table101519[[#This Row],[takes]],0)</f>
@@ -39478,19 +42112,19 @@
       </c>
       <c r="B18" s="2">
         <f>COUNTIF(Таблица1[winner1-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability4],Table101519[[#This Row],[ability]])</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2">
         <f>COUNTIF(Таблица1[winner1-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability4],Table101519[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability4],Table101519[[#This Row],[ability]])</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D18" s="16">
         <f>IF(SUM(Table101519[[#This Row],[takes]]) &gt; 0,Table101519[[#This Row],[takes]]/SUM(Table101519[takes]),0)</f>
-        <v>0.94444444444444442</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="E18" s="16">
         <f>IF(Table101519[[#This Row],[takes]]&gt;0,Table101519[[#This Row],[wins]]/Table101519[[#This Row],[takes]],0)</f>
-        <v>0.41176470588235292</v>
+        <v>0.43478260869565216</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -39577,30 +42211,30 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Таблица1[winner1-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table7121620[[#This Row],[ability]])</f>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <f>COUNTIF(Таблица1[winner1-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table7121620[[#This Row],[ability]])</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3">
         <f>IF(SUM(Table7121620[[#This Row],[takes]]) &gt; 0,Table7121620[[#This Row],[takes]]/SUM(Table7121620[takes]),0)</f>
-        <v>0.48888888888888887</v>
+        <v>0.49038461538461536</v>
       </c>
       <c r="E2" s="3">
         <f>IF(Table7121620[[#This Row],[takes]]&gt;0,Table7121620[[#This Row],[wins]]/Table7121620[[#This Row],[takes]],0)</f>
-        <v>0.54545454545454541</v>
+        <v>0.60784313725490191</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
         <f>COUNTIFS(Таблица1[winner1],"oracle",Таблица1[winner1-pw],Table42444546[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"oracle",Таблица1[winner2-pw],Table42444546[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"oracle",Таблица1[loser1-pw],Table42444546[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"oracle",Таблица1[loser2-pw],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[winner1],"oracle",Table41[winner1-pw],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[winner2],"oracle",Table41[winner2-pw],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[winner3],"oracle",Table41[winner3-pw],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[loser1],"oracle",Table41[loser1-pw],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[loser2],"oracle",Table41[loser2-pw],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[loser3],"oracle",Table41[loser3-pw],Table42444546[[#This Row],[level]])</f>
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="I2">
         <f>COUNTIFS(Таблица1[winner1],"oracle",Таблица1[winner1-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"oracle",Таблица1[winner2-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"oracle",Таблица1[loser1-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"oracle",Таблица1[loser2-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[winner1],"oracle",Table41[winner1-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[winner2],"oracle",Table41[winner2-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[winner3],"oracle",Table41[winner3-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[loser1],"oracle",Table41[loser1-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[loser2],"oracle",Table41[loser2-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[loser3],"oracle",Table41[loser3-cp],Table42444546[[#This Row],[level]])</f>
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -39609,7 +42243,7 @@
       </c>
       <c r="B3">
         <f>COUNTIF(Таблица1[winner1-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability1],Table7121620[[#This Row],[ability]])</f>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <f>COUNTIF(Таблица1[winner1-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability1],Table7121620[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability1],Table7121620[[#This Row],[ability]])</f>
@@ -39621,7 +42255,7 @@
       </c>
       <c r="E3" s="3">
         <f>IF(Table7121620[[#This Row],[takes]]&gt;0,Table7121620[[#This Row],[wins]]/Table7121620[[#This Row],[takes]],0)</f>
-        <v>0.4</v>
+        <v>0.34615384615384615</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -39632,7 +42266,7 @@
       </c>
       <c r="I3">
         <f>COUNTIFS(Таблица1[winner1],"oracle",Таблица1[winner1-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"oracle",Таблица1[winner2-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"oracle",Таблица1[loser1-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"oracle",Таблица1[loser2-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[winner1],"oracle",Table41[winner1-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[winner2],"oracle",Table41[winner2-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[winner3],"oracle",Table41[winner3-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[loser1],"oracle",Table41[loser1-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[loser2],"oracle",Table41[loser2-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[loser3],"oracle",Table41[loser3-cp],Table42444546[[#This Row],[level]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -39649,7 +42283,7 @@
       </c>
       <c r="D4" s="3">
         <f>IF(SUM(Table7121620[[#This Row],[takes]]) &gt; 0,Table7121620[[#This Row],[takes]]/SUM(Table7121620[takes]),0)</f>
-        <v>1.1111111111111112E-2</v>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="E4" s="3">
         <f>IF(Table7121620[[#This Row],[takes]]&gt;0,Table7121620[[#This Row],[wins]]/Table7121620[[#This Row],[takes]],0)</f>
@@ -39664,7 +42298,7 @@
       </c>
       <c r="I4">
         <f>COUNTIFS(Таблица1[winner1],"oracle",Таблица1[winner1-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Таблица1[winner2],"oracle",Таблица1[winner2-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Таблица1[loser1],"oracle",Таблица1[loser1-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Таблица1[loser2],"oracle",Таблица1[loser2-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[winner1],"oracle",Table41[winner1-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[winner2],"oracle",Table41[winner2-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[winner3],"oracle",Table41[winner3-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[loser1],"oracle",Table41[loser1-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[loser2],"oracle",Table41[loser2-cp],Table42444546[[#This Row],[level]])+COUNTIFS(Table41[loser3],"oracle",Table41[loser3-cp],Table42444546[[#This Row],[level]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -39690,19 +42324,19 @@
       </c>
       <c r="B7" s="2">
         <f>COUNTIF(Таблица1[winner1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table8131721[[#This Row],[ability]])</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
         <f>COUNTIF(Таблица1[winner1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8131721[[#This Row],[ability]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="16">
         <f>IF(SUM(Table8131721[[#This Row],[takes]]) &gt; 0,Table8131721[[#This Row],[takes]]/SUM(Table8131721[takes]),0)</f>
-        <v>0.140625</v>
+        <v>0.14666666666666667</v>
       </c>
       <c r="E7" s="16">
         <f>IF(Table8131721[[#This Row],[takes]]&gt;0,Table8131721[[#This Row],[wins]]/Table8131721[[#This Row],[takes]],0)</f>
-        <v>0.55555555555555558</v>
+        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -39711,19 +42345,19 @@
       </c>
       <c r="B8">
         <f>COUNTIF(Таблица1[winner1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table8131721[[#This Row],[ability]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <f>COUNTIF(Таблица1[winner1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8131721[[#This Row],[ability]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3">
         <f>IF(SUM(Table8131721[[#This Row],[takes]]) &gt; 0,Table8131721[[#This Row],[takes]]/SUM(Table8131721[takes]),0)</f>
-        <v>9.375E-2</v>
+        <v>9.3333333333333338E-2</v>
       </c>
       <c r="E8" s="3">
         <f>IF(Table8131721[[#This Row],[takes]]&gt;0,Table8131721[[#This Row],[wins]]/Table8131721[[#This Row],[takes]],0)</f>
-        <v>0.33333333333333331</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -39732,19 +42366,19 @@
       </c>
       <c r="B9" s="14">
         <f>COUNTIF(Таблица1[winner1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability2],Table8131721[[#This Row],[ability]])</f>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C9" s="14">
         <f>COUNTIF(Таблица1[winner1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability2],Table8131721[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability2],Table8131721[[#This Row],[ability]])</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" s="17">
         <f>IF(SUM(Table8131721[[#This Row],[takes]]) &gt; 0,Table8131721[[#This Row],[takes]]/SUM(Table8131721[takes]),0)</f>
-        <v>0.765625</v>
+        <v>0.76</v>
       </c>
       <c r="E9" s="17">
         <f>IF(Table8131721[[#This Row],[takes]]&gt;0,Table8131721[[#This Row],[wins]]/Table8131721[[#This Row],[takes]],0)</f>
-        <v>0.61224489795918369</v>
+        <v>0.57894736842105265</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -39770,19 +42404,19 @@
       </c>
       <c r="B12" s="1">
         <f>COUNTIF(Таблица1[winner1-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Таблица1[loser1-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Таблица1[loser2-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Table41[loser1-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Table41[loser2-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Table41[loser3-ability3],Table9141822[[#This Row],[ability]])</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
         <f>COUNTIF(Таблица1[winner1-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Таблица1[winner2-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Table41[winner1-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Table41[winner2-ability3],Table9141822[[#This Row],[ability]])+COUNTIF(Table41[winner3-ability3],Table9141822[[#This Row],[ability]])</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12" s="18">
         <f>IF(SUM(Table9141822[[#This Row],[takes]]) &gt; 0,Table9141822[[#This Row],[takes]]/SUM(Table9141822[takes]),0)</f>
-        <v>0.90909090909090906</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="E12" s="18">
         <f>IF(Table9141822[[#This Row],[takes]]&gt;0,Table9141822[[#This Row],[wins]]/Table9141822[[#This Row],[takes]],0)</f>
-        <v>0.55000000000000004</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -39799,7 +42433,7 @@
       </c>
       <c r="D13" s="16">
         <f>IF(SUM(Table9141822[[#This Row],[takes]]) &gt; 0,Table9141822[[#This Row],[takes]]/SUM(Table9141822[takes]),0)</f>
-        <v>4.5454545454545456E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="E13" s="16">
         <f>IF(Table9141822[[#This Row],[takes]]&gt;0,Table9141822[[#This Row],[wins]]/Table9141822[[#This Row],[takes]],0)</f>
@@ -39820,7 +42454,7 @@
       </c>
       <c r="D14" s="19">
         <f>IF(SUM(Table9141822[[#This Row],[takes]]) &gt; 0,Table9141822[[#This Row],[takes]]/SUM(Table9141822[takes]),0)</f>
-        <v>4.5454545454545456E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="E14" s="19">
         <f>IF(Table9141822[[#This Row],[takes]]&gt;0,Table9141822[[#This Row],[wins]]/Table9141822[[#This Row],[takes]],0)</f>
